--- a/2023.Roblox/보고서.xlsx
+++ b/2023.Roblox/보고서.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\MyProject\2023.Roblox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{256C6091-A93B-45F6-AA42-6707A7D847B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{144C0E47-4AB3-4EB5-AFEF-85D90AC06D3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12165" yWindow="435" windowWidth="11775" windowHeight="14580" xr2:uid="{4E01D864-CD35-434B-8531-55E7FE3796C5}"/>
+    <workbookView xWindow="765" yWindow="510" windowWidth="29745" windowHeight="14700" xr2:uid="{4E01D864-CD35-434B-8531-55E7FE3796C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -56,10 +56,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>13:00~</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>특이사항</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -102,6 +98,10 @@
 방탈출(doors + 숫자 찾기) (사물 알려주고 개수 입력하기), (추격씬 사이) 갈림길 선택</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>13:00~14:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -139,7 +139,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -472,16 +472,55 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -498,72 +537,72 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -883,7 +922,7 @@
   <dimension ref="B1:N46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -895,548 +934,550 @@
   <sheetData>
     <row r="1" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="10"/>
+      <c r="G2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="10"/>
+    </row>
+    <row r="3" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="11"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="13"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="13"/>
+    </row>
+    <row r="4" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="2:14" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="3"/>
-      <c r="G2" s="1" t="s">
+      <c r="G5" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="3"/>
-    </row>
-    <row r="3" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="6"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="6"/>
-    </row>
-    <row r="4" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="2:14" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="26" t="s">
-        <v>0</v>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="29"/>
+    </row>
+    <row r="6" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="17" t="s">
+        <v>3</v>
       </c>
-      <c r="C5" s="25" t="s">
-        <v>1</v>
+      <c r="C6" s="3" t="s">
+        <v>4</v>
       </c>
-      <c r="D5" s="11" t="s">
-        <v>2</v>
+      <c r="D6" s="24" t="s">
+        <v>3</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E6" s="25"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="32"/>
+    </row>
+    <row r="7" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="18"/>
+      <c r="C7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="27"/>
-    </row>
-    <row r="6" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="16"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28"/>
-    </row>
-    <row r="7" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="21"/>
-      <c r="C7" s="18" t="s">
+      <c r="E7" s="27"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="32"/>
+    </row>
+    <row r="8" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="18"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="16"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="32"/>
+    </row>
+    <row r="9" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="18"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="16"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="32"/>
+    </row>
+    <row r="10" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="18"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="16"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="32"/>
+    </row>
+    <row r="11" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="18"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="16"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="32"/>
+    </row>
+    <row r="12" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="18"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="16"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="32"/>
+    </row>
+    <row r="13" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="18"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="16"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="32"/>
+    </row>
+    <row r="14" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="18"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="16"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="32"/>
+    </row>
+    <row r="15" spans="2:14" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="19"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="16"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="32"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B16" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="14"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28"/>
-    </row>
-    <row r="8" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="21"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
-    </row>
-    <row r="9" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="21"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="8"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-    </row>
-    <row r="10" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="21"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="8"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28"/>
-    </row>
-    <row r="11" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="21"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="8"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
-    </row>
-    <row r="12" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="21"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="8"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
-    </row>
-    <row r="13" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="21"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="8"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
-    </row>
-    <row r="14" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="21"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="8"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
-    </row>
-    <row r="15" spans="2:14" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="22"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="8"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="28"/>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B16" s="20" t="s">
+      <c r="C16" s="20"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="16"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="32"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B17" s="18"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="16"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="31"/>
+      <c r="N17" s="32"/>
+    </row>
+    <row r="18" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="19"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="16"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="32"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B19" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="23"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="8"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="28"/>
-      <c r="N16" s="28"/>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B17" s="21"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="8"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="28"/>
-    </row>
-    <row r="18" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="22"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="8"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="28"/>
-      <c r="N18" s="28"/>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B19" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="23"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="8"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="28"/>
-      <c r="M19" s="28"/>
-      <c r="N19" s="28"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="16"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="32"/>
     </row>
     <row r="20" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="22"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="10"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="28"/>
-      <c r="N20" s="28"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="23"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="32"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="28"/>
-      <c r="N21" s="28"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="32"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="28"/>
-      <c r="N22" s="28"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="32"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="28"/>
-      <c r="M23" s="28"/>
-      <c r="N23" s="28"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="32"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="28"/>
-      <c r="M24" s="28"/>
-      <c r="N24" s="28"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="32"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="28"/>
-      <c r="L25" s="28"/>
-      <c r="M25" s="28"/>
-      <c r="N25" s="28"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="32"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="28"/>
-      <c r="M26" s="28"/>
-      <c r="N26" s="28"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="31"/>
+      <c r="M26" s="31"/>
+      <c r="N26" s="32"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="28"/>
-      <c r="L27" s="28"/>
-      <c r="M27" s="28"/>
-      <c r="N27" s="28"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="31"/>
+      <c r="L27" s="31"/>
+      <c r="M27" s="31"/>
+      <c r="N27" s="32"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="28"/>
-      <c r="L28" s="28"/>
-      <c r="M28" s="28"/>
-      <c r="N28" s="28"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="31"/>
+      <c r="M28" s="31"/>
+      <c r="N28" s="32"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="28"/>
-      <c r="L29" s="28"/>
-      <c r="M29" s="28"/>
-      <c r="N29" s="28"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="31"/>
+      <c r="K29" s="31"/>
+      <c r="L29" s="31"/>
+      <c r="M29" s="31"/>
+      <c r="N29" s="32"/>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="28"/>
-      <c r="K30" s="28"/>
-      <c r="L30" s="28"/>
-      <c r="M30" s="28"/>
-      <c r="N30" s="28"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="31"/>
+      <c r="N30" s="32"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="28"/>
-      <c r="K31" s="28"/>
-      <c r="L31" s="28"/>
-      <c r="M31" s="28"/>
-      <c r="N31" s="28"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="31"/>
+      <c r="K31" s="31"/>
+      <c r="L31" s="31"/>
+      <c r="M31" s="31"/>
+      <c r="N31" s="32"/>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="28"/>
-      <c r="K32" s="28"/>
-      <c r="L32" s="28"/>
-      <c r="M32" s="28"/>
-      <c r="N32" s="28"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="31"/>
+      <c r="L32" s="31"/>
+      <c r="M32" s="31"/>
+      <c r="N32" s="32"/>
     </row>
     <row r="33" spans="7:14" x14ac:dyDescent="0.3">
-      <c r="G33" s="28"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="28"/>
-      <c r="K33" s="28"/>
-      <c r="L33" s="28"/>
-      <c r="M33" s="28"/>
-      <c r="N33" s="28"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="31"/>
+      <c r="K33" s="31"/>
+      <c r="L33" s="31"/>
+      <c r="M33" s="31"/>
+      <c r="N33" s="32"/>
     </row>
     <row r="34" spans="7:14" x14ac:dyDescent="0.3">
-      <c r="G34" s="28"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="28"/>
-      <c r="K34" s="28"/>
-      <c r="L34" s="28"/>
-      <c r="M34" s="28"/>
-      <c r="N34" s="28"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="31"/>
+      <c r="K34" s="31"/>
+      <c r="L34" s="31"/>
+      <c r="M34" s="31"/>
+      <c r="N34" s="32"/>
     </row>
     <row r="35" spans="7:14" x14ac:dyDescent="0.3">
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="28"/>
-      <c r="K35" s="28"/>
-      <c r="L35" s="28"/>
-      <c r="M35" s="28"/>
-      <c r="N35" s="28"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="31"/>
+      <c r="K35" s="31"/>
+      <c r="L35" s="31"/>
+      <c r="M35" s="31"/>
+      <c r="N35" s="32"/>
     </row>
     <row r="36" spans="7:14" x14ac:dyDescent="0.3">
-      <c r="G36" s="28"/>
-      <c r="H36" s="28"/>
-      <c r="I36" s="28"/>
-      <c r="J36" s="28"/>
-      <c r="K36" s="28"/>
-      <c r="L36" s="28"/>
-      <c r="M36" s="28"/>
-      <c r="N36" s="28"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="31"/>
+      <c r="K36" s="31"/>
+      <c r="L36" s="31"/>
+      <c r="M36" s="31"/>
+      <c r="N36" s="32"/>
     </row>
     <row r="37" spans="7:14" x14ac:dyDescent="0.3">
-      <c r="G37" s="28"/>
-      <c r="H37" s="28"/>
-      <c r="I37" s="28"/>
-      <c r="J37" s="28"/>
-      <c r="K37" s="28"/>
-      <c r="L37" s="28"/>
-      <c r="M37" s="28"/>
-      <c r="N37" s="28"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="31"/>
+      <c r="K37" s="31"/>
+      <c r="L37" s="31"/>
+      <c r="M37" s="31"/>
+      <c r="N37" s="32"/>
     </row>
     <row r="38" spans="7:14" x14ac:dyDescent="0.3">
-      <c r="G38" s="28"/>
-      <c r="H38" s="28"/>
-      <c r="I38" s="28"/>
-      <c r="J38" s="28"/>
-      <c r="K38" s="28"/>
-      <c r="L38" s="28"/>
-      <c r="M38" s="28"/>
-      <c r="N38" s="28"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="31"/>
+      <c r="K38" s="31"/>
+      <c r="L38" s="31"/>
+      <c r="M38" s="31"/>
+      <c r="N38" s="32"/>
     </row>
     <row r="39" spans="7:14" x14ac:dyDescent="0.3">
-      <c r="G39" s="28"/>
-      <c r="H39" s="28"/>
-      <c r="I39" s="28"/>
-      <c r="J39" s="28"/>
-      <c r="K39" s="28"/>
-      <c r="L39" s="28"/>
-      <c r="M39" s="28"/>
-      <c r="N39" s="28"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="31"/>
+      <c r="K39" s="31"/>
+      <c r="L39" s="31"/>
+      <c r="M39" s="31"/>
+      <c r="N39" s="32"/>
     </row>
     <row r="40" spans="7:14" x14ac:dyDescent="0.3">
-      <c r="G40" s="28"/>
-      <c r="H40" s="28"/>
-      <c r="I40" s="28"/>
-      <c r="J40" s="28"/>
-      <c r="K40" s="28"/>
-      <c r="L40" s="28"/>
-      <c r="M40" s="28"/>
-      <c r="N40" s="28"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="31"/>
+      <c r="I40" s="31"/>
+      <c r="J40" s="31"/>
+      <c r="K40" s="31"/>
+      <c r="L40" s="31"/>
+      <c r="M40" s="31"/>
+      <c r="N40" s="32"/>
     </row>
     <row r="41" spans="7:14" x14ac:dyDescent="0.3">
-      <c r="G41" s="28"/>
-      <c r="H41" s="28"/>
-      <c r="I41" s="28"/>
-      <c r="J41" s="28"/>
-      <c r="K41" s="28"/>
-      <c r="L41" s="28"/>
-      <c r="M41" s="28"/>
-      <c r="N41" s="28"/>
+      <c r="G41" s="30"/>
+      <c r="H41" s="31"/>
+      <c r="I41" s="31"/>
+      <c r="J41" s="31"/>
+      <c r="K41" s="31"/>
+      <c r="L41" s="31"/>
+      <c r="M41" s="31"/>
+      <c r="N41" s="32"/>
     </row>
     <row r="42" spans="7:14" x14ac:dyDescent="0.3">
-      <c r="G42" s="28"/>
-      <c r="H42" s="28"/>
-      <c r="I42" s="28"/>
-      <c r="J42" s="28"/>
-      <c r="K42" s="28"/>
-      <c r="L42" s="28"/>
-      <c r="M42" s="28"/>
-      <c r="N42" s="28"/>
+      <c r="G42" s="30"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="31"/>
+      <c r="K42" s="31"/>
+      <c r="L42" s="31"/>
+      <c r="M42" s="31"/>
+      <c r="N42" s="32"/>
     </row>
     <row r="43" spans="7:14" x14ac:dyDescent="0.3">
-      <c r="G43" s="28"/>
-      <c r="H43" s="28"/>
-      <c r="I43" s="28"/>
-      <c r="J43" s="28"/>
-      <c r="K43" s="28"/>
-      <c r="L43" s="28"/>
-      <c r="M43" s="28"/>
-      <c r="N43" s="28"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="31"/>
+      <c r="J43" s="31"/>
+      <c r="K43" s="31"/>
+      <c r="L43" s="31"/>
+      <c r="M43" s="31"/>
+      <c r="N43" s="32"/>
     </row>
     <row r="44" spans="7:14" x14ac:dyDescent="0.3">
-      <c r="G44" s="28"/>
-      <c r="H44" s="28"/>
-      <c r="I44" s="28"/>
-      <c r="J44" s="28"/>
-      <c r="K44" s="28"/>
-      <c r="L44" s="28"/>
-      <c r="M44" s="28"/>
-      <c r="N44" s="28"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="31"/>
+      <c r="I44" s="31"/>
+      <c r="J44" s="31"/>
+      <c r="K44" s="31"/>
+      <c r="L44" s="31"/>
+      <c r="M44" s="31"/>
+      <c r="N44" s="32"/>
     </row>
     <row r="45" spans="7:14" x14ac:dyDescent="0.3">
-      <c r="G45" s="28"/>
-      <c r="H45" s="28"/>
-      <c r="I45" s="28"/>
-      <c r="J45" s="28"/>
-      <c r="K45" s="28"/>
-      <c r="L45" s="28"/>
-      <c r="M45" s="28"/>
-      <c r="N45" s="28"/>
-    </row>
-    <row r="46" spans="7:14" x14ac:dyDescent="0.3">
-      <c r="G46" s="28"/>
-      <c r="H46" s="28"/>
-      <c r="I46" s="28"/>
-      <c r="J46" s="28"/>
-      <c r="K46" s="28"/>
-      <c r="L46" s="28"/>
-      <c r="M46" s="28"/>
-      <c r="N46" s="28"/>
+      <c r="G45" s="30"/>
+      <c r="H45" s="31"/>
+      <c r="I45" s="31"/>
+      <c r="J45" s="31"/>
+      <c r="K45" s="31"/>
+      <c r="L45" s="31"/>
+      <c r="M45" s="31"/>
+      <c r="N45" s="32"/>
+    </row>
+    <row r="46" spans="7:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G46" s="33"/>
+      <c r="H46" s="34"/>
+      <c r="I46" s="34"/>
+      <c r="J46" s="34"/>
+      <c r="K46" s="34"/>
+      <c r="L46" s="34"/>
+      <c r="M46" s="34"/>
+      <c r="N46" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
     <mergeCell ref="G2:N3"/>
     <mergeCell ref="G5:N46"/>
     <mergeCell ref="D15:E15"/>
@@ -1453,8 +1494,6 @@
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2023.Roblox/보고서.xlsx
+++ b/2023.Roblox/보고서.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\MyProject\2023.Roblox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{144C0E47-4AB3-4EB5-AFEF-85D90AC06D3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD53CA39-86A3-46E7-A6EF-14674C6DFAC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="765" yWindow="510" windowWidth="29745" windowHeight="14700" xr2:uid="{4E01D864-CD35-434B-8531-55E7FE3796C5}"/>
+    <workbookView xWindow="20085" yWindow="780" windowWidth="14685" windowHeight="14700" xr2:uid="{4E01D864-CD35-434B-8531-55E7FE3796C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="54">
   <si>
     <t>성명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -77,6 +77,10 @@
   </si>
   <si>
     <t>회의 내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:00~14:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -99,7 +103,167 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>13:00~14:00</t>
+    <t>병원 메인 홀 제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>병원 계단 제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점심 및 휴식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>튜토리얼 맵 손보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>튜토리얼 맵 최종 손보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17:01~17:50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지1 일부 제작(원장실, 복도, 환자방)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16:32~17:01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14:00~16:21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:10~13:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:00~11:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:00~13:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동시 사운드나 효과가 필요해 보임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버그 수정 및 이동 효과 삽입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14:00~17:50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퍼그 매커니즘 구현 시도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조명 부분에서 문제가 자꾸 발생함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퍼그 매커니즘 구현 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스폰 포인트 오류 수정 및 퍼즐 스테이지 제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>병실 모델 수정 및 기타 버그 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퍼즐 맵 제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타 버그 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오브젝트 배치 및 사운드 탐색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사운드 삽입이 필요한 포인트가 체크가 필요함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-09-01 금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-09-04 월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-08-31 목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-08-30 수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-08-29 화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-08-28 월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사운드 배치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일부 맵 재작 및 디버깅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사운드 버그와 아이템 픽업 버그 해결이 필요하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-09-05 화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버그 수정 및 노트 시스템 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>튜토리얼 맵 일부 제작 및 버그 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스폰포인트 버그가 발생해서 새로운 스크립트를 이용하였다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-09-06 수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버그 수정 및 추적 맵 완성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이전 '퍼그 맵' 리메이크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버 자체에 문제가 생겨서 스크립트 전체가 작동하지 않음</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -107,7 +271,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,6 +294,30 @@
       <family val="1"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -496,7 +684,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -521,6 +709,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -539,58 +763,37 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
@@ -919,10 +1122,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38631B98-C762-49C9-9DB7-C4CEF205C505}">
-  <dimension ref="B1:N46"/>
+  <dimension ref="B1:N188"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+    <sheetView tabSelected="1" topLeftCell="A173" workbookViewId="0">
+      <selection activeCell="C187" sqref="C187:E188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -934,36 +1137,36 @@
   <sheetData>
     <row r="1" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="10"/>
-      <c r="G2" s="8" t="s">
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="22"/>
+      <c r="G2" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="10"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="22"/>
     </row>
     <row r="3" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="11"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="13"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="13"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="25"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="25"/>
     </row>
     <row r="4" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="2:14" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -979,508 +1182,1690 @@
       <c r="E5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="29"/>
+      <c r="G5" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="34"/>
     </row>
     <row r="6" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="25"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="32"/>
+      <c r="E6" s="27"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="37"/>
     </row>
     <row r="7" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="18"/>
+      <c r="B7" s="11"/>
       <c r="C7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="27"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="32"/>
+      <c r="E7" s="29"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="37"/>
     </row>
     <row r="8" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="18"/>
+      <c r="B8" s="11"/>
       <c r="C8" s="5"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="16"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="32"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="15"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="37"/>
     </row>
     <row r="9" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="18"/>
+      <c r="B9" s="11"/>
       <c r="C9" s="5"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="16"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="32"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="15"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="37"/>
     </row>
     <row r="10" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="18"/>
+      <c r="B10" s="11"/>
       <c r="C10" s="5"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="16"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="32"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="15"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="37"/>
     </row>
     <row r="11" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="18"/>
+      <c r="B11" s="11"/>
       <c r="C11" s="5"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="16"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="32"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="15"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="37"/>
     </row>
     <row r="12" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="18"/>
+      <c r="B12" s="11"/>
       <c r="C12" s="5"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="16"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="32"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="15"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="37"/>
     </row>
     <row r="13" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="18"/>
+      <c r="B13" s="11"/>
       <c r="C13" s="5"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="16"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="31"/>
-      <c r="N13" s="32"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="15"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="37"/>
     </row>
     <row r="14" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="18"/>
+      <c r="B14" s="11"/>
       <c r="C14" s="5"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="16"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="31"/>
-      <c r="N14" s="32"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="15"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="37"/>
     </row>
     <row r="15" spans="2:14" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="19"/>
+      <c r="B15" s="12"/>
       <c r="C15" s="5"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="16"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="31"/>
-      <c r="N15" s="32"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="15"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="37"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="16"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="32"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="15"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="37"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B17" s="18"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="16"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="31"/>
-      <c r="M17" s="31"/>
-      <c r="N17" s="32"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="15"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="37"/>
     </row>
     <row r="18" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="19"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="16"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="31"/>
-      <c r="N18" s="32"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="15"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="37"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="20"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="16"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="32"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="15"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="37"/>
     </row>
     <row r="20" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="19"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="23"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="31"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="32"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="19"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="40"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="G21" s="30"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="31"/>
-      <c r="M21" s="31"/>
-      <c r="N21" s="32"/>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="G22" s="30"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="31"/>
-      <c r="L22" s="31"/>
-      <c r="M22" s="31"/>
-      <c r="N22" s="32"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+    </row>
+    <row r="22" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="G23" s="30"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="31"/>
-      <c r="M23" s="31"/>
-      <c r="N23" s="32"/>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="G24" s="30"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="31"/>
-      <c r="K24" s="31"/>
-      <c r="L24" s="31"/>
-      <c r="M24" s="31"/>
-      <c r="N24" s="32"/>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="G25" s="30"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="31"/>
-      <c r="L25" s="31"/>
-      <c r="M25" s="31"/>
-      <c r="N25" s="32"/>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="G26" s="30"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="31"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="31"/>
-      <c r="L26" s="31"/>
-      <c r="M26" s="31"/>
-      <c r="N26" s="32"/>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="G27" s="30"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="31"/>
-      <c r="K27" s="31"/>
-      <c r="L27" s="31"/>
-      <c r="M27" s="31"/>
-      <c r="N27" s="32"/>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="G28" s="30"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="31"/>
-      <c r="K28" s="31"/>
-      <c r="L28" s="31"/>
-      <c r="M28" s="31"/>
-      <c r="N28" s="32"/>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="G29" s="30"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="31"/>
-      <c r="K29" s="31"/>
-      <c r="L29" s="31"/>
-      <c r="M29" s="31"/>
-      <c r="N29" s="32"/>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="G30" s="30"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="31"/>
-      <c r="K30" s="31"/>
-      <c r="L30" s="31"/>
-      <c r="M30" s="31"/>
-      <c r="N30" s="32"/>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="G31" s="30"/>
-      <c r="H31" s="31"/>
-      <c r="I31" s="31"/>
-      <c r="J31" s="31"/>
-      <c r="K31" s="31"/>
-      <c r="L31" s="31"/>
-      <c r="M31" s="31"/>
-      <c r="N31" s="32"/>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="G32" s="30"/>
-      <c r="H32" s="31"/>
-      <c r="I32" s="31"/>
-      <c r="J32" s="31"/>
-      <c r="K32" s="31"/>
-      <c r="L32" s="31"/>
-      <c r="M32" s="31"/>
-      <c r="N32" s="32"/>
-    </row>
-    <row r="33" spans="7:14" x14ac:dyDescent="0.3">
-      <c r="G33" s="30"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="31"/>
-      <c r="K33" s="31"/>
-      <c r="L33" s="31"/>
-      <c r="M33" s="31"/>
-      <c r="N33" s="32"/>
-    </row>
-    <row r="34" spans="7:14" x14ac:dyDescent="0.3">
-      <c r="G34" s="30"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="31"/>
-      <c r="K34" s="31"/>
-      <c r="L34" s="31"/>
-      <c r="M34" s="31"/>
-      <c r="N34" s="32"/>
-    </row>
-    <row r="35" spans="7:14" x14ac:dyDescent="0.3">
-      <c r="G35" s="30"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="31"/>
-      <c r="J35" s="31"/>
-      <c r="K35" s="31"/>
-      <c r="L35" s="31"/>
-      <c r="M35" s="31"/>
-      <c r="N35" s="32"/>
-    </row>
-    <row r="36" spans="7:14" x14ac:dyDescent="0.3">
-      <c r="G36" s="30"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="31"/>
-      <c r="K36" s="31"/>
-      <c r="L36" s="31"/>
-      <c r="M36" s="31"/>
-      <c r="N36" s="32"/>
-    </row>
-    <row r="37" spans="7:14" x14ac:dyDescent="0.3">
-      <c r="G37" s="30"/>
-      <c r="H37" s="31"/>
-      <c r="I37" s="31"/>
-      <c r="J37" s="31"/>
-      <c r="K37" s="31"/>
-      <c r="L37" s="31"/>
-      <c r="M37" s="31"/>
-      <c r="N37" s="32"/>
-    </row>
-    <row r="38" spans="7:14" x14ac:dyDescent="0.3">
-      <c r="G38" s="30"/>
-      <c r="H38" s="31"/>
-      <c r="I38" s="31"/>
-      <c r="J38" s="31"/>
-      <c r="K38" s="31"/>
-      <c r="L38" s="31"/>
-      <c r="M38" s="31"/>
-      <c r="N38" s="32"/>
-    </row>
-    <row r="39" spans="7:14" x14ac:dyDescent="0.3">
-      <c r="G39" s="30"/>
-      <c r="H39" s="31"/>
-      <c r="I39" s="31"/>
-      <c r="J39" s="31"/>
-      <c r="K39" s="31"/>
-      <c r="L39" s="31"/>
-      <c r="M39" s="31"/>
-      <c r="N39" s="32"/>
-    </row>
-    <row r="40" spans="7:14" x14ac:dyDescent="0.3">
-      <c r="G40" s="30"/>
-      <c r="H40" s="31"/>
-      <c r="I40" s="31"/>
-      <c r="J40" s="31"/>
-      <c r="K40" s="31"/>
-      <c r="L40" s="31"/>
-      <c r="M40" s="31"/>
-      <c r="N40" s="32"/>
-    </row>
-    <row r="41" spans="7:14" x14ac:dyDescent="0.3">
-      <c r="G41" s="30"/>
-      <c r="H41" s="31"/>
-      <c r="I41" s="31"/>
-      <c r="J41" s="31"/>
-      <c r="K41" s="31"/>
-      <c r="L41" s="31"/>
-      <c r="M41" s="31"/>
-      <c r="N41" s="32"/>
-    </row>
-    <row r="42" spans="7:14" x14ac:dyDescent="0.3">
-      <c r="G42" s="30"/>
-      <c r="H42" s="31"/>
-      <c r="I42" s="31"/>
-      <c r="J42" s="31"/>
-      <c r="K42" s="31"/>
-      <c r="L42" s="31"/>
-      <c r="M42" s="31"/>
-      <c r="N42" s="32"/>
-    </row>
-    <row r="43" spans="7:14" x14ac:dyDescent="0.3">
-      <c r="G43" s="30"/>
-      <c r="H43" s="31"/>
-      <c r="I43" s="31"/>
-      <c r="J43" s="31"/>
-      <c r="K43" s="31"/>
-      <c r="L43" s="31"/>
-      <c r="M43" s="31"/>
-      <c r="N43" s="32"/>
-    </row>
-    <row r="44" spans="7:14" x14ac:dyDescent="0.3">
-      <c r="G44" s="30"/>
-      <c r="H44" s="31"/>
-      <c r="I44" s="31"/>
-      <c r="J44" s="31"/>
-      <c r="K44" s="31"/>
-      <c r="L44" s="31"/>
-      <c r="M44" s="31"/>
-      <c r="N44" s="32"/>
-    </row>
-    <row r="45" spans="7:14" x14ac:dyDescent="0.3">
-      <c r="G45" s="30"/>
-      <c r="H45" s="31"/>
-      <c r="I45" s="31"/>
-      <c r="J45" s="31"/>
-      <c r="K45" s="31"/>
-      <c r="L45" s="31"/>
-      <c r="M45" s="31"/>
-      <c r="N45" s="32"/>
-    </row>
-    <row r="46" spans="7:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G46" s="33"/>
-      <c r="H46" s="34"/>
-      <c r="I46" s="34"/>
-      <c r="J46" s="34"/>
-      <c r="K46" s="34"/>
-      <c r="L46" s="34"/>
-      <c r="M46" s="34"/>
-      <c r="N46" s="35"/>
+      <c r="B23" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="22"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+    </row>
+    <row r="24" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="23"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="25"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+    </row>
+    <row r="25" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+    </row>
+    <row r="26" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+    </row>
+    <row r="27" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="27"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+    </row>
+    <row r="28" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="11"/>
+      <c r="C28" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="29"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+    </row>
+    <row r="29" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="11"/>
+      <c r="C29" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="15"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+    </row>
+    <row r="30" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="11"/>
+      <c r="C30" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" s="15"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+    </row>
+    <row r="31" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="11"/>
+      <c r="C31" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" s="15"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+    </row>
+    <row r="32" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="11"/>
+      <c r="C32" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" s="15"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+    </row>
+    <row r="33" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="11"/>
+      <c r="C33" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" s="31"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+    </row>
+    <row r="34" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="11"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="15"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="8"/>
+    </row>
+    <row r="35" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="11"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="15"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="8"/>
+    </row>
+    <row r="36" spans="2:14" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="12"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="15"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="8"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B37" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" s="14"/>
+      <c r="E37" s="15"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="8"/>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B38" s="11"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="15"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="8"/>
+    </row>
+    <row r="39" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="12"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="15"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="8"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B40" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="13"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="15"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="8"/>
+      <c r="M40" s="8"/>
+      <c r="N40" s="8"/>
+    </row>
+    <row r="41" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="12"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="19"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="8"/>
+      <c r="M41" s="8"/>
+      <c r="N41" s="8"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="8"/>
+      <c r="M42" s="8"/>
+      <c r="N42" s="8"/>
+    </row>
+    <row r="43" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
+      <c r="M43" s="8"/>
+      <c r="N43" s="8"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B44" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="22"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="8"/>
+      <c r="M44" s="8"/>
+      <c r="N44" s="8"/>
+    </row>
+    <row r="45" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="23"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="25"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="8"/>
+      <c r="L45" s="8"/>
+      <c r="M45" s="8"/>
+      <c r="N45" s="8"/>
+    </row>
+    <row r="46" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="8"/>
+      <c r="L46" s="8"/>
+      <c r="M46" s="8"/>
+      <c r="N46" s="8"/>
+    </row>
+    <row r="47" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="E48" s="27"/>
+    </row>
+    <row r="49" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="11"/>
+      <c r="C49" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D49" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="E49" s="29"/>
+    </row>
+    <row r="50" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="11"/>
+      <c r="C50" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E50" s="15"/>
+    </row>
+    <row r="51" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="11"/>
+      <c r="C51" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D51" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E51" s="15"/>
+    </row>
+    <row r="52" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="11"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="15"/>
+    </row>
+    <row r="53" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="11"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="15"/>
+    </row>
+    <row r="54" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="11"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="15"/>
+    </row>
+    <row r="55" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="11"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="15"/>
+    </row>
+    <row r="56" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="11"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="15"/>
+    </row>
+    <row r="57" spans="2:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B57" s="12"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="15"/>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B58" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D58" s="14"/>
+      <c r="E58" s="15"/>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B59" s="11"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="15"/>
+    </row>
+    <row r="60" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B60" s="12"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="15"/>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B61" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" s="13"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="15"/>
+    </row>
+    <row r="62" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B62" s="12"/>
+      <c r="C62" s="17"/>
+      <c r="D62" s="18"/>
+      <c r="E62" s="19"/>
+    </row>
+    <row r="64" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B65" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C65" s="21"/>
+      <c r="D65" s="21"/>
+      <c r="E65" s="22"/>
+    </row>
+    <row r="66" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B66" s="23"/>
+      <c r="C66" s="24"/>
+      <c r="D66" s="24"/>
+      <c r="E66" s="25"/>
+    </row>
+    <row r="67" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="68" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B68" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B69" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D69" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="E69" s="27"/>
+    </row>
+    <row r="70" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="11"/>
+      <c r="C70" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D70" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="E70" s="29"/>
+    </row>
+    <row r="71" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="11"/>
+      <c r="C71" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D71" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E71" s="15"/>
+    </row>
+    <row r="72" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="11"/>
+      <c r="C72" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D72" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="E72" s="31"/>
+    </row>
+    <row r="73" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="11"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="15"/>
+    </row>
+    <row r="74" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="11"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="15"/>
+    </row>
+    <row r="75" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="11"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="15"/>
+    </row>
+    <row r="76" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="11"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="15"/>
+    </row>
+    <row r="77" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="11"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="15"/>
+    </row>
+    <row r="78" spans="2:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B78" s="12"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="14"/>
+      <c r="E78" s="15"/>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B79" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C79" s="13"/>
+      <c r="D79" s="14"/>
+      <c r="E79" s="15"/>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B80" s="11"/>
+      <c r="C80" s="13"/>
+      <c r="D80" s="14"/>
+      <c r="E80" s="15"/>
+    </row>
+    <row r="81" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B81" s="12"/>
+      <c r="C81" s="13"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="15"/>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B82" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C82" s="13"/>
+      <c r="D82" s="14"/>
+      <c r="E82" s="15"/>
+    </row>
+    <row r="83" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B83" s="12"/>
+      <c r="C83" s="17"/>
+      <c r="D83" s="18"/>
+      <c r="E83" s="19"/>
+    </row>
+    <row r="85" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B86" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C86" s="21"/>
+      <c r="D86" s="21"/>
+      <c r="E86" s="22"/>
+    </row>
+    <row r="87" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B87" s="23"/>
+      <c r="C87" s="24"/>
+      <c r="D87" s="24"/>
+      <c r="E87" s="25"/>
+    </row>
+    <row r="88" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="89" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B89" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B90" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D90" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="E90" s="27"/>
+    </row>
+    <row r="91" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B91" s="11"/>
+      <c r="C91" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D91" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="E91" s="29"/>
+    </row>
+    <row r="92" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B92" s="11"/>
+      <c r="C92" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D92" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E92" s="15"/>
+    </row>
+    <row r="93" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B93" s="11"/>
+      <c r="C93" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D93" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="E93" s="31"/>
+    </row>
+    <row r="94" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B94" s="11"/>
+      <c r="C94" s="5"/>
+      <c r="D94" s="14"/>
+      <c r="E94" s="15"/>
+    </row>
+    <row r="95" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B95" s="11"/>
+      <c r="C95" s="5"/>
+      <c r="D95" s="14"/>
+      <c r="E95" s="15"/>
+    </row>
+    <row r="96" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B96" s="11"/>
+      <c r="C96" s="5"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="15"/>
+    </row>
+    <row r="97" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B97" s="11"/>
+      <c r="C97" s="5"/>
+      <c r="D97" s="14"/>
+      <c r="E97" s="15"/>
+    </row>
+    <row r="98" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B98" s="11"/>
+      <c r="C98" s="5"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="15"/>
+    </row>
+    <row r="99" spans="2:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B99" s="12"/>
+      <c r="C99" s="5"/>
+      <c r="D99" s="14"/>
+      <c r="E99" s="15"/>
+    </row>
+    <row r="100" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B100" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C100" s="13"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="15"/>
+    </row>
+    <row r="101" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B101" s="11"/>
+      <c r="C101" s="13"/>
+      <c r="D101" s="14"/>
+      <c r="E101" s="15"/>
+    </row>
+    <row r="102" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B102" s="12"/>
+      <c r="C102" s="13"/>
+      <c r="D102" s="14"/>
+      <c r="E102" s="15"/>
+    </row>
+    <row r="103" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B103" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C103" s="13"/>
+      <c r="D103" s="14"/>
+      <c r="E103" s="15"/>
+    </row>
+    <row r="104" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B104" s="12"/>
+      <c r="C104" s="17"/>
+      <c r="D104" s="18"/>
+      <c r="E104" s="19"/>
+    </row>
+    <row r="106" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="107" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B107" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C107" s="21"/>
+      <c r="D107" s="21"/>
+      <c r="E107" s="22"/>
+    </row>
+    <row r="108" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B108" s="23"/>
+      <c r="C108" s="24"/>
+      <c r="D108" s="24"/>
+      <c r="E108" s="25"/>
+    </row>
+    <row r="109" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="110" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B110" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="111" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B111" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D111" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="E111" s="27"/>
+    </row>
+    <row r="112" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B112" s="11"/>
+      <c r="C112" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D112" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="E112" s="29"/>
+    </row>
+    <row r="113" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B113" s="11"/>
+      <c r="C113" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D113" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E113" s="15"/>
+    </row>
+    <row r="114" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B114" s="11"/>
+      <c r="C114" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D114" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="E114" s="31"/>
+    </row>
+    <row r="115" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B115" s="11"/>
+      <c r="C115" s="5"/>
+      <c r="D115" s="14"/>
+      <c r="E115" s="15"/>
+    </row>
+    <row r="116" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B116" s="11"/>
+      <c r="C116" s="5"/>
+      <c r="D116" s="14"/>
+      <c r="E116" s="15"/>
+    </row>
+    <row r="117" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B117" s="11"/>
+      <c r="C117" s="5"/>
+      <c r="D117" s="14"/>
+      <c r="E117" s="15"/>
+    </row>
+    <row r="118" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B118" s="11"/>
+      <c r="C118" s="5"/>
+      <c r="D118" s="14"/>
+      <c r="E118" s="15"/>
+    </row>
+    <row r="119" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B119" s="11"/>
+      <c r="C119" s="5"/>
+      <c r="D119" s="14"/>
+      <c r="E119" s="15"/>
+    </row>
+    <row r="120" spans="2:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B120" s="12"/>
+      <c r="C120" s="5"/>
+      <c r="D120" s="14"/>
+      <c r="E120" s="15"/>
+    </row>
+    <row r="121" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B121" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C121" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D121" s="14"/>
+      <c r="E121" s="15"/>
+    </row>
+    <row r="122" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B122" s="11"/>
+      <c r="C122" s="13"/>
+      <c r="D122" s="14"/>
+      <c r="E122" s="15"/>
+    </row>
+    <row r="123" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B123" s="12"/>
+      <c r="C123" s="13"/>
+      <c r="D123" s="14"/>
+      <c r="E123" s="15"/>
+    </row>
+    <row r="124" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B124" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C124" s="13"/>
+      <c r="D124" s="14"/>
+      <c r="E124" s="15"/>
+    </row>
+    <row r="125" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B125" s="12"/>
+      <c r="C125" s="17"/>
+      <c r="D125" s="18"/>
+      <c r="E125" s="19"/>
+    </row>
+    <row r="127" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="128" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B128" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C128" s="21"/>
+      <c r="D128" s="21"/>
+      <c r="E128" s="22"/>
+    </row>
+    <row r="129" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B129" s="23"/>
+      <c r="C129" s="24"/>
+      <c r="D129" s="24"/>
+      <c r="E129" s="25"/>
+    </row>
+    <row r="130" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="131" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B131" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C131" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="132" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B132" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D132" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="E132" s="27"/>
+    </row>
+    <row r="133" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B133" s="11"/>
+      <c r="C133" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D133" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="E133" s="29"/>
+    </row>
+    <row r="134" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B134" s="11"/>
+      <c r="C134" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D134" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E134" s="15"/>
+    </row>
+    <row r="135" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B135" s="11"/>
+      <c r="C135" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D135" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="E135" s="31"/>
+    </row>
+    <row r="136" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B136" s="11"/>
+      <c r="C136" s="5"/>
+      <c r="D136" s="14"/>
+      <c r="E136" s="15"/>
+    </row>
+    <row r="137" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B137" s="11"/>
+      <c r="C137" s="5"/>
+      <c r="D137" s="14"/>
+      <c r="E137" s="15"/>
+    </row>
+    <row r="138" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B138" s="11"/>
+      <c r="C138" s="5"/>
+      <c r="D138" s="14"/>
+      <c r="E138" s="15"/>
+    </row>
+    <row r="139" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B139" s="11"/>
+      <c r="C139" s="5"/>
+      <c r="D139" s="14"/>
+      <c r="E139" s="15"/>
+    </row>
+    <row r="140" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B140" s="11"/>
+      <c r="C140" s="5"/>
+      <c r="D140" s="14"/>
+      <c r="E140" s="15"/>
+    </row>
+    <row r="141" spans="2:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B141" s="12"/>
+      <c r="C141" s="5"/>
+      <c r="D141" s="14"/>
+      <c r="E141" s="15"/>
+    </row>
+    <row r="142" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B142" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C142" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D142" s="14"/>
+      <c r="E142" s="15"/>
+    </row>
+    <row r="143" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B143" s="11"/>
+      <c r="C143" s="13"/>
+      <c r="D143" s="14"/>
+      <c r="E143" s="15"/>
+    </row>
+    <row r="144" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B144" s="12"/>
+      <c r="C144" s="13"/>
+      <c r="D144" s="14"/>
+      <c r="E144" s="15"/>
+    </row>
+    <row r="145" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B145" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C145" s="13"/>
+      <c r="D145" s="14"/>
+      <c r="E145" s="15"/>
+    </row>
+    <row r="146" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B146" s="12"/>
+      <c r="C146" s="17"/>
+      <c r="D146" s="18"/>
+      <c r="E146" s="19"/>
+    </row>
+    <row r="148" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="149" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B149" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C149" s="21"/>
+      <c r="D149" s="21"/>
+      <c r="E149" s="22"/>
+    </row>
+    <row r="150" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B150" s="23"/>
+      <c r="C150" s="24"/>
+      <c r="D150" s="24"/>
+      <c r="E150" s="25"/>
+    </row>
+    <row r="151" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="152" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B152" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C152" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="153" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B153" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D153" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="E153" s="27"/>
+    </row>
+    <row r="154" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B154" s="11"/>
+      <c r="C154" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D154" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="E154" s="29"/>
+    </row>
+    <row r="155" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B155" s="11"/>
+      <c r="C155" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D155" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E155" s="15"/>
+    </row>
+    <row r="156" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B156" s="11"/>
+      <c r="C156" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D156" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="E156" s="31"/>
+    </row>
+    <row r="157" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B157" s="11"/>
+      <c r="C157" s="5"/>
+      <c r="D157" s="14"/>
+      <c r="E157" s="15"/>
+    </row>
+    <row r="158" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B158" s="11"/>
+      <c r="C158" s="5"/>
+      <c r="D158" s="14"/>
+      <c r="E158" s="15"/>
+    </row>
+    <row r="159" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B159" s="11"/>
+      <c r="C159" s="5"/>
+      <c r="D159" s="14"/>
+      <c r="E159" s="15"/>
+    </row>
+    <row r="160" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B160" s="11"/>
+      <c r="C160" s="5"/>
+      <c r="D160" s="14"/>
+      <c r="E160" s="15"/>
+    </row>
+    <row r="161" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B161" s="11"/>
+      <c r="C161" s="5"/>
+      <c r="D161" s="14"/>
+      <c r="E161" s="15"/>
+    </row>
+    <row r="162" spans="2:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B162" s="12"/>
+      <c r="C162" s="5"/>
+      <c r="D162" s="14"/>
+      <c r="E162" s="15"/>
+    </row>
+    <row r="163" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B163" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C163" s="13"/>
+      <c r="D163" s="14"/>
+      <c r="E163" s="15"/>
+    </row>
+    <row r="164" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B164" s="11"/>
+      <c r="C164" s="13"/>
+      <c r="D164" s="14"/>
+      <c r="E164" s="15"/>
+    </row>
+    <row r="165" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B165" s="12"/>
+      <c r="C165" s="13"/>
+      <c r="D165" s="14"/>
+      <c r="E165" s="15"/>
+    </row>
+    <row r="166" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B166" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C166" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D166" s="14"/>
+      <c r="E166" s="15"/>
+    </row>
+    <row r="167" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B167" s="12"/>
+      <c r="C167" s="17"/>
+      <c r="D167" s="18"/>
+      <c r="E167" s="19"/>
+    </row>
+    <row r="169" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="170" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B170" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C170" s="21"/>
+      <c r="D170" s="21"/>
+      <c r="E170" s="22"/>
+    </row>
+    <row r="171" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B171" s="23"/>
+      <c r="C171" s="24"/>
+      <c r="D171" s="24"/>
+      <c r="E171" s="25"/>
+    </row>
+    <row r="172" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="173" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B173" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C173" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="174" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B174" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D174" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="E174" s="27"/>
+    </row>
+    <row r="175" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B175" s="11"/>
+      <c r="C175" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D175" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="E175" s="29"/>
+    </row>
+    <row r="176" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B176" s="11"/>
+      <c r="C176" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D176" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E176" s="15"/>
+    </row>
+    <row r="177" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B177" s="11"/>
+      <c r="C177" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D177" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="E177" s="31"/>
+    </row>
+    <row r="178" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B178" s="11"/>
+      <c r="C178" s="5"/>
+      <c r="D178" s="14"/>
+      <c r="E178" s="15"/>
+    </row>
+    <row r="179" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B179" s="11"/>
+      <c r="C179" s="5"/>
+      <c r="D179" s="14"/>
+      <c r="E179" s="15"/>
+    </row>
+    <row r="180" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B180" s="11"/>
+      <c r="C180" s="5"/>
+      <c r="D180" s="14"/>
+      <c r="E180" s="15"/>
+    </row>
+    <row r="181" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B181" s="11"/>
+      <c r="C181" s="5"/>
+      <c r="D181" s="14"/>
+      <c r="E181" s="15"/>
+    </row>
+    <row r="182" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B182" s="11"/>
+      <c r="C182" s="5"/>
+      <c r="D182" s="14"/>
+      <c r="E182" s="15"/>
+    </row>
+    <row r="183" spans="2:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B183" s="12"/>
+      <c r="C183" s="5"/>
+      <c r="D183" s="14"/>
+      <c r="E183" s="15"/>
+    </row>
+    <row r="184" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B184" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C184" s="13"/>
+      <c r="D184" s="14"/>
+      <c r="E184" s="15"/>
+    </row>
+    <row r="185" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B185" s="11"/>
+      <c r="C185" s="13"/>
+      <c r="D185" s="14"/>
+      <c r="E185" s="15"/>
+    </row>
+    <row r="186" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B186" s="12"/>
+      <c r="C186" s="13"/>
+      <c r="D186" s="14"/>
+      <c r="E186" s="15"/>
+    </row>
+    <row r="187" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B187" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C187" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D187" s="14"/>
+      <c r="E187" s="15"/>
+    </row>
+    <row r="188" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B188" s="12"/>
+      <c r="C188" s="17"/>
+      <c r="D188" s="18"/>
+      <c r="E188" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="146">
+    <mergeCell ref="B184:B186"/>
+    <mergeCell ref="C184:E186"/>
+    <mergeCell ref="B187:B188"/>
+    <mergeCell ref="C187:E188"/>
+    <mergeCell ref="B170:E171"/>
+    <mergeCell ref="B174:B183"/>
+    <mergeCell ref="D174:E174"/>
+    <mergeCell ref="D175:E175"/>
+    <mergeCell ref="D176:E176"/>
+    <mergeCell ref="D177:E177"/>
+    <mergeCell ref="D178:E178"/>
+    <mergeCell ref="D179:E179"/>
+    <mergeCell ref="D180:E180"/>
+    <mergeCell ref="D181:E181"/>
+    <mergeCell ref="D182:E182"/>
+    <mergeCell ref="D183:E183"/>
+    <mergeCell ref="B100:B102"/>
+    <mergeCell ref="C100:E102"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:E104"/>
+    <mergeCell ref="B86:E87"/>
+    <mergeCell ref="B90:B99"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="D97:E97"/>
+    <mergeCell ref="D98:E98"/>
+    <mergeCell ref="D99:E99"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="C58:E60"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:E62"/>
+    <mergeCell ref="B44:E45"/>
+    <mergeCell ref="B48:B57"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="C37:E39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:E41"/>
     <mergeCell ref="G2:N3"/>
-    <mergeCell ref="G5:N46"/>
     <mergeCell ref="D15:E15"/>
+    <mergeCell ref="G5:N20"/>
+    <mergeCell ref="B23:E24"/>
+    <mergeCell ref="B27:B36"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="C16:E18"/>
     <mergeCell ref="B19:B20"/>
@@ -1492,8 +2877,70 @@
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="B79:B81"/>
+    <mergeCell ref="C79:E81"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="C82:E83"/>
+    <mergeCell ref="B65:E66"/>
+    <mergeCell ref="B69:B78"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="B121:B123"/>
+    <mergeCell ref="C121:E123"/>
+    <mergeCell ref="B124:B125"/>
+    <mergeCell ref="C124:E125"/>
+    <mergeCell ref="B128:E129"/>
+    <mergeCell ref="B107:E108"/>
+    <mergeCell ref="B111:B120"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="D113:E113"/>
+    <mergeCell ref="D114:E114"/>
+    <mergeCell ref="D115:E115"/>
+    <mergeCell ref="D116:E116"/>
+    <mergeCell ref="D117:E117"/>
+    <mergeCell ref="D118:E118"/>
+    <mergeCell ref="D119:E119"/>
+    <mergeCell ref="D120:E120"/>
+    <mergeCell ref="B142:B144"/>
+    <mergeCell ref="C142:E144"/>
+    <mergeCell ref="B145:B146"/>
+    <mergeCell ref="C145:E146"/>
+    <mergeCell ref="B132:B141"/>
+    <mergeCell ref="D132:E132"/>
+    <mergeCell ref="D133:E133"/>
+    <mergeCell ref="D134:E134"/>
+    <mergeCell ref="D135:E135"/>
+    <mergeCell ref="D136:E136"/>
+    <mergeCell ref="D137:E137"/>
+    <mergeCell ref="D138:E138"/>
+    <mergeCell ref="D139:E139"/>
+    <mergeCell ref="D140:E140"/>
+    <mergeCell ref="D141:E141"/>
+    <mergeCell ref="B163:B165"/>
+    <mergeCell ref="C163:E165"/>
+    <mergeCell ref="B166:B167"/>
+    <mergeCell ref="C166:E167"/>
+    <mergeCell ref="B149:E150"/>
+    <mergeCell ref="B153:B162"/>
+    <mergeCell ref="D153:E153"/>
+    <mergeCell ref="D154:E154"/>
+    <mergeCell ref="D155:E155"/>
+    <mergeCell ref="D156:E156"/>
+    <mergeCell ref="D157:E157"/>
+    <mergeCell ref="D158:E158"/>
+    <mergeCell ref="D159:E159"/>
+    <mergeCell ref="D160:E160"/>
+    <mergeCell ref="D161:E161"/>
+    <mergeCell ref="D162:E162"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2023.Roblox/보고서.xlsx
+++ b/2023.Roblox/보고서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\MyProject\2023.Roblox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD53CA39-86A3-46E7-A6EF-14674C6DFAC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA5A8BA6-8382-4051-A1E6-05EE2FD08578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20085" yWindow="780" windowWidth="14685" windowHeight="14700" xr2:uid="{4E01D864-CD35-434B-8531-55E7FE3796C5}"/>
+    <workbookView xWindow="1140" yWindow="675" windowWidth="17235" windowHeight="14655" xr2:uid="{4E01D864-CD35-434B-8531-55E7FE3796C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="81">
   <si>
     <t>성명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -266,12 +266,120 @@
     <t>서버 자체에 문제가 생겨서 스크립트 전체가 작동하지 않음</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>2023-09-07 목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버그 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>달리기 맵 기믹 손보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버 손보기 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>난이도 조정 및 자잘한 버그 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-09-08 금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 테스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회의 및 난이도 조절 및 게임 일부 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>병실 재 디자인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI작업 90% 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-09-11 월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-09-12 화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI작업 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨 일부 조정 및 디버깅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-09-13 수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회의 및 공원 맵 마무리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공원 맵 제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-09-14 목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>달리기 맵 기능 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사운드 연결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빔 달리기 맵에서 맵을 뒤로 이동 시켜서 강제로 달리는 것처럼 연출.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>텔레포트 고치기 및 최적화 작업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빔 다리기 맵 기믹과 사운드 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-09-15 금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-09-18 월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디버깅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최종 디버깅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -318,6 +426,14 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -684,7 +800,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -725,6 +841,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -733,9 +858,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -773,6 +895,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1122,10 +1253,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38631B98-C762-49C9-9DB7-C4CEF205C505}">
-  <dimension ref="B1:N188"/>
+  <dimension ref="B1:N377"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A173" workbookViewId="0">
-      <selection activeCell="C187" sqref="C187:E188"/>
+    <sheetView tabSelected="1" topLeftCell="A358" workbookViewId="0">
+      <selection activeCell="D365" sqref="D365:E365"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1137,36 +1268,36 @@
   <sheetData>
     <row r="1" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="22"/>
-      <c r="G2" s="20" t="s">
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="24"/>
+      <c r="G2" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="22"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="24"/>
     </row>
     <row r="3" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="23"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="25"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="27"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="27"/>
     </row>
     <row r="4" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="2:14" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1182,16 +1313,16 @@
       <c r="E5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="32" t="s">
+      <c r="G5" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="34"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="39"/>
     </row>
     <row r="6" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="10" t="s">
@@ -1200,222 +1331,222 @@
       <c r="C6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="27"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="37"/>
+      <c r="E6" s="29"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="42"/>
     </row>
     <row r="7" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="11"/>
       <c r="C7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="28" t="s">
+      <c r="D7" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="29"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="37"/>
+      <c r="E7" s="31"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="42"/>
     </row>
     <row r="8" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="11"/>
       <c r="C8" s="5"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="15"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="36"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="37"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="18"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="41"/>
+      <c r="N8" s="42"/>
     </row>
     <row r="9" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="11"/>
       <c r="C9" s="5"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="15"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="37"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="18"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="41"/>
+      <c r="N9" s="42"/>
     </row>
     <row r="10" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="11"/>
       <c r="C10" s="5"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="15"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="37"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="18"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="41"/>
+      <c r="N10" s="42"/>
     </row>
     <row r="11" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="11"/>
       <c r="C11" s="5"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="15"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="37"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="18"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="41"/>
+      <c r="N11" s="42"/>
     </row>
     <row r="12" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="11"/>
       <c r="C12" s="5"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="15"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="37"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="18"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="41"/>
+      <c r="M12" s="41"/>
+      <c r="N12" s="42"/>
     </row>
     <row r="13" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="11"/>
       <c r="C13" s="5"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="15"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="37"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="18"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="41"/>
+      <c r="N13" s="42"/>
     </row>
     <row r="14" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="11"/>
       <c r="C14" s="5"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="15"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="37"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="18"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="42"/>
     </row>
     <row r="15" spans="2:14" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="12"/>
       <c r="C15" s="5"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="15"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="36"/>
-      <c r="N15" s="37"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="18"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="41"/>
+      <c r="N15" s="42"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="15"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="36"/>
-      <c r="N16" s="37"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="18"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="41"/>
+      <c r="N16" s="42"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="11"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="15"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="36"/>
-      <c r="N17" s="37"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="18"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="41"/>
+      <c r="M17" s="41"/>
+      <c r="N17" s="42"/>
     </row>
     <row r="18" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="12"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="15"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="36"/>
-      <c r="N18" s="37"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="18"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="41"/>
+      <c r="M18" s="41"/>
+      <c r="N18" s="42"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="15"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="36"/>
-      <c r="N19" s="37"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="18"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="41"/>
+      <c r="L19" s="41"/>
+      <c r="M19" s="41"/>
+      <c r="N19" s="42"/>
     </row>
     <row r="20" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="12"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="19"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="39"/>
-      <c r="L20" s="39"/>
-      <c r="M20" s="39"/>
-      <c r="N20" s="40"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="21"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="44"/>
+      <c r="M20" s="44"/>
+      <c r="N20" s="45"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="G21" s="8"/>
@@ -1438,12 +1569,12 @@
       <c r="N22" s="8"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="22"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="24"/>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
@@ -1454,10 +1585,10 @@
       <c r="N23" s="8"/>
     </row>
     <row r="24" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="23"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="25"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="27"/>
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
@@ -1506,10 +1637,10 @@
       <c r="C27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D27" s="26" t="s">
+      <c r="D27" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="E27" s="27"/>
+      <c r="E27" s="29"/>
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
@@ -1524,10 +1655,10 @@
       <c r="C28" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="28" t="s">
+      <c r="D28" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="E28" s="29"/>
+      <c r="E28" s="31"/>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
       <c r="I28" s="8"/>
@@ -1542,10 +1673,10 @@
       <c r="C29" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="14" t="s">
+      <c r="D29" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E29" s="15"/>
+      <c r="E29" s="18"/>
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
       <c r="I29" s="8"/>
@@ -1560,10 +1691,10 @@
       <c r="C30" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="14" t="s">
+      <c r="D30" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E30" s="15"/>
+      <c r="E30" s="18"/>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
@@ -1578,10 +1709,10 @@
       <c r="C31" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D31" s="14" t="s">
+      <c r="D31" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E31" s="15"/>
+      <c r="E31" s="18"/>
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
@@ -1596,10 +1727,10 @@
       <c r="C32" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D32" s="14" t="s">
+      <c r="D32" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E32" s="15"/>
+      <c r="E32" s="18"/>
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
       <c r="I32" s="8"/>
@@ -1614,10 +1745,10 @@
       <c r="C33" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D33" s="30" t="s">
+      <c r="D33" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="E33" s="31"/>
+      <c r="E33" s="36"/>
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
@@ -1630,8 +1761,8 @@
     <row r="34" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="11"/>
       <c r="C34" s="5"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="15"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="18"/>
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
       <c r="I34" s="8"/>
@@ -1644,8 +1775,8 @@
     <row r="35" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="11"/>
       <c r="C35" s="5"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="15"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="18"/>
       <c r="G35" s="8"/>
       <c r="H35" s="8"/>
       <c r="I35" s="8"/>
@@ -1658,8 +1789,8 @@
     <row r="36" spans="2:14" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B36" s="12"/>
       <c r="C36" s="5"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="15"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="18"/>
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
       <c r="I36" s="8"/>
@@ -1673,11 +1804,11 @@
       <c r="B37" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="C37" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="D37" s="14"/>
-      <c r="E37" s="15"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="18"/>
       <c r="G37" s="8"/>
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
@@ -1689,9 +1820,9 @@
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="11"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="15"/>
+      <c r="C38" s="34"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="18"/>
       <c r="G38" s="8"/>
       <c r="H38" s="8"/>
       <c r="I38" s="8"/>
@@ -1703,9 +1834,9 @@
     </row>
     <row r="39" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B39" s="12"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="15"/>
+      <c r="C39" s="34"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="18"/>
       <c r="G39" s="8"/>
       <c r="H39" s="8"/>
       <c r="I39" s="8"/>
@@ -1719,9 +1850,9 @@
       <c r="B40" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C40" s="13"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="15"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="18"/>
       <c r="G40" s="8"/>
       <c r="H40" s="8"/>
       <c r="I40" s="8"/>
@@ -1733,9 +1864,9 @@
     </row>
     <row r="41" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B41" s="12"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="19"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="21"/>
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
       <c r="I41" s="8"/>
@@ -1766,12 +1897,12 @@
       <c r="N43" s="8"/>
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B44" s="20" t="s">
+      <c r="B44" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C44" s="21"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="22"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="24"/>
       <c r="G44" s="8"/>
       <c r="H44" s="8"/>
       <c r="I44" s="8"/>
@@ -1782,10 +1913,10 @@
       <c r="N44" s="8"/>
     </row>
     <row r="45" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="23"/>
-      <c r="C45" s="24"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="25"/>
+      <c r="B45" s="25"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="27"/>
       <c r="G45" s="8"/>
       <c r="H45" s="8"/>
       <c r="I45" s="8"/>
@@ -1826,127 +1957,127 @@
       <c r="C48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D48" s="26" t="s">
+      <c r="D48" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="E48" s="27"/>
+      <c r="E48" s="29"/>
     </row>
     <row r="49" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="11"/>
       <c r="C49" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D49" s="28" t="s">
+      <c r="D49" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="E49" s="29"/>
+      <c r="E49" s="31"/>
     </row>
     <row r="50" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="11"/>
       <c r="C50" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D50" s="14" t="s">
+      <c r="D50" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E50" s="15"/>
+      <c r="E50" s="18"/>
     </row>
     <row r="51" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51" s="11"/>
       <c r="C51" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D51" s="14" t="s">
+      <c r="D51" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E51" s="15"/>
+      <c r="E51" s="18"/>
     </row>
     <row r="52" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="11"/>
       <c r="C52" s="5"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="15"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="18"/>
     </row>
     <row r="53" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B53" s="11"/>
       <c r="C53" s="5"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="15"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="18"/>
     </row>
     <row r="54" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B54" s="11"/>
       <c r="C54" s="5"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="15"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="18"/>
     </row>
     <row r="55" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B55" s="11"/>
       <c r="C55" s="5"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="15"/>
+      <c r="D55" s="17"/>
+      <c r="E55" s="18"/>
     </row>
     <row r="56" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="11"/>
       <c r="C56" s="5"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="15"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="18"/>
     </row>
     <row r="57" spans="2:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B57" s="12"/>
       <c r="C57" s="5"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="15"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="18"/>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B58" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C58" s="13" t="s">
+      <c r="C58" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="D58" s="14"/>
-      <c r="E58" s="15"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="18"/>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B59" s="11"/>
-      <c r="C59" s="13"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="15"/>
+      <c r="C59" s="34"/>
+      <c r="D59" s="17"/>
+      <c r="E59" s="18"/>
     </row>
     <row r="60" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B60" s="12"/>
-      <c r="C60" s="13"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="15"/>
+      <c r="C60" s="34"/>
+      <c r="D60" s="17"/>
+      <c r="E60" s="18"/>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B61" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C61" s="13"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="15"/>
+      <c r="C61" s="34"/>
+      <c r="D61" s="17"/>
+      <c r="E61" s="18"/>
     </row>
     <row r="62" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B62" s="12"/>
-      <c r="C62" s="17"/>
-      <c r="D62" s="18"/>
-      <c r="E62" s="19"/>
+      <c r="C62" s="19"/>
+      <c r="D62" s="20"/>
+      <c r="E62" s="21"/>
     </row>
     <row r="64" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="65" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B65" s="20" t="s">
+      <c r="B65" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C65" s="21"/>
-      <c r="D65" s="21"/>
-      <c r="E65" s="22"/>
+      <c r="C65" s="23"/>
+      <c r="D65" s="23"/>
+      <c r="E65" s="24"/>
     </row>
     <row r="66" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="23"/>
-      <c r="C66" s="24"/>
-      <c r="D66" s="24"/>
-      <c r="E66" s="25"/>
+      <c r="B66" s="25"/>
+      <c r="C66" s="26"/>
+      <c r="D66" s="26"/>
+      <c r="E66" s="27"/>
     </row>
     <row r="67" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="68" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1970,125 +2101,125 @@
       <c r="C69" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D69" s="26" t="s">
+      <c r="D69" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="E69" s="27"/>
+      <c r="E69" s="29"/>
     </row>
     <row r="70" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B70" s="11"/>
       <c r="C70" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D70" s="28" t="s">
+      <c r="D70" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="E70" s="29"/>
+      <c r="E70" s="31"/>
     </row>
     <row r="71" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B71" s="11"/>
       <c r="C71" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D71" s="14" t="s">
+      <c r="D71" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E71" s="15"/>
+      <c r="E71" s="18"/>
     </row>
     <row r="72" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B72" s="11"/>
       <c r="C72" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D72" s="30" t="s">
+      <c r="D72" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="E72" s="31"/>
+      <c r="E72" s="36"/>
     </row>
     <row r="73" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B73" s="11"/>
       <c r="C73" s="5"/>
-      <c r="D73" s="14"/>
-      <c r="E73" s="15"/>
+      <c r="D73" s="17"/>
+      <c r="E73" s="18"/>
     </row>
     <row r="74" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B74" s="11"/>
       <c r="C74" s="5"/>
-      <c r="D74" s="14"/>
-      <c r="E74" s="15"/>
+      <c r="D74" s="17"/>
+      <c r="E74" s="18"/>
     </row>
     <row r="75" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B75" s="11"/>
       <c r="C75" s="5"/>
-      <c r="D75" s="14"/>
-      <c r="E75" s="15"/>
+      <c r="D75" s="17"/>
+      <c r="E75" s="18"/>
     </row>
     <row r="76" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B76" s="11"/>
       <c r="C76" s="5"/>
-      <c r="D76" s="14"/>
-      <c r="E76" s="15"/>
+      <c r="D76" s="17"/>
+      <c r="E76" s="18"/>
     </row>
     <row r="77" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B77" s="11"/>
       <c r="C77" s="5"/>
-      <c r="D77" s="14"/>
-      <c r="E77" s="15"/>
+      <c r="D77" s="17"/>
+      <c r="E77" s="18"/>
     </row>
     <row r="78" spans="2:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B78" s="12"/>
       <c r="C78" s="5"/>
-      <c r="D78" s="14"/>
-      <c r="E78" s="15"/>
+      <c r="D78" s="17"/>
+      <c r="E78" s="18"/>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B79" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C79" s="13"/>
-      <c r="D79" s="14"/>
-      <c r="E79" s="15"/>
+      <c r="C79" s="34"/>
+      <c r="D79" s="17"/>
+      <c r="E79" s="18"/>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B80" s="11"/>
-      <c r="C80" s="13"/>
-      <c r="D80" s="14"/>
-      <c r="E80" s="15"/>
+      <c r="C80" s="34"/>
+      <c r="D80" s="17"/>
+      <c r="E80" s="18"/>
     </row>
     <row r="81" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B81" s="12"/>
-      <c r="C81" s="13"/>
-      <c r="D81" s="14"/>
-      <c r="E81" s="15"/>
+      <c r="C81" s="34"/>
+      <c r="D81" s="17"/>
+      <c r="E81" s="18"/>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B82" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C82" s="13"/>
-      <c r="D82" s="14"/>
-      <c r="E82" s="15"/>
+      <c r="C82" s="34"/>
+      <c r="D82" s="17"/>
+      <c r="E82" s="18"/>
     </row>
     <row r="83" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B83" s="12"/>
-      <c r="C83" s="17"/>
-      <c r="D83" s="18"/>
-      <c r="E83" s="19"/>
+      <c r="C83" s="19"/>
+      <c r="D83" s="20"/>
+      <c r="E83" s="21"/>
     </row>
     <row r="85" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="86" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B86" s="20" t="s">
+      <c r="B86" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C86" s="21"/>
-      <c r="D86" s="21"/>
-      <c r="E86" s="22"/>
+      <c r="C86" s="23"/>
+      <c r="D86" s="23"/>
+      <c r="E86" s="24"/>
     </row>
     <row r="87" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B87" s="23"/>
-      <c r="C87" s="24"/>
-      <c r="D87" s="24"/>
-      <c r="E87" s="25"/>
+      <c r="B87" s="25"/>
+      <c r="C87" s="26"/>
+      <c r="D87" s="26"/>
+      <c r="E87" s="27"/>
     </row>
     <row r="88" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="89" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2112,125 +2243,125 @@
       <c r="C90" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D90" s="26" t="s">
+      <c r="D90" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="E90" s="27"/>
+      <c r="E90" s="29"/>
     </row>
     <row r="91" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B91" s="11"/>
       <c r="C91" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D91" s="28" t="s">
+      <c r="D91" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="E91" s="29"/>
+      <c r="E91" s="31"/>
     </row>
     <row r="92" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B92" s="11"/>
       <c r="C92" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D92" s="14" t="s">
+      <c r="D92" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E92" s="15"/>
+      <c r="E92" s="18"/>
     </row>
     <row r="93" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B93" s="11"/>
       <c r="C93" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D93" s="30" t="s">
+      <c r="D93" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="E93" s="31"/>
+      <c r="E93" s="36"/>
     </row>
     <row r="94" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B94" s="11"/>
       <c r="C94" s="5"/>
-      <c r="D94" s="14"/>
-      <c r="E94" s="15"/>
+      <c r="D94" s="17"/>
+      <c r="E94" s="18"/>
     </row>
     <row r="95" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B95" s="11"/>
       <c r="C95" s="5"/>
-      <c r="D95" s="14"/>
-      <c r="E95" s="15"/>
+      <c r="D95" s="17"/>
+      <c r="E95" s="18"/>
     </row>
     <row r="96" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B96" s="11"/>
       <c r="C96" s="5"/>
-      <c r="D96" s="14"/>
-      <c r="E96" s="15"/>
+      <c r="D96" s="17"/>
+      <c r="E96" s="18"/>
     </row>
     <row r="97" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B97" s="11"/>
       <c r="C97" s="5"/>
-      <c r="D97" s="14"/>
-      <c r="E97" s="15"/>
+      <c r="D97" s="17"/>
+      <c r="E97" s="18"/>
     </row>
     <row r="98" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B98" s="11"/>
       <c r="C98" s="5"/>
-      <c r="D98" s="14"/>
-      <c r="E98" s="15"/>
+      <c r="D98" s="17"/>
+      <c r="E98" s="18"/>
     </row>
     <row r="99" spans="2:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B99" s="12"/>
       <c r="C99" s="5"/>
-      <c r="D99" s="14"/>
-      <c r="E99" s="15"/>
+      <c r="D99" s="17"/>
+      <c r="E99" s="18"/>
     </row>
     <row r="100" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B100" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C100" s="13"/>
-      <c r="D100" s="14"/>
-      <c r="E100" s="15"/>
+      <c r="C100" s="34"/>
+      <c r="D100" s="17"/>
+      <c r="E100" s="18"/>
     </row>
     <row r="101" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B101" s="11"/>
-      <c r="C101" s="13"/>
-      <c r="D101" s="14"/>
-      <c r="E101" s="15"/>
+      <c r="C101" s="34"/>
+      <c r="D101" s="17"/>
+      <c r="E101" s="18"/>
     </row>
     <row r="102" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B102" s="12"/>
-      <c r="C102" s="13"/>
-      <c r="D102" s="14"/>
-      <c r="E102" s="15"/>
+      <c r="C102" s="34"/>
+      <c r="D102" s="17"/>
+      <c r="E102" s="18"/>
     </row>
     <row r="103" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B103" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C103" s="13"/>
-      <c r="D103" s="14"/>
-      <c r="E103" s="15"/>
+      <c r="C103" s="34"/>
+      <c r="D103" s="17"/>
+      <c r="E103" s="18"/>
     </row>
     <row r="104" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B104" s="12"/>
-      <c r="C104" s="17"/>
-      <c r="D104" s="18"/>
-      <c r="E104" s="19"/>
+      <c r="C104" s="19"/>
+      <c r="D104" s="20"/>
+      <c r="E104" s="21"/>
     </row>
     <row r="106" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="107" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B107" s="20" t="s">
+      <c r="B107" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C107" s="21"/>
-      <c r="D107" s="21"/>
-      <c r="E107" s="22"/>
+      <c r="C107" s="23"/>
+      <c r="D107" s="23"/>
+      <c r="E107" s="24"/>
     </row>
     <row r="108" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B108" s="23"/>
-      <c r="C108" s="24"/>
-      <c r="D108" s="24"/>
-      <c r="E108" s="25"/>
+      <c r="B108" s="25"/>
+      <c r="C108" s="26"/>
+      <c r="D108" s="26"/>
+      <c r="E108" s="27"/>
     </row>
     <row r="109" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="110" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2254,127 +2385,127 @@
       <c r="C111" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D111" s="26" t="s">
+      <c r="D111" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="E111" s="27"/>
+      <c r="E111" s="29"/>
     </row>
     <row r="112" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B112" s="11"/>
       <c r="C112" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D112" s="28" t="s">
+      <c r="D112" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="E112" s="29"/>
+      <c r="E112" s="31"/>
     </row>
     <row r="113" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B113" s="11"/>
       <c r="C113" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D113" s="14" t="s">
+      <c r="D113" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E113" s="15"/>
+      <c r="E113" s="18"/>
     </row>
     <row r="114" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B114" s="11"/>
       <c r="C114" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D114" s="30" t="s">
+      <c r="D114" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="E114" s="31"/>
+      <c r="E114" s="36"/>
     </row>
     <row r="115" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B115" s="11"/>
       <c r="C115" s="5"/>
-      <c r="D115" s="14"/>
-      <c r="E115" s="15"/>
+      <c r="D115" s="17"/>
+      <c r="E115" s="18"/>
     </row>
     <row r="116" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B116" s="11"/>
       <c r="C116" s="5"/>
-      <c r="D116" s="14"/>
-      <c r="E116" s="15"/>
+      <c r="D116" s="17"/>
+      <c r="E116" s="18"/>
     </row>
     <row r="117" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B117" s="11"/>
       <c r="C117" s="5"/>
-      <c r="D117" s="14"/>
-      <c r="E117" s="15"/>
+      <c r="D117" s="17"/>
+      <c r="E117" s="18"/>
     </row>
     <row r="118" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B118" s="11"/>
       <c r="C118" s="5"/>
-      <c r="D118" s="14"/>
-      <c r="E118" s="15"/>
+      <c r="D118" s="17"/>
+      <c r="E118" s="18"/>
     </row>
     <row r="119" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B119" s="11"/>
       <c r="C119" s="5"/>
-      <c r="D119" s="14"/>
-      <c r="E119" s="15"/>
+      <c r="D119" s="17"/>
+      <c r="E119" s="18"/>
     </row>
     <row r="120" spans="2:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B120" s="12"/>
       <c r="C120" s="5"/>
-      <c r="D120" s="14"/>
-      <c r="E120" s="15"/>
+      <c r="D120" s="17"/>
+      <c r="E120" s="18"/>
     </row>
     <row r="121" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B121" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C121" s="13" t="s">
+      <c r="C121" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="D121" s="14"/>
-      <c r="E121" s="15"/>
+      <c r="D121" s="17"/>
+      <c r="E121" s="18"/>
     </row>
     <row r="122" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B122" s="11"/>
-      <c r="C122" s="13"/>
-      <c r="D122" s="14"/>
-      <c r="E122" s="15"/>
+      <c r="C122" s="34"/>
+      <c r="D122" s="17"/>
+      <c r="E122" s="18"/>
     </row>
     <row r="123" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B123" s="12"/>
-      <c r="C123" s="13"/>
-      <c r="D123" s="14"/>
-      <c r="E123" s="15"/>
+      <c r="C123" s="34"/>
+      <c r="D123" s="17"/>
+      <c r="E123" s="18"/>
     </row>
     <row r="124" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B124" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C124" s="13"/>
-      <c r="D124" s="14"/>
-      <c r="E124" s="15"/>
+      <c r="C124" s="34"/>
+      <c r="D124" s="17"/>
+      <c r="E124" s="18"/>
     </row>
     <row r="125" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B125" s="12"/>
-      <c r="C125" s="17"/>
-      <c r="D125" s="18"/>
-      <c r="E125" s="19"/>
+      <c r="C125" s="19"/>
+      <c r="D125" s="20"/>
+      <c r="E125" s="21"/>
     </row>
     <row r="127" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="128" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B128" s="20" t="s">
+      <c r="B128" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C128" s="21"/>
-      <c r="D128" s="21"/>
-      <c r="E128" s="22"/>
+      <c r="C128" s="23"/>
+      <c r="D128" s="23"/>
+      <c r="E128" s="24"/>
     </row>
     <row r="129" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B129" s="23"/>
-      <c r="C129" s="24"/>
-      <c r="D129" s="24"/>
-      <c r="E129" s="25"/>
+      <c r="B129" s="25"/>
+      <c r="C129" s="26"/>
+      <c r="D129" s="26"/>
+      <c r="E129" s="27"/>
     </row>
     <row r="130" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="131" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2398,127 +2529,127 @@
       <c r="C132" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D132" s="26" t="s">
+      <c r="D132" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="E132" s="27"/>
+      <c r="E132" s="29"/>
     </row>
     <row r="133" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B133" s="11"/>
       <c r="C133" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D133" s="28" t="s">
+      <c r="D133" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="E133" s="29"/>
+      <c r="E133" s="31"/>
     </row>
     <row r="134" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B134" s="11"/>
       <c r="C134" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D134" s="14" t="s">
+      <c r="D134" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E134" s="15"/>
+      <c r="E134" s="18"/>
     </row>
     <row r="135" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B135" s="11"/>
       <c r="C135" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D135" s="30" t="s">
+      <c r="D135" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="E135" s="31"/>
+      <c r="E135" s="36"/>
     </row>
     <row r="136" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B136" s="11"/>
       <c r="C136" s="5"/>
-      <c r="D136" s="14"/>
-      <c r="E136" s="15"/>
+      <c r="D136" s="17"/>
+      <c r="E136" s="18"/>
     </row>
     <row r="137" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B137" s="11"/>
       <c r="C137" s="5"/>
-      <c r="D137" s="14"/>
-      <c r="E137" s="15"/>
+      <c r="D137" s="17"/>
+      <c r="E137" s="18"/>
     </row>
     <row r="138" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B138" s="11"/>
       <c r="C138" s="5"/>
-      <c r="D138" s="14"/>
-      <c r="E138" s="15"/>
+      <c r="D138" s="17"/>
+      <c r="E138" s="18"/>
     </row>
     <row r="139" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B139" s="11"/>
       <c r="C139" s="5"/>
-      <c r="D139" s="14"/>
-      <c r="E139" s="15"/>
+      <c r="D139" s="17"/>
+      <c r="E139" s="18"/>
     </row>
     <row r="140" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B140" s="11"/>
       <c r="C140" s="5"/>
-      <c r="D140" s="14"/>
-      <c r="E140" s="15"/>
+      <c r="D140" s="17"/>
+      <c r="E140" s="18"/>
     </row>
     <row r="141" spans="2:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B141" s="12"/>
       <c r="C141" s="5"/>
-      <c r="D141" s="14"/>
-      <c r="E141" s="15"/>
+      <c r="D141" s="17"/>
+      <c r="E141" s="18"/>
     </row>
     <row r="142" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B142" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C142" s="13" t="s">
+      <c r="C142" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="D142" s="14"/>
-      <c r="E142" s="15"/>
+      <c r="D142" s="17"/>
+      <c r="E142" s="18"/>
     </row>
     <row r="143" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B143" s="11"/>
-      <c r="C143" s="13"/>
-      <c r="D143" s="14"/>
-      <c r="E143" s="15"/>
+      <c r="C143" s="34"/>
+      <c r="D143" s="17"/>
+      <c r="E143" s="18"/>
     </row>
     <row r="144" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B144" s="12"/>
-      <c r="C144" s="13"/>
-      <c r="D144" s="14"/>
-      <c r="E144" s="15"/>
+      <c r="C144" s="34"/>
+      <c r="D144" s="17"/>
+      <c r="E144" s="18"/>
     </row>
     <row r="145" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B145" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C145" s="13"/>
-      <c r="D145" s="14"/>
-      <c r="E145" s="15"/>
+      <c r="C145" s="34"/>
+      <c r="D145" s="17"/>
+      <c r="E145" s="18"/>
     </row>
     <row r="146" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B146" s="12"/>
-      <c r="C146" s="17"/>
-      <c r="D146" s="18"/>
-      <c r="E146" s="19"/>
+      <c r="C146" s="19"/>
+      <c r="D146" s="20"/>
+      <c r="E146" s="21"/>
     </row>
     <row r="148" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="149" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B149" s="20" t="s">
+      <c r="B149" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C149" s="21"/>
-      <c r="D149" s="21"/>
-      <c r="E149" s="22"/>
+      <c r="C149" s="23"/>
+      <c r="D149" s="23"/>
+      <c r="E149" s="24"/>
     </row>
     <row r="150" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B150" s="23"/>
-      <c r="C150" s="24"/>
-      <c r="D150" s="24"/>
-      <c r="E150" s="25"/>
+      <c r="B150" s="25"/>
+      <c r="C150" s="26"/>
+      <c r="D150" s="26"/>
+      <c r="E150" s="27"/>
     </row>
     <row r="151" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="152" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2542,96 +2673,96 @@
       <c r="C153" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D153" s="26" t="s">
+      <c r="D153" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="E153" s="27"/>
+      <c r="E153" s="29"/>
     </row>
     <row r="154" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B154" s="11"/>
       <c r="C154" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D154" s="28" t="s">
+      <c r="D154" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="E154" s="29"/>
+      <c r="E154" s="31"/>
     </row>
     <row r="155" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B155" s="11"/>
       <c r="C155" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D155" s="14" t="s">
+      <c r="D155" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E155" s="15"/>
+      <c r="E155" s="18"/>
     </row>
     <row r="156" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B156" s="11"/>
       <c r="C156" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D156" s="30" t="s">
+      <c r="D156" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="E156" s="31"/>
+      <c r="E156" s="36"/>
     </row>
     <row r="157" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B157" s="11"/>
       <c r="C157" s="5"/>
-      <c r="D157" s="14"/>
-      <c r="E157" s="15"/>
+      <c r="D157" s="17"/>
+      <c r="E157" s="18"/>
     </row>
     <row r="158" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B158" s="11"/>
       <c r="C158" s="5"/>
-      <c r="D158" s="14"/>
-      <c r="E158" s="15"/>
+      <c r="D158" s="17"/>
+      <c r="E158" s="18"/>
     </row>
     <row r="159" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B159" s="11"/>
       <c r="C159" s="5"/>
-      <c r="D159" s="14"/>
-      <c r="E159" s="15"/>
+      <c r="D159" s="17"/>
+      <c r="E159" s="18"/>
     </row>
     <row r="160" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B160" s="11"/>
       <c r="C160" s="5"/>
-      <c r="D160" s="14"/>
-      <c r="E160" s="15"/>
+      <c r="D160" s="17"/>
+      <c r="E160" s="18"/>
     </row>
     <row r="161" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B161" s="11"/>
       <c r="C161" s="5"/>
-      <c r="D161" s="14"/>
-      <c r="E161" s="15"/>
+      <c r="D161" s="17"/>
+      <c r="E161" s="18"/>
     </row>
     <row r="162" spans="2:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B162" s="12"/>
       <c r="C162" s="5"/>
-      <c r="D162" s="14"/>
-      <c r="E162" s="15"/>
+      <c r="D162" s="17"/>
+      <c r="E162" s="18"/>
     </row>
     <row r="163" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B163" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C163" s="13"/>
-      <c r="D163" s="14"/>
-      <c r="E163" s="15"/>
+      <c r="C163" s="34"/>
+      <c r="D163" s="17"/>
+      <c r="E163" s="18"/>
     </row>
     <row r="164" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B164" s="11"/>
-      <c r="C164" s="13"/>
-      <c r="D164" s="14"/>
-      <c r="E164" s="15"/>
+      <c r="C164" s="34"/>
+      <c r="D164" s="17"/>
+      <c r="E164" s="18"/>
     </row>
     <row r="165" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B165" s="12"/>
-      <c r="C165" s="13"/>
-      <c r="D165" s="14"/>
-      <c r="E165" s="15"/>
+      <c r="C165" s="34"/>
+      <c r="D165" s="17"/>
+      <c r="E165" s="18"/>
     </row>
     <row r="166" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B166" s="10" t="s">
@@ -2640,29 +2771,29 @@
       <c r="C166" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="D166" s="14"/>
-      <c r="E166" s="15"/>
+      <c r="D166" s="17"/>
+      <c r="E166" s="18"/>
     </row>
     <row r="167" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B167" s="12"/>
-      <c r="C167" s="17"/>
-      <c r="D167" s="18"/>
-      <c r="E167" s="19"/>
+      <c r="C167" s="19"/>
+      <c r="D167" s="20"/>
+      <c r="E167" s="21"/>
     </row>
     <row r="169" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="170" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B170" s="20" t="s">
+      <c r="B170" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C170" s="21"/>
-      <c r="D170" s="21"/>
-      <c r="E170" s="22"/>
+      <c r="C170" s="23"/>
+      <c r="D170" s="23"/>
+      <c r="E170" s="24"/>
     </row>
     <row r="171" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B171" s="23"/>
-      <c r="C171" s="24"/>
-      <c r="D171" s="24"/>
-      <c r="E171" s="25"/>
+      <c r="B171" s="25"/>
+      <c r="C171" s="26"/>
+      <c r="D171" s="26"/>
+      <c r="E171" s="27"/>
     </row>
     <row r="172" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="173" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2686,96 +2817,96 @@
       <c r="C174" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D174" s="26" t="s">
+      <c r="D174" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="E174" s="27"/>
+      <c r="E174" s="29"/>
     </row>
     <row r="175" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B175" s="11"/>
       <c r="C175" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D175" s="28" t="s">
+      <c r="D175" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="E175" s="29"/>
+      <c r="E175" s="31"/>
     </row>
     <row r="176" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B176" s="11"/>
       <c r="C176" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D176" s="14" t="s">
+      <c r="D176" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E176" s="15"/>
+      <c r="E176" s="18"/>
     </row>
     <row r="177" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B177" s="11"/>
       <c r="C177" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D177" s="30" t="s">
+      <c r="D177" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="E177" s="31"/>
+      <c r="E177" s="36"/>
     </row>
     <row r="178" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B178" s="11"/>
       <c r="C178" s="5"/>
-      <c r="D178" s="14"/>
-      <c r="E178" s="15"/>
+      <c r="D178" s="17"/>
+      <c r="E178" s="18"/>
     </row>
     <row r="179" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B179" s="11"/>
       <c r="C179" s="5"/>
-      <c r="D179" s="14"/>
-      <c r="E179" s="15"/>
+      <c r="D179" s="17"/>
+      <c r="E179" s="18"/>
     </row>
     <row r="180" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B180" s="11"/>
       <c r="C180" s="5"/>
-      <c r="D180" s="14"/>
-      <c r="E180" s="15"/>
+      <c r="D180" s="17"/>
+      <c r="E180" s="18"/>
     </row>
     <row r="181" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B181" s="11"/>
       <c r="C181" s="5"/>
-      <c r="D181" s="14"/>
-      <c r="E181" s="15"/>
+      <c r="D181" s="17"/>
+      <c r="E181" s="18"/>
     </row>
     <row r="182" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B182" s="11"/>
       <c r="C182" s="5"/>
-      <c r="D182" s="14"/>
-      <c r="E182" s="15"/>
+      <c r="D182" s="17"/>
+      <c r="E182" s="18"/>
     </row>
     <row r="183" spans="2:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B183" s="12"/>
       <c r="C183" s="5"/>
-      <c r="D183" s="14"/>
-      <c r="E183" s="15"/>
+      <c r="D183" s="17"/>
+      <c r="E183" s="18"/>
     </row>
     <row r="184" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B184" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C184" s="13"/>
-      <c r="D184" s="14"/>
-      <c r="E184" s="15"/>
+      <c r="C184" s="34"/>
+      <c r="D184" s="17"/>
+      <c r="E184" s="18"/>
     </row>
     <row r="185" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B185" s="11"/>
-      <c r="C185" s="13"/>
-      <c r="D185" s="14"/>
-      <c r="E185" s="15"/>
+      <c r="C185" s="34"/>
+      <c r="D185" s="17"/>
+      <c r="E185" s="18"/>
     </row>
     <row r="186" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B186" s="12"/>
-      <c r="C186" s="13"/>
-      <c r="D186" s="14"/>
-      <c r="E186" s="15"/>
+      <c r="C186" s="34"/>
+      <c r="D186" s="17"/>
+      <c r="E186" s="18"/>
     </row>
     <row r="187" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B187" s="10" t="s">
@@ -2784,75 +2915,1411 @@
       <c r="C187" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="D187" s="14"/>
-      <c r="E187" s="15"/>
+      <c r="D187" s="17"/>
+      <c r="E187" s="18"/>
     </row>
     <row r="188" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B188" s="12"/>
-      <c r="C188" s="17"/>
-      <c r="D188" s="18"/>
-      <c r="E188" s="19"/>
+      <c r="C188" s="19"/>
+      <c r="D188" s="20"/>
+      <c r="E188" s="21"/>
+    </row>
+    <row r="190" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="191" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B191" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C191" s="23"/>
+      <c r="D191" s="23"/>
+      <c r="E191" s="24"/>
+    </row>
+    <row r="192" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B192" s="25"/>
+      <c r="C192" s="26"/>
+      <c r="D192" s="26"/>
+      <c r="E192" s="27"/>
+    </row>
+    <row r="193" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="194" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B194" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C194" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="195" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B195" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C195" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D195" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="E195" s="29"/>
+    </row>
+    <row r="196" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B196" s="11"/>
+      <c r="C196" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D196" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="E196" s="31"/>
+    </row>
+    <row r="197" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B197" s="11"/>
+      <c r="C197" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D197" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E197" s="18"/>
+    </row>
+    <row r="198" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B198" s="11"/>
+      <c r="C198" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D198" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="E198" s="36"/>
+    </row>
+    <row r="199" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B199" s="11"/>
+      <c r="C199" s="5"/>
+      <c r="D199" s="17"/>
+      <c r="E199" s="18"/>
+    </row>
+    <row r="200" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B200" s="11"/>
+      <c r="C200" s="5"/>
+      <c r="D200" s="17"/>
+      <c r="E200" s="18"/>
+    </row>
+    <row r="201" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B201" s="11"/>
+      <c r="C201" s="5"/>
+      <c r="D201" s="17"/>
+      <c r="E201" s="18"/>
+    </row>
+    <row r="202" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B202" s="11"/>
+      <c r="C202" s="5"/>
+      <c r="D202" s="17"/>
+      <c r="E202" s="18"/>
+    </row>
+    <row r="203" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B203" s="11"/>
+      <c r="C203" s="5"/>
+      <c r="D203" s="17"/>
+      <c r="E203" s="18"/>
+    </row>
+    <row r="204" spans="2:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B204" s="12"/>
+      <c r="C204" s="5"/>
+      <c r="D204" s="17"/>
+      <c r="E204" s="18"/>
+    </row>
+    <row r="205" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B205" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C205" s="34"/>
+      <c r="D205" s="17"/>
+      <c r="E205" s="18"/>
+    </row>
+    <row r="206" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B206" s="11"/>
+      <c r="C206" s="34"/>
+      <c r="D206" s="17"/>
+      <c r="E206" s="18"/>
+    </row>
+    <row r="207" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B207" s="12"/>
+      <c r="C207" s="34"/>
+      <c r="D207" s="17"/>
+      <c r="E207" s="18"/>
+    </row>
+    <row r="208" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B208" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C208" s="16"/>
+      <c r="D208" s="17"/>
+      <c r="E208" s="18"/>
+    </row>
+    <row r="209" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B209" s="12"/>
+      <c r="C209" s="19"/>
+      <c r="D209" s="20"/>
+      <c r="E209" s="21"/>
+    </row>
+    <row r="211" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="212" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B212" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C212" s="23"/>
+      <c r="D212" s="23"/>
+      <c r="E212" s="24"/>
+    </row>
+    <row r="213" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B213" s="25"/>
+      <c r="C213" s="26"/>
+      <c r="D213" s="26"/>
+      <c r="E213" s="27"/>
+    </row>
+    <row r="214" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="215" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B215" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C215" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D215" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E215" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="216" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B216" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C216" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D216" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="E216" s="29"/>
+    </row>
+    <row r="217" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B217" s="11"/>
+      <c r="C217" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D217" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="E217" s="31"/>
+    </row>
+    <row r="218" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B218" s="11"/>
+      <c r="C218" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D218" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E218" s="18"/>
+    </row>
+    <row r="219" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B219" s="11"/>
+      <c r="C219" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D219" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="E219" s="36"/>
+    </row>
+    <row r="220" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B220" s="11"/>
+      <c r="C220" s="5"/>
+      <c r="D220" s="17"/>
+      <c r="E220" s="18"/>
+    </row>
+    <row r="221" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B221" s="11"/>
+      <c r="C221" s="5"/>
+      <c r="D221" s="17"/>
+      <c r="E221" s="18"/>
+    </row>
+    <row r="222" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B222" s="11"/>
+      <c r="C222" s="5"/>
+      <c r="D222" s="17"/>
+      <c r="E222" s="18"/>
+    </row>
+    <row r="223" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B223" s="11"/>
+      <c r="C223" s="5"/>
+      <c r="D223" s="17"/>
+      <c r="E223" s="18"/>
+    </row>
+    <row r="224" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B224" s="11"/>
+      <c r="C224" s="5"/>
+      <c r="D224" s="17"/>
+      <c r="E224" s="18"/>
+    </row>
+    <row r="225" spans="2:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B225" s="12"/>
+      <c r="C225" s="5"/>
+      <c r="D225" s="17"/>
+      <c r="E225" s="18"/>
+    </row>
+    <row r="226" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B226" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C226" s="34"/>
+      <c r="D226" s="17"/>
+      <c r="E226" s="18"/>
+    </row>
+    <row r="227" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B227" s="11"/>
+      <c r="C227" s="34"/>
+      <c r="D227" s="17"/>
+      <c r="E227" s="18"/>
+    </row>
+    <row r="228" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B228" s="12"/>
+      <c r="C228" s="34"/>
+      <c r="D228" s="17"/>
+      <c r="E228" s="18"/>
+    </row>
+    <row r="229" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B229" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C229" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D229" s="17"/>
+      <c r="E229" s="18"/>
+    </row>
+    <row r="230" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B230" s="12"/>
+      <c r="C230" s="19"/>
+      <c r="D230" s="20"/>
+      <c r="E230" s="21"/>
+    </row>
+    <row r="232" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="233" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B233" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C233" s="23"/>
+      <c r="D233" s="23"/>
+      <c r="E233" s="24"/>
+    </row>
+    <row r="234" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B234" s="25"/>
+      <c r="C234" s="26"/>
+      <c r="D234" s="26"/>
+      <c r="E234" s="27"/>
+    </row>
+    <row r="235" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="236" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B236" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C236" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D236" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E236" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="237" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B237" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C237" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D237" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="E237" s="29"/>
+    </row>
+    <row r="238" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B238" s="11"/>
+      <c r="C238" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D238" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="E238" s="31"/>
+    </row>
+    <row r="239" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B239" s="11"/>
+      <c r="C239" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D239" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E239" s="18"/>
+    </row>
+    <row r="240" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B240" s="11"/>
+      <c r="C240" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D240" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="E240" s="36"/>
+    </row>
+    <row r="241" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B241" s="11"/>
+      <c r="C241" s="5"/>
+      <c r="D241" s="17"/>
+      <c r="E241" s="18"/>
+    </row>
+    <row r="242" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B242" s="11"/>
+      <c r="C242" s="5"/>
+      <c r="D242" s="17"/>
+      <c r="E242" s="18"/>
+    </row>
+    <row r="243" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B243" s="11"/>
+      <c r="C243" s="5"/>
+      <c r="D243" s="17"/>
+      <c r="E243" s="18"/>
+    </row>
+    <row r="244" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B244" s="11"/>
+      <c r="C244" s="5"/>
+      <c r="D244" s="17"/>
+      <c r="E244" s="18"/>
+    </row>
+    <row r="245" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B245" s="11"/>
+      <c r="C245" s="5"/>
+      <c r="D245" s="17"/>
+      <c r="E245" s="18"/>
+    </row>
+    <row r="246" spans="2:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B246" s="12"/>
+      <c r="C246" s="5"/>
+      <c r="D246" s="17"/>
+      <c r="E246" s="18"/>
+    </row>
+    <row r="247" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B247" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C247" s="34"/>
+      <c r="D247" s="17"/>
+      <c r="E247" s="18"/>
+    </row>
+    <row r="248" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B248" s="11"/>
+      <c r="C248" s="34"/>
+      <c r="D248" s="17"/>
+      <c r="E248" s="18"/>
+    </row>
+    <row r="249" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B249" s="12"/>
+      <c r="C249" s="34"/>
+      <c r="D249" s="17"/>
+      <c r="E249" s="18"/>
+    </row>
+    <row r="250" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B250" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C250" s="16"/>
+      <c r="D250" s="17"/>
+      <c r="E250" s="18"/>
+    </row>
+    <row r="251" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B251" s="12"/>
+      <c r="C251" s="19"/>
+      <c r="D251" s="20"/>
+      <c r="E251" s="21"/>
+    </row>
+    <row r="253" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="254" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B254" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C254" s="23"/>
+      <c r="D254" s="23"/>
+      <c r="E254" s="24"/>
+    </row>
+    <row r="255" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B255" s="25"/>
+      <c r="C255" s="26"/>
+      <c r="D255" s="26"/>
+      <c r="E255" s="27"/>
+    </row>
+    <row r="256" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="257" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B257" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C257" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D257" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E257" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="258" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B258" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C258" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D258" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="E258" s="29"/>
+    </row>
+    <row r="259" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B259" s="11"/>
+      <c r="C259" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D259" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="E259" s="31"/>
+    </row>
+    <row r="260" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B260" s="11"/>
+      <c r="C260" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D260" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E260" s="18"/>
+    </row>
+    <row r="261" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B261" s="11"/>
+      <c r="C261" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D261" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="E261" s="36"/>
+    </row>
+    <row r="262" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B262" s="11"/>
+      <c r="C262" s="5"/>
+      <c r="D262" s="17"/>
+      <c r="E262" s="18"/>
+    </row>
+    <row r="263" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B263" s="11"/>
+      <c r="C263" s="5"/>
+      <c r="D263" s="17"/>
+      <c r="E263" s="18"/>
+    </row>
+    <row r="264" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B264" s="11"/>
+      <c r="C264" s="5"/>
+      <c r="D264" s="17"/>
+      <c r="E264" s="18"/>
+    </row>
+    <row r="265" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B265" s="11"/>
+      <c r="C265" s="5"/>
+      <c r="D265" s="17"/>
+      <c r="E265" s="18"/>
+    </row>
+    <row r="266" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B266" s="11"/>
+      <c r="C266" s="5"/>
+      <c r="D266" s="17"/>
+      <c r="E266" s="18"/>
+    </row>
+    <row r="267" spans="2:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B267" s="12"/>
+      <c r="C267" s="5"/>
+      <c r="D267" s="17"/>
+      <c r="E267" s="18"/>
+    </row>
+    <row r="268" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B268" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C268" s="34"/>
+      <c r="D268" s="17"/>
+      <c r="E268" s="18"/>
+    </row>
+    <row r="269" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B269" s="11"/>
+      <c r="C269" s="34"/>
+      <c r="D269" s="17"/>
+      <c r="E269" s="18"/>
+    </row>
+    <row r="270" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B270" s="12"/>
+      <c r="C270" s="34"/>
+      <c r="D270" s="17"/>
+      <c r="E270" s="18"/>
+    </row>
+    <row r="271" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B271" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C271" s="16"/>
+      <c r="D271" s="17"/>
+      <c r="E271" s="18"/>
+    </row>
+    <row r="272" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B272" s="12"/>
+      <c r="C272" s="19"/>
+      <c r="D272" s="20"/>
+      <c r="E272" s="21"/>
+    </row>
+    <row r="274" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="275" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B275" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C275" s="23"/>
+      <c r="D275" s="23"/>
+      <c r="E275" s="24"/>
+    </row>
+    <row r="276" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B276" s="25"/>
+      <c r="C276" s="26"/>
+      <c r="D276" s="26"/>
+      <c r="E276" s="27"/>
+    </row>
+    <row r="277" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="278" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B278" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C278" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D278" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E278" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="279" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B279" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C279" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D279" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="E279" s="29"/>
+    </row>
+    <row r="280" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B280" s="11"/>
+      <c r="C280" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D280" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="E280" s="31"/>
+    </row>
+    <row r="281" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B281" s="11"/>
+      <c r="C281" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D281" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E281" s="18"/>
+    </row>
+    <row r="282" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B282" s="11"/>
+      <c r="C282" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D282" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="E282" s="36"/>
+    </row>
+    <row r="283" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B283" s="11"/>
+      <c r="C283" s="5"/>
+      <c r="D283" s="17"/>
+      <c r="E283" s="18"/>
+    </row>
+    <row r="284" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B284" s="11"/>
+      <c r="C284" s="5"/>
+      <c r="D284" s="17"/>
+      <c r="E284" s="18"/>
+    </row>
+    <row r="285" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B285" s="11"/>
+      <c r="C285" s="5"/>
+      <c r="D285" s="17"/>
+      <c r="E285" s="18"/>
+    </row>
+    <row r="286" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B286" s="11"/>
+      <c r="C286" s="5"/>
+      <c r="D286" s="17"/>
+      <c r="E286" s="18"/>
+    </row>
+    <row r="287" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B287" s="11"/>
+      <c r="C287" s="5"/>
+      <c r="D287" s="17"/>
+      <c r="E287" s="18"/>
+    </row>
+    <row r="288" spans="2:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B288" s="12"/>
+      <c r="C288" s="5"/>
+      <c r="D288" s="17"/>
+      <c r="E288" s="18"/>
+    </row>
+    <row r="289" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B289" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C289" s="34"/>
+      <c r="D289" s="17"/>
+      <c r="E289" s="18"/>
+    </row>
+    <row r="290" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B290" s="11"/>
+      <c r="C290" s="34"/>
+      <c r="D290" s="17"/>
+      <c r="E290" s="18"/>
+    </row>
+    <row r="291" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B291" s="12"/>
+      <c r="C291" s="34"/>
+      <c r="D291" s="17"/>
+      <c r="E291" s="18"/>
+    </row>
+    <row r="292" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B292" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C292" s="16"/>
+      <c r="D292" s="17"/>
+      <c r="E292" s="18"/>
+    </row>
+    <row r="293" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B293" s="12"/>
+      <c r="C293" s="19"/>
+      <c r="D293" s="20"/>
+      <c r="E293" s="21"/>
+    </row>
+    <row r="295" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="296" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B296" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C296" s="23"/>
+      <c r="D296" s="23"/>
+      <c r="E296" s="24"/>
+    </row>
+    <row r="297" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B297" s="25"/>
+      <c r="C297" s="26"/>
+      <c r="D297" s="26"/>
+      <c r="E297" s="27"/>
+    </row>
+    <row r="298" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="299" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B299" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C299" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D299" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E299" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="300" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B300" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C300" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D300" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="E300" s="29"/>
+    </row>
+    <row r="301" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B301" s="11"/>
+      <c r="C301" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D301" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="E301" s="31"/>
+    </row>
+    <row r="302" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B302" s="11"/>
+      <c r="C302" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D302" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E302" s="18"/>
+    </row>
+    <row r="303" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B303" s="11"/>
+      <c r="C303" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D303" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="E303" s="33"/>
+    </row>
+    <row r="304" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B304" s="11"/>
+      <c r="C304" s="5"/>
+      <c r="D304" s="17"/>
+      <c r="E304" s="18"/>
+    </row>
+    <row r="305" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B305" s="11"/>
+      <c r="C305" s="5"/>
+      <c r="D305" s="17"/>
+      <c r="E305" s="18"/>
+    </row>
+    <row r="306" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B306" s="11"/>
+      <c r="C306" s="5"/>
+      <c r="D306" s="17"/>
+      <c r="E306" s="18"/>
+    </row>
+    <row r="307" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B307" s="11"/>
+      <c r="C307" s="5"/>
+      <c r="D307" s="17"/>
+      <c r="E307" s="18"/>
+    </row>
+    <row r="308" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B308" s="11"/>
+      <c r="C308" s="5"/>
+      <c r="D308" s="17"/>
+      <c r="E308" s="18"/>
+    </row>
+    <row r="309" spans="2:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B309" s="12"/>
+      <c r="C309" s="5"/>
+      <c r="D309" s="17"/>
+      <c r="E309" s="18"/>
+    </row>
+    <row r="310" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B310" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C310" s="34"/>
+      <c r="D310" s="17"/>
+      <c r="E310" s="18"/>
+    </row>
+    <row r="311" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B311" s="11"/>
+      <c r="C311" s="34"/>
+      <c r="D311" s="17"/>
+      <c r="E311" s="18"/>
+    </row>
+    <row r="312" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B312" s="12"/>
+      <c r="C312" s="34"/>
+      <c r="D312" s="17"/>
+      <c r="E312" s="18"/>
+    </row>
+    <row r="313" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B313" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C313" s="16"/>
+      <c r="D313" s="17"/>
+      <c r="E313" s="18"/>
+    </row>
+    <row r="314" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B314" s="12"/>
+      <c r="C314" s="19"/>
+      <c r="D314" s="20"/>
+      <c r="E314" s="21"/>
+    </row>
+    <row r="316" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="317" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B317" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C317" s="23"/>
+      <c r="D317" s="23"/>
+      <c r="E317" s="24"/>
+    </row>
+    <row r="318" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B318" s="25"/>
+      <c r="C318" s="26"/>
+      <c r="D318" s="26"/>
+      <c r="E318" s="27"/>
+    </row>
+    <row r="319" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="320" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B320" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C320" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D320" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E320" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="321" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B321" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C321" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D321" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="E321" s="29"/>
+    </row>
+    <row r="322" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B322" s="11"/>
+      <c r="C322" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D322" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="E322" s="31"/>
+    </row>
+    <row r="323" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B323" s="11"/>
+      <c r="C323" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D323" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E323" s="18"/>
+    </row>
+    <row r="324" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B324" s="11"/>
+      <c r="C324" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D324" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="E324" s="33"/>
+    </row>
+    <row r="325" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B325" s="11"/>
+      <c r="C325" s="5"/>
+      <c r="D325" s="17"/>
+      <c r="E325" s="18"/>
+    </row>
+    <row r="326" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B326" s="11"/>
+      <c r="C326" s="5"/>
+      <c r="D326" s="17"/>
+      <c r="E326" s="18"/>
+    </row>
+    <row r="327" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B327" s="11"/>
+      <c r="C327" s="5"/>
+      <c r="D327" s="17"/>
+      <c r="E327" s="18"/>
+    </row>
+    <row r="328" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B328" s="11"/>
+      <c r="C328" s="5"/>
+      <c r="D328" s="17"/>
+      <c r="E328" s="18"/>
+    </row>
+    <row r="329" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B329" s="11"/>
+      <c r="C329" s="5"/>
+      <c r="D329" s="17"/>
+      <c r="E329" s="18"/>
+    </row>
+    <row r="330" spans="2:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B330" s="12"/>
+      <c r="C330" s="5"/>
+      <c r="D330" s="17"/>
+      <c r="E330" s="18"/>
+    </row>
+    <row r="331" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B331" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C331" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D331" s="14"/>
+      <c r="E331" s="15"/>
+    </row>
+    <row r="332" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B332" s="11"/>
+      <c r="C332" s="13"/>
+      <c r="D332" s="14"/>
+      <c r="E332" s="15"/>
+    </row>
+    <row r="333" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B333" s="12"/>
+      <c r="C333" s="13"/>
+      <c r="D333" s="14"/>
+      <c r="E333" s="15"/>
+    </row>
+    <row r="334" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B334" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C334" s="16"/>
+      <c r="D334" s="17"/>
+      <c r="E334" s="18"/>
+    </row>
+    <row r="335" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B335" s="12"/>
+      <c r="C335" s="19"/>
+      <c r="D335" s="20"/>
+      <c r="E335" s="21"/>
+    </row>
+    <row r="337" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="338" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B338" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C338" s="23"/>
+      <c r="D338" s="23"/>
+      <c r="E338" s="24"/>
+    </row>
+    <row r="339" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B339" s="25"/>
+      <c r="C339" s="26"/>
+      <c r="D339" s="26"/>
+      <c r="E339" s="27"/>
+    </row>
+    <row r="340" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="341" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B341" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C341" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D341" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E341" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="342" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B342" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C342" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D342" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="E342" s="29"/>
+    </row>
+    <row r="343" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B343" s="11"/>
+      <c r="C343" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D343" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="E343" s="31"/>
+    </row>
+    <row r="344" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B344" s="11"/>
+      <c r="C344" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D344" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E344" s="18"/>
+    </row>
+    <row r="345" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B345" s="11"/>
+      <c r="C345" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D345" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="E345" s="33"/>
+    </row>
+    <row r="346" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B346" s="11"/>
+      <c r="C346" s="5"/>
+      <c r="D346" s="17"/>
+      <c r="E346" s="18"/>
+    </row>
+    <row r="347" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B347" s="11"/>
+      <c r="C347" s="5"/>
+      <c r="D347" s="17"/>
+      <c r="E347" s="18"/>
+    </row>
+    <row r="348" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B348" s="11"/>
+      <c r="C348" s="5"/>
+      <c r="D348" s="17"/>
+      <c r="E348" s="18"/>
+    </row>
+    <row r="349" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B349" s="11"/>
+      <c r="C349" s="5"/>
+      <c r="D349" s="17"/>
+      <c r="E349" s="18"/>
+    </row>
+    <row r="350" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B350" s="11"/>
+      <c r="C350" s="5"/>
+      <c r="D350" s="17"/>
+      <c r="E350" s="18"/>
+    </row>
+    <row r="351" spans="2:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B351" s="12"/>
+      <c r="C351" s="5"/>
+      <c r="D351" s="17"/>
+      <c r="E351" s="18"/>
+    </row>
+    <row r="352" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B352" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C352" s="13"/>
+      <c r="D352" s="14"/>
+      <c r="E352" s="15"/>
+    </row>
+    <row r="353" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B353" s="11"/>
+      <c r="C353" s="13"/>
+      <c r="D353" s="14"/>
+      <c r="E353" s="15"/>
+    </row>
+    <row r="354" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B354" s="12"/>
+      <c r="C354" s="13"/>
+      <c r="D354" s="14"/>
+      <c r="E354" s="15"/>
+    </row>
+    <row r="355" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B355" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C355" s="16"/>
+      <c r="D355" s="17"/>
+      <c r="E355" s="18"/>
+    </row>
+    <row r="356" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B356" s="12"/>
+      <c r="C356" s="19"/>
+      <c r="D356" s="20"/>
+      <c r="E356" s="21"/>
+    </row>
+    <row r="358" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="359" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B359" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C359" s="23"/>
+      <c r="D359" s="23"/>
+      <c r="E359" s="24"/>
+    </row>
+    <row r="360" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B360" s="25"/>
+      <c r="C360" s="26"/>
+      <c r="D360" s="26"/>
+      <c r="E360" s="27"/>
+    </row>
+    <row r="361" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="362" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B362" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C362" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D362" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E362" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="363" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B363" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C363" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D363" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="E363" s="29"/>
+    </row>
+    <row r="364" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B364" s="11"/>
+      <c r="C364" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D364" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="E364" s="31"/>
+    </row>
+    <row r="365" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B365" s="11"/>
+      <c r="C365" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D365" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E365" s="18"/>
+    </row>
+    <row r="366" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B366" s="11"/>
+      <c r="C366" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D366" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="E366" s="33"/>
+    </row>
+    <row r="367" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B367" s="11"/>
+      <c r="C367" s="5"/>
+      <c r="D367" s="17"/>
+      <c r="E367" s="18"/>
+    </row>
+    <row r="368" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B368" s="11"/>
+      <c r="C368" s="5"/>
+      <c r="D368" s="17"/>
+      <c r="E368" s="18"/>
+    </row>
+    <row r="369" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B369" s="11"/>
+      <c r="C369" s="5"/>
+      <c r="D369" s="17"/>
+      <c r="E369" s="18"/>
+    </row>
+    <row r="370" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B370" s="11"/>
+      <c r="C370" s="5"/>
+      <c r="D370" s="17"/>
+      <c r="E370" s="18"/>
+    </row>
+    <row r="371" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B371" s="11"/>
+      <c r="C371" s="5"/>
+      <c r="D371" s="17"/>
+      <c r="E371" s="18"/>
+    </row>
+    <row r="372" spans="2:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B372" s="12"/>
+      <c r="C372" s="5"/>
+      <c r="D372" s="17"/>
+      <c r="E372" s="18"/>
+    </row>
+    <row r="373" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B373" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C373" s="13"/>
+      <c r="D373" s="14"/>
+      <c r="E373" s="15"/>
+    </row>
+    <row r="374" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B374" s="11"/>
+      <c r="C374" s="13"/>
+      <c r="D374" s="14"/>
+      <c r="E374" s="15"/>
+    </row>
+    <row r="375" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B375" s="12"/>
+      <c r="C375" s="13"/>
+      <c r="D375" s="14"/>
+      <c r="E375" s="15"/>
+    </row>
+    <row r="376" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B376" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C376" s="16"/>
+      <c r="D376" s="17"/>
+      <c r="E376" s="18"/>
+    </row>
+    <row r="377" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B377" s="12"/>
+      <c r="C377" s="19"/>
+      <c r="D377" s="20"/>
+      <c r="E377" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="146">
-    <mergeCell ref="B184:B186"/>
-    <mergeCell ref="C184:E186"/>
-    <mergeCell ref="B187:B188"/>
-    <mergeCell ref="C187:E188"/>
-    <mergeCell ref="B170:E171"/>
-    <mergeCell ref="B174:B183"/>
-    <mergeCell ref="D174:E174"/>
-    <mergeCell ref="D175:E175"/>
-    <mergeCell ref="D176:E176"/>
-    <mergeCell ref="D177:E177"/>
-    <mergeCell ref="D178:E178"/>
-    <mergeCell ref="D179:E179"/>
-    <mergeCell ref="D180:E180"/>
-    <mergeCell ref="D181:E181"/>
-    <mergeCell ref="D182:E182"/>
-    <mergeCell ref="D183:E183"/>
-    <mergeCell ref="B100:B102"/>
-    <mergeCell ref="C100:E102"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="C103:E104"/>
-    <mergeCell ref="B86:E87"/>
-    <mergeCell ref="B90:B99"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="D91:E91"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="D94:E94"/>
-    <mergeCell ref="D95:E95"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="D97:E97"/>
-    <mergeCell ref="D98:E98"/>
-    <mergeCell ref="D99:E99"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="C58:E60"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:E62"/>
-    <mergeCell ref="B44:E45"/>
-    <mergeCell ref="B48:B57"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="C37:E39"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:E41"/>
+  <mergeCells count="290">
+    <mergeCell ref="B268:B270"/>
+    <mergeCell ref="C268:E270"/>
+    <mergeCell ref="B271:B272"/>
+    <mergeCell ref="C271:E272"/>
+    <mergeCell ref="B254:E255"/>
+    <mergeCell ref="B258:B267"/>
+    <mergeCell ref="D258:E258"/>
+    <mergeCell ref="D259:E259"/>
+    <mergeCell ref="D260:E260"/>
+    <mergeCell ref="D261:E261"/>
+    <mergeCell ref="D262:E262"/>
+    <mergeCell ref="D263:E263"/>
+    <mergeCell ref="D264:E264"/>
+    <mergeCell ref="D265:E265"/>
+    <mergeCell ref="D266:E266"/>
+    <mergeCell ref="D267:E267"/>
+    <mergeCell ref="B226:B228"/>
+    <mergeCell ref="C226:E228"/>
+    <mergeCell ref="B229:B230"/>
+    <mergeCell ref="C229:E230"/>
+    <mergeCell ref="B205:B207"/>
+    <mergeCell ref="C205:E207"/>
+    <mergeCell ref="B208:B209"/>
+    <mergeCell ref="C208:E209"/>
+    <mergeCell ref="B212:E213"/>
+    <mergeCell ref="B216:B225"/>
+    <mergeCell ref="D216:E216"/>
+    <mergeCell ref="D217:E217"/>
+    <mergeCell ref="D218:E218"/>
+    <mergeCell ref="D219:E219"/>
+    <mergeCell ref="D220:E220"/>
+    <mergeCell ref="D221:E221"/>
+    <mergeCell ref="D222:E222"/>
+    <mergeCell ref="D223:E223"/>
+    <mergeCell ref="D224:E224"/>
+    <mergeCell ref="D225:E225"/>
+    <mergeCell ref="B191:E192"/>
+    <mergeCell ref="B195:B204"/>
+    <mergeCell ref="D195:E195"/>
+    <mergeCell ref="D196:E196"/>
+    <mergeCell ref="D197:E197"/>
+    <mergeCell ref="D198:E198"/>
+    <mergeCell ref="D199:E199"/>
+    <mergeCell ref="D200:E200"/>
+    <mergeCell ref="D201:E201"/>
+    <mergeCell ref="D202:E202"/>
+    <mergeCell ref="D203:E203"/>
+    <mergeCell ref="D204:E204"/>
+    <mergeCell ref="B163:B165"/>
+    <mergeCell ref="C163:E165"/>
+    <mergeCell ref="B166:B167"/>
+    <mergeCell ref="C166:E167"/>
+    <mergeCell ref="B149:E150"/>
+    <mergeCell ref="B153:B162"/>
+    <mergeCell ref="D153:E153"/>
+    <mergeCell ref="D154:E154"/>
+    <mergeCell ref="D155:E155"/>
+    <mergeCell ref="D156:E156"/>
+    <mergeCell ref="D157:E157"/>
+    <mergeCell ref="D158:E158"/>
+    <mergeCell ref="D159:E159"/>
+    <mergeCell ref="D160:E160"/>
+    <mergeCell ref="D161:E161"/>
+    <mergeCell ref="D162:E162"/>
+    <mergeCell ref="B142:B144"/>
+    <mergeCell ref="C142:E144"/>
+    <mergeCell ref="B145:B146"/>
+    <mergeCell ref="C145:E146"/>
+    <mergeCell ref="B132:B141"/>
+    <mergeCell ref="D132:E132"/>
+    <mergeCell ref="D133:E133"/>
+    <mergeCell ref="D134:E134"/>
+    <mergeCell ref="D135:E135"/>
+    <mergeCell ref="D136:E136"/>
+    <mergeCell ref="D137:E137"/>
+    <mergeCell ref="D138:E138"/>
+    <mergeCell ref="D139:E139"/>
+    <mergeCell ref="D140:E140"/>
+    <mergeCell ref="D141:E141"/>
+    <mergeCell ref="B121:B123"/>
+    <mergeCell ref="C121:E123"/>
+    <mergeCell ref="B124:B125"/>
+    <mergeCell ref="C124:E125"/>
+    <mergeCell ref="B128:E129"/>
+    <mergeCell ref="B107:E108"/>
+    <mergeCell ref="B111:B120"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="D113:E113"/>
+    <mergeCell ref="D114:E114"/>
+    <mergeCell ref="D115:E115"/>
+    <mergeCell ref="D116:E116"/>
+    <mergeCell ref="D117:E117"/>
+    <mergeCell ref="D118:E118"/>
+    <mergeCell ref="D119:E119"/>
+    <mergeCell ref="D120:E120"/>
+    <mergeCell ref="B79:B81"/>
+    <mergeCell ref="C79:E81"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="C82:E83"/>
+    <mergeCell ref="B65:E66"/>
+    <mergeCell ref="B69:B78"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="D78:E78"/>
     <mergeCell ref="G2:N3"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="G5:N20"/>
@@ -2877,70 +4344,160 @@
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="D10:E10"/>
-    <mergeCell ref="B79:B81"/>
-    <mergeCell ref="C79:E81"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="C82:E83"/>
-    <mergeCell ref="B65:E66"/>
-    <mergeCell ref="B69:B78"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="B121:B123"/>
-    <mergeCell ref="C121:E123"/>
-    <mergeCell ref="B124:B125"/>
-    <mergeCell ref="C124:E125"/>
-    <mergeCell ref="B128:E129"/>
-    <mergeCell ref="B107:E108"/>
-    <mergeCell ref="B111:B120"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="D113:E113"/>
-    <mergeCell ref="D114:E114"/>
-    <mergeCell ref="D115:E115"/>
-    <mergeCell ref="D116:E116"/>
-    <mergeCell ref="D117:E117"/>
-    <mergeCell ref="D118:E118"/>
-    <mergeCell ref="D119:E119"/>
-    <mergeCell ref="D120:E120"/>
-    <mergeCell ref="B142:B144"/>
-    <mergeCell ref="C142:E144"/>
-    <mergeCell ref="B145:B146"/>
-    <mergeCell ref="C145:E146"/>
-    <mergeCell ref="B132:B141"/>
-    <mergeCell ref="D132:E132"/>
-    <mergeCell ref="D133:E133"/>
-    <mergeCell ref="D134:E134"/>
-    <mergeCell ref="D135:E135"/>
-    <mergeCell ref="D136:E136"/>
-    <mergeCell ref="D137:E137"/>
-    <mergeCell ref="D138:E138"/>
-    <mergeCell ref="D139:E139"/>
-    <mergeCell ref="D140:E140"/>
-    <mergeCell ref="D141:E141"/>
-    <mergeCell ref="B163:B165"/>
-    <mergeCell ref="C163:E165"/>
-    <mergeCell ref="B166:B167"/>
-    <mergeCell ref="C166:E167"/>
-    <mergeCell ref="B149:E150"/>
-    <mergeCell ref="B153:B162"/>
-    <mergeCell ref="D153:E153"/>
-    <mergeCell ref="D154:E154"/>
-    <mergeCell ref="D155:E155"/>
-    <mergeCell ref="D156:E156"/>
-    <mergeCell ref="D157:E157"/>
-    <mergeCell ref="D158:E158"/>
-    <mergeCell ref="D159:E159"/>
-    <mergeCell ref="D160:E160"/>
-    <mergeCell ref="D161:E161"/>
-    <mergeCell ref="D162:E162"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="C37:E39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:E41"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="C58:E60"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:E62"/>
+    <mergeCell ref="B44:E45"/>
+    <mergeCell ref="B48:B57"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="B100:B102"/>
+    <mergeCell ref="C100:E102"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:E104"/>
+    <mergeCell ref="B86:E87"/>
+    <mergeCell ref="B90:B99"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="D97:E97"/>
+    <mergeCell ref="D98:E98"/>
+    <mergeCell ref="D99:E99"/>
+    <mergeCell ref="B184:B186"/>
+    <mergeCell ref="C184:E186"/>
+    <mergeCell ref="B187:B188"/>
+    <mergeCell ref="C187:E188"/>
+    <mergeCell ref="B170:E171"/>
+    <mergeCell ref="B174:B183"/>
+    <mergeCell ref="D174:E174"/>
+    <mergeCell ref="D175:E175"/>
+    <mergeCell ref="D176:E176"/>
+    <mergeCell ref="D177:E177"/>
+    <mergeCell ref="D178:E178"/>
+    <mergeCell ref="D179:E179"/>
+    <mergeCell ref="D180:E180"/>
+    <mergeCell ref="D181:E181"/>
+    <mergeCell ref="D182:E182"/>
+    <mergeCell ref="D183:E183"/>
+    <mergeCell ref="B247:B249"/>
+    <mergeCell ref="C247:E249"/>
+    <mergeCell ref="B250:B251"/>
+    <mergeCell ref="C250:E251"/>
+    <mergeCell ref="B233:E234"/>
+    <mergeCell ref="B237:B246"/>
+    <mergeCell ref="D237:E237"/>
+    <mergeCell ref="D238:E238"/>
+    <mergeCell ref="D239:E239"/>
+    <mergeCell ref="D240:E240"/>
+    <mergeCell ref="D241:E241"/>
+    <mergeCell ref="D242:E242"/>
+    <mergeCell ref="D243:E243"/>
+    <mergeCell ref="D244:E244"/>
+    <mergeCell ref="D245:E245"/>
+    <mergeCell ref="D246:E246"/>
+    <mergeCell ref="B275:E276"/>
+    <mergeCell ref="B279:B288"/>
+    <mergeCell ref="D279:E279"/>
+    <mergeCell ref="D280:E280"/>
+    <mergeCell ref="D281:E281"/>
+    <mergeCell ref="D282:E282"/>
+    <mergeCell ref="D283:E283"/>
+    <mergeCell ref="D284:E284"/>
+    <mergeCell ref="D285:E285"/>
+    <mergeCell ref="D286:E286"/>
+    <mergeCell ref="D287:E287"/>
+    <mergeCell ref="D288:E288"/>
+    <mergeCell ref="B289:B291"/>
+    <mergeCell ref="C289:E291"/>
+    <mergeCell ref="B292:B293"/>
+    <mergeCell ref="C292:E293"/>
+    <mergeCell ref="B296:E297"/>
+    <mergeCell ref="B300:B309"/>
+    <mergeCell ref="D300:E300"/>
+    <mergeCell ref="D301:E301"/>
+    <mergeCell ref="D302:E302"/>
+    <mergeCell ref="D303:E303"/>
+    <mergeCell ref="D304:E304"/>
+    <mergeCell ref="D305:E305"/>
+    <mergeCell ref="D306:E306"/>
+    <mergeCell ref="D307:E307"/>
+    <mergeCell ref="D308:E308"/>
+    <mergeCell ref="D309:E309"/>
+    <mergeCell ref="B331:B333"/>
+    <mergeCell ref="C331:E333"/>
+    <mergeCell ref="B334:B335"/>
+    <mergeCell ref="C334:E335"/>
+    <mergeCell ref="B310:B312"/>
+    <mergeCell ref="C310:E312"/>
+    <mergeCell ref="B313:B314"/>
+    <mergeCell ref="C313:E314"/>
+    <mergeCell ref="B317:E318"/>
+    <mergeCell ref="B321:B330"/>
+    <mergeCell ref="D321:E321"/>
+    <mergeCell ref="D322:E322"/>
+    <mergeCell ref="D323:E323"/>
+    <mergeCell ref="D324:E324"/>
+    <mergeCell ref="D325:E325"/>
+    <mergeCell ref="D326:E326"/>
+    <mergeCell ref="D327:E327"/>
+    <mergeCell ref="D328:E328"/>
+    <mergeCell ref="D329:E329"/>
+    <mergeCell ref="D330:E330"/>
+    <mergeCell ref="B338:E339"/>
+    <mergeCell ref="B342:B351"/>
+    <mergeCell ref="D342:E342"/>
+    <mergeCell ref="D343:E343"/>
+    <mergeCell ref="D344:E344"/>
+    <mergeCell ref="D345:E345"/>
+    <mergeCell ref="D346:E346"/>
+    <mergeCell ref="D347:E347"/>
+    <mergeCell ref="D348:E348"/>
+    <mergeCell ref="D349:E349"/>
+    <mergeCell ref="D350:E350"/>
+    <mergeCell ref="D351:E351"/>
+    <mergeCell ref="B373:B375"/>
+    <mergeCell ref="C373:E375"/>
+    <mergeCell ref="B376:B377"/>
+    <mergeCell ref="C376:E377"/>
+    <mergeCell ref="B352:B354"/>
+    <mergeCell ref="C352:E354"/>
+    <mergeCell ref="B355:B356"/>
+    <mergeCell ref="C355:E356"/>
+    <mergeCell ref="B359:E360"/>
+    <mergeCell ref="B363:B372"/>
+    <mergeCell ref="D363:E363"/>
+    <mergeCell ref="D364:E364"/>
+    <mergeCell ref="D365:E365"/>
+    <mergeCell ref="D366:E366"/>
+    <mergeCell ref="D367:E367"/>
+    <mergeCell ref="D368:E368"/>
+    <mergeCell ref="D369:E369"/>
+    <mergeCell ref="D370:E370"/>
+    <mergeCell ref="D371:E371"/>
+    <mergeCell ref="D372:E372"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2023.Roblox/보고서.xlsx
+++ b/2023.Roblox/보고서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\MyProject\2023.Roblox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA5A8BA6-8382-4051-A1E6-05EE2FD08578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30D67ABD-1024-44CD-BC01-4356120F1711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="675" windowWidth="17235" windowHeight="14655" xr2:uid="{4E01D864-CD35-434B-8531-55E7FE3796C5}"/>
+    <workbookView xWindow="165" yWindow="1170" windowWidth="12210" windowHeight="14655" xr2:uid="{4E01D864-CD35-434B-8531-55E7FE3796C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="82">
   <si>
     <t>성명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -291,10 +291,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>게임 테스트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>회의 및 난이도 조절 및 게임 일부 수정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -372,6 +368,14 @@
   </si>
   <si>
     <t>최종 디버깅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-09-09 토</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>튜토리얼 맵 확실하게, 부활 시간 단축, 1스테이지 난이도 조정, UI안내 추가, 스테이지 구분 확실하게</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -443,7 +447,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -794,13 +798,56 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -841,6 +888,96 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -849,95 +986,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1255,8 +1314,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38631B98-C762-49C9-9DB7-C4CEF205C505}">
   <dimension ref="B1:N377"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A358" workbookViewId="0">
-      <selection activeCell="D365" sqref="D365:E365"/>
+    <sheetView tabSelected="1" topLeftCell="A277" workbookViewId="0">
+      <selection activeCell="H288" sqref="H288"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1268,36 +1327,36 @@
   <sheetData>
     <row r="1" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="24"/>
-      <c r="G2" s="22" t="s">
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="22"/>
+      <c r="G2" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="24"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="22"/>
     </row>
     <row r="3" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="25"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="27"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="27"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="25"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="25"/>
     </row>
     <row r="4" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="2:14" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1313,16 +1372,16 @@
       <c r="E5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="37" t="s">
+      <c r="G5" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="39"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="34"/>
     </row>
     <row r="6" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="10" t="s">
@@ -1331,222 +1390,222 @@
       <c r="C6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="29"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41"/>
-      <c r="N6" s="42"/>
+      <c r="E6" s="27"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="37"/>
     </row>
     <row r="7" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="11"/>
       <c r="C7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="31"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="42"/>
+      <c r="E7" s="29"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="37"/>
     </row>
     <row r="8" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="11"/>
       <c r="C8" s="5"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="18"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="41"/>
-      <c r="N8" s="42"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="15"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="37"/>
     </row>
     <row r="9" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="11"/>
       <c r="C9" s="5"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="18"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="41"/>
-      <c r="N9" s="42"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="15"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="37"/>
     </row>
     <row r="10" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="11"/>
       <c r="C10" s="5"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="18"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="41"/>
-      <c r="L10" s="41"/>
-      <c r="M10" s="41"/>
-      <c r="N10" s="42"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="15"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="37"/>
     </row>
     <row r="11" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="11"/>
       <c r="C11" s="5"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="18"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="41"/>
-      <c r="N11" s="42"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="15"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="37"/>
     </row>
     <row r="12" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="11"/>
       <c r="C12" s="5"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="18"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="41"/>
-      <c r="K12" s="41"/>
-      <c r="L12" s="41"/>
-      <c r="M12" s="41"/>
-      <c r="N12" s="42"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="15"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="37"/>
     </row>
     <row r="13" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="11"/>
       <c r="C13" s="5"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="18"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="41"/>
-      <c r="N13" s="42"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="15"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="37"/>
     </row>
     <row r="14" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="11"/>
       <c r="C14" s="5"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="18"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="41"/>
-      <c r="L14" s="41"/>
-      <c r="M14" s="41"/>
-      <c r="N14" s="42"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="15"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="37"/>
     </row>
     <row r="15" spans="2:14" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="12"/>
       <c r="C15" s="5"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="18"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="41"/>
-      <c r="K15" s="41"/>
-      <c r="L15" s="41"/>
-      <c r="M15" s="41"/>
-      <c r="N15" s="42"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="15"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="37"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="34"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="18"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="41"/>
-      <c r="L16" s="41"/>
-      <c r="M16" s="41"/>
-      <c r="N16" s="42"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="15"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="37"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="11"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="18"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="41"/>
-      <c r="K17" s="41"/>
-      <c r="L17" s="41"/>
-      <c r="M17" s="41"/>
-      <c r="N17" s="42"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="15"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="37"/>
     </row>
     <row r="18" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="12"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="18"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="41"/>
-      <c r="K18" s="41"/>
-      <c r="L18" s="41"/>
-      <c r="M18" s="41"/>
-      <c r="N18" s="42"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="15"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="37"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="34"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="18"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="41"/>
-      <c r="K19" s="41"/>
-      <c r="L19" s="41"/>
-      <c r="M19" s="41"/>
-      <c r="N19" s="42"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="15"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="37"/>
     </row>
     <row r="20" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="12"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="21"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="44"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="44"/>
-      <c r="M20" s="44"/>
-      <c r="N20" s="45"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="19"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="40"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="G21" s="8"/>
@@ -1569,12 +1628,12 @@
       <c r="N22" s="8"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="24"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="22"/>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
@@ -1585,10 +1644,10 @@
       <c r="N23" s="8"/>
     </row>
     <row r="24" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="25"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="27"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="25"/>
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
@@ -1637,10 +1696,10 @@
       <c r="C27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D27" s="28" t="s">
+      <c r="D27" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E27" s="29"/>
+      <c r="E27" s="27"/>
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
@@ -1655,10 +1714,10 @@
       <c r="C28" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="30" t="s">
+      <c r="D28" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="E28" s="31"/>
+      <c r="E28" s="29"/>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
       <c r="I28" s="8"/>
@@ -1673,10 +1732,10 @@
       <c r="C29" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="17" t="s">
+      <c r="D29" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E29" s="18"/>
+      <c r="E29" s="15"/>
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
       <c r="I29" s="8"/>
@@ -1691,10 +1750,10 @@
       <c r="C30" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="17" t="s">
+      <c r="D30" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E30" s="18"/>
+      <c r="E30" s="15"/>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
@@ -1709,10 +1768,10 @@
       <c r="C31" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D31" s="17" t="s">
+      <c r="D31" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E31" s="18"/>
+      <c r="E31" s="15"/>
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
@@ -1727,10 +1786,10 @@
       <c r="C32" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D32" s="17" t="s">
+      <c r="D32" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E32" s="18"/>
+      <c r="E32" s="15"/>
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
       <c r="I32" s="8"/>
@@ -1745,10 +1804,10 @@
       <c r="C33" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D33" s="35" t="s">
+      <c r="D33" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="E33" s="36"/>
+      <c r="E33" s="31"/>
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
@@ -1761,8 +1820,8 @@
     <row r="34" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="11"/>
       <c r="C34" s="5"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="18"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="15"/>
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
       <c r="I34" s="8"/>
@@ -1775,8 +1834,8 @@
     <row r="35" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="11"/>
       <c r="C35" s="5"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="18"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="15"/>
       <c r="G35" s="8"/>
       <c r="H35" s="8"/>
       <c r="I35" s="8"/>
@@ -1789,8 +1848,8 @@
     <row r="36" spans="2:14" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B36" s="12"/>
       <c r="C36" s="5"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="18"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="15"/>
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
       <c r="I36" s="8"/>
@@ -1804,11 +1863,11 @@
       <c r="B37" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C37" s="34" t="s">
+      <c r="C37" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D37" s="17"/>
-      <c r="E37" s="18"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="15"/>
       <c r="G37" s="8"/>
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
@@ -1820,9 +1879,9 @@
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="11"/>
-      <c r="C38" s="34"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="18"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="15"/>
       <c r="G38" s="8"/>
       <c r="H38" s="8"/>
       <c r="I38" s="8"/>
@@ -1834,9 +1893,9 @@
     </row>
     <row r="39" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B39" s="12"/>
-      <c r="C39" s="34"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="18"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="15"/>
       <c r="G39" s="8"/>
       <c r="H39" s="8"/>
       <c r="I39" s="8"/>
@@ -1850,9 +1909,9 @@
       <c r="B40" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C40" s="34"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="18"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="15"/>
       <c r="G40" s="8"/>
       <c r="H40" s="8"/>
       <c r="I40" s="8"/>
@@ -1864,9 +1923,9 @@
     </row>
     <row r="41" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B41" s="12"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="21"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="19"/>
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
       <c r="I41" s="8"/>
@@ -1897,12 +1956,12 @@
       <c r="N43" s="8"/>
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B44" s="22" t="s">
+      <c r="B44" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C44" s="23"/>
-      <c r="D44" s="23"/>
-      <c r="E44" s="24"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="22"/>
       <c r="G44" s="8"/>
       <c r="H44" s="8"/>
       <c r="I44" s="8"/>
@@ -1913,10 +1972,10 @@
       <c r="N44" s="8"/>
     </row>
     <row r="45" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="25"/>
-      <c r="C45" s="26"/>
-      <c r="D45" s="26"/>
-      <c r="E45" s="27"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="25"/>
       <c r="G45" s="8"/>
       <c r="H45" s="8"/>
       <c r="I45" s="8"/>
@@ -1957,127 +2016,127 @@
       <c r="C48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D48" s="28" t="s">
+      <c r="D48" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E48" s="29"/>
+      <c r="E48" s="27"/>
     </row>
     <row r="49" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="11"/>
       <c r="C49" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D49" s="30" t="s">
+      <c r="D49" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="E49" s="31"/>
+      <c r="E49" s="29"/>
     </row>
     <row r="50" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="11"/>
       <c r="C50" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D50" s="17" t="s">
+      <c r="D50" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E50" s="18"/>
+      <c r="E50" s="15"/>
     </row>
     <row r="51" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51" s="11"/>
       <c r="C51" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D51" s="17" t="s">
+      <c r="D51" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E51" s="18"/>
+      <c r="E51" s="15"/>
     </row>
     <row r="52" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="11"/>
       <c r="C52" s="5"/>
-      <c r="D52" s="17"/>
-      <c r="E52" s="18"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="15"/>
     </row>
     <row r="53" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B53" s="11"/>
       <c r="C53" s="5"/>
-      <c r="D53" s="17"/>
-      <c r="E53" s="18"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="15"/>
     </row>
     <row r="54" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B54" s="11"/>
       <c r="C54" s="5"/>
-      <c r="D54" s="17"/>
-      <c r="E54" s="18"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="15"/>
     </row>
     <row r="55" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B55" s="11"/>
       <c r="C55" s="5"/>
-      <c r="D55" s="17"/>
-      <c r="E55" s="18"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="15"/>
     </row>
     <row r="56" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="11"/>
       <c r="C56" s="5"/>
-      <c r="D56" s="17"/>
-      <c r="E56" s="18"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="15"/>
     </row>
     <row r="57" spans="2:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B57" s="12"/>
       <c r="C57" s="5"/>
-      <c r="D57" s="17"/>
-      <c r="E57" s="18"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="15"/>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B58" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C58" s="34" t="s">
+      <c r="C58" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D58" s="17"/>
-      <c r="E58" s="18"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="15"/>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B59" s="11"/>
-      <c r="C59" s="34"/>
-      <c r="D59" s="17"/>
-      <c r="E59" s="18"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="15"/>
     </row>
     <row r="60" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B60" s="12"/>
-      <c r="C60" s="34"/>
-      <c r="D60" s="17"/>
-      <c r="E60" s="18"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="15"/>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B61" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C61" s="34"/>
-      <c r="D61" s="17"/>
-      <c r="E61" s="18"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="15"/>
     </row>
     <row r="62" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B62" s="12"/>
-      <c r="C62" s="19"/>
-      <c r="D62" s="20"/>
-      <c r="E62" s="21"/>
+      <c r="C62" s="17"/>
+      <c r="D62" s="18"/>
+      <c r="E62" s="19"/>
     </row>
     <row r="64" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="65" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B65" s="22" t="s">
+      <c r="B65" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C65" s="23"/>
-      <c r="D65" s="23"/>
-      <c r="E65" s="24"/>
+      <c r="C65" s="21"/>
+      <c r="D65" s="21"/>
+      <c r="E65" s="22"/>
     </row>
     <row r="66" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="25"/>
-      <c r="C66" s="26"/>
-      <c r="D66" s="26"/>
-      <c r="E66" s="27"/>
+      <c r="B66" s="23"/>
+      <c r="C66" s="24"/>
+      <c r="D66" s="24"/>
+      <c r="E66" s="25"/>
     </row>
     <row r="67" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="68" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2101,125 +2160,125 @@
       <c r="C69" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D69" s="28" t="s">
+      <c r="D69" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E69" s="29"/>
+      <c r="E69" s="27"/>
     </row>
     <row r="70" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B70" s="11"/>
       <c r="C70" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D70" s="30" t="s">
+      <c r="D70" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="E70" s="31"/>
+      <c r="E70" s="29"/>
     </row>
     <row r="71" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B71" s="11"/>
       <c r="C71" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D71" s="17" t="s">
+      <c r="D71" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E71" s="18"/>
+      <c r="E71" s="15"/>
     </row>
     <row r="72" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B72" s="11"/>
       <c r="C72" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D72" s="35" t="s">
+      <c r="D72" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="E72" s="36"/>
+      <c r="E72" s="31"/>
     </row>
     <row r="73" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B73" s="11"/>
       <c r="C73" s="5"/>
-      <c r="D73" s="17"/>
-      <c r="E73" s="18"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="15"/>
     </row>
     <row r="74" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B74" s="11"/>
       <c r="C74" s="5"/>
-      <c r="D74" s="17"/>
-      <c r="E74" s="18"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="15"/>
     </row>
     <row r="75" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B75" s="11"/>
       <c r="C75" s="5"/>
-      <c r="D75" s="17"/>
-      <c r="E75" s="18"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="15"/>
     </row>
     <row r="76" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B76" s="11"/>
       <c r="C76" s="5"/>
-      <c r="D76" s="17"/>
-      <c r="E76" s="18"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="15"/>
     </row>
     <row r="77" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B77" s="11"/>
       <c r="C77" s="5"/>
-      <c r="D77" s="17"/>
-      <c r="E77" s="18"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="15"/>
     </row>
     <row r="78" spans="2:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B78" s="12"/>
       <c r="C78" s="5"/>
-      <c r="D78" s="17"/>
-      <c r="E78" s="18"/>
+      <c r="D78" s="14"/>
+      <c r="E78" s="15"/>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B79" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C79" s="34"/>
-      <c r="D79" s="17"/>
-      <c r="E79" s="18"/>
+      <c r="C79" s="13"/>
+      <c r="D79" s="14"/>
+      <c r="E79" s="15"/>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B80" s="11"/>
-      <c r="C80" s="34"/>
-      <c r="D80" s="17"/>
-      <c r="E80" s="18"/>
+      <c r="C80" s="13"/>
+      <c r="D80" s="14"/>
+      <c r="E80" s="15"/>
     </row>
     <row r="81" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B81" s="12"/>
-      <c r="C81" s="34"/>
-      <c r="D81" s="17"/>
-      <c r="E81" s="18"/>
+      <c r="C81" s="13"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="15"/>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B82" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C82" s="34"/>
-      <c r="D82" s="17"/>
-      <c r="E82" s="18"/>
+      <c r="C82" s="13"/>
+      <c r="D82" s="14"/>
+      <c r="E82" s="15"/>
     </row>
     <row r="83" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B83" s="12"/>
-      <c r="C83" s="19"/>
-      <c r="D83" s="20"/>
-      <c r="E83" s="21"/>
+      <c r="C83" s="17"/>
+      <c r="D83" s="18"/>
+      <c r="E83" s="19"/>
     </row>
     <row r="85" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="86" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B86" s="22" t="s">
+      <c r="B86" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C86" s="23"/>
-      <c r="D86" s="23"/>
-      <c r="E86" s="24"/>
+      <c r="C86" s="21"/>
+      <c r="D86" s="21"/>
+      <c r="E86" s="22"/>
     </row>
     <row r="87" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B87" s="25"/>
-      <c r="C87" s="26"/>
-      <c r="D87" s="26"/>
-      <c r="E87" s="27"/>
+      <c r="B87" s="23"/>
+      <c r="C87" s="24"/>
+      <c r="D87" s="24"/>
+      <c r="E87" s="25"/>
     </row>
     <row r="88" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="89" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2243,125 +2302,125 @@
       <c r="C90" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D90" s="28" t="s">
+      <c r="D90" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E90" s="29"/>
+      <c r="E90" s="27"/>
     </row>
     <row r="91" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B91" s="11"/>
       <c r="C91" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D91" s="30" t="s">
+      <c r="D91" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="E91" s="31"/>
+      <c r="E91" s="29"/>
     </row>
     <row r="92" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B92" s="11"/>
       <c r="C92" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D92" s="17" t="s">
+      <c r="D92" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E92" s="18"/>
+      <c r="E92" s="15"/>
     </row>
     <row r="93" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B93" s="11"/>
       <c r="C93" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D93" s="35" t="s">
+      <c r="D93" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="E93" s="36"/>
+      <c r="E93" s="31"/>
     </row>
     <row r="94" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B94" s="11"/>
       <c r="C94" s="5"/>
-      <c r="D94" s="17"/>
-      <c r="E94" s="18"/>
+      <c r="D94" s="14"/>
+      <c r="E94" s="15"/>
     </row>
     <row r="95" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B95" s="11"/>
       <c r="C95" s="5"/>
-      <c r="D95" s="17"/>
-      <c r="E95" s="18"/>
+      <c r="D95" s="14"/>
+      <c r="E95" s="15"/>
     </row>
     <row r="96" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B96" s="11"/>
       <c r="C96" s="5"/>
-      <c r="D96" s="17"/>
-      <c r="E96" s="18"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="15"/>
     </row>
     <row r="97" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B97" s="11"/>
       <c r="C97" s="5"/>
-      <c r="D97" s="17"/>
-      <c r="E97" s="18"/>
+      <c r="D97" s="14"/>
+      <c r="E97" s="15"/>
     </row>
     <row r="98" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B98" s="11"/>
       <c r="C98" s="5"/>
-      <c r="D98" s="17"/>
-      <c r="E98" s="18"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="15"/>
     </row>
     <row r="99" spans="2:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B99" s="12"/>
       <c r="C99" s="5"/>
-      <c r="D99" s="17"/>
-      <c r="E99" s="18"/>
+      <c r="D99" s="14"/>
+      <c r="E99" s="15"/>
     </row>
     <row r="100" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B100" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C100" s="34"/>
-      <c r="D100" s="17"/>
-      <c r="E100" s="18"/>
+      <c r="C100" s="13"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="15"/>
     </row>
     <row r="101" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B101" s="11"/>
-      <c r="C101" s="34"/>
-      <c r="D101" s="17"/>
-      <c r="E101" s="18"/>
+      <c r="C101" s="13"/>
+      <c r="D101" s="14"/>
+      <c r="E101" s="15"/>
     </row>
     <row r="102" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B102" s="12"/>
-      <c r="C102" s="34"/>
-      <c r="D102" s="17"/>
-      <c r="E102" s="18"/>
+      <c r="C102" s="13"/>
+      <c r="D102" s="14"/>
+      <c r="E102" s="15"/>
     </row>
     <row r="103" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B103" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C103" s="34"/>
-      <c r="D103" s="17"/>
-      <c r="E103" s="18"/>
+      <c r="C103" s="13"/>
+      <c r="D103" s="14"/>
+      <c r="E103" s="15"/>
     </row>
     <row r="104" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B104" s="12"/>
-      <c r="C104" s="19"/>
-      <c r="D104" s="20"/>
-      <c r="E104" s="21"/>
+      <c r="C104" s="17"/>
+      <c r="D104" s="18"/>
+      <c r="E104" s="19"/>
     </row>
     <row r="106" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="107" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B107" s="22" t="s">
+      <c r="B107" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C107" s="23"/>
-      <c r="D107" s="23"/>
-      <c r="E107" s="24"/>
+      <c r="C107" s="21"/>
+      <c r="D107" s="21"/>
+      <c r="E107" s="22"/>
     </row>
     <row r="108" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B108" s="25"/>
-      <c r="C108" s="26"/>
-      <c r="D108" s="26"/>
-      <c r="E108" s="27"/>
+      <c r="B108" s="23"/>
+      <c r="C108" s="24"/>
+      <c r="D108" s="24"/>
+      <c r="E108" s="25"/>
     </row>
     <row r="109" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="110" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2385,127 +2444,127 @@
       <c r="C111" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D111" s="28" t="s">
+      <c r="D111" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E111" s="29"/>
+      <c r="E111" s="27"/>
     </row>
     <row r="112" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B112" s="11"/>
       <c r="C112" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D112" s="30" t="s">
+      <c r="D112" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="E112" s="31"/>
+      <c r="E112" s="29"/>
     </row>
     <row r="113" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B113" s="11"/>
       <c r="C113" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D113" s="17" t="s">
+      <c r="D113" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E113" s="18"/>
+      <c r="E113" s="15"/>
     </row>
     <row r="114" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B114" s="11"/>
       <c r="C114" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D114" s="35" t="s">
+      <c r="D114" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="E114" s="36"/>
+      <c r="E114" s="31"/>
     </row>
     <row r="115" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B115" s="11"/>
       <c r="C115" s="5"/>
-      <c r="D115" s="17"/>
-      <c r="E115" s="18"/>
+      <c r="D115" s="14"/>
+      <c r="E115" s="15"/>
     </row>
     <row r="116" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B116" s="11"/>
       <c r="C116" s="5"/>
-      <c r="D116" s="17"/>
-      <c r="E116" s="18"/>
+      <c r="D116" s="14"/>
+      <c r="E116" s="15"/>
     </row>
     <row r="117" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B117" s="11"/>
       <c r="C117" s="5"/>
-      <c r="D117" s="17"/>
-      <c r="E117" s="18"/>
+      <c r="D117" s="14"/>
+      <c r="E117" s="15"/>
     </row>
     <row r="118" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B118" s="11"/>
       <c r="C118" s="5"/>
-      <c r="D118" s="17"/>
-      <c r="E118" s="18"/>
+      <c r="D118" s="14"/>
+      <c r="E118" s="15"/>
     </row>
     <row r="119" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B119" s="11"/>
       <c r="C119" s="5"/>
-      <c r="D119" s="17"/>
-      <c r="E119" s="18"/>
+      <c r="D119" s="14"/>
+      <c r="E119" s="15"/>
     </row>
     <row r="120" spans="2:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B120" s="12"/>
       <c r="C120" s="5"/>
-      <c r="D120" s="17"/>
-      <c r="E120" s="18"/>
+      <c r="D120" s="14"/>
+      <c r="E120" s="15"/>
     </row>
     <row r="121" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B121" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C121" s="34" t="s">
+      <c r="C121" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D121" s="17"/>
-      <c r="E121" s="18"/>
+      <c r="D121" s="14"/>
+      <c r="E121" s="15"/>
     </row>
     <row r="122" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B122" s="11"/>
-      <c r="C122" s="34"/>
-      <c r="D122" s="17"/>
-      <c r="E122" s="18"/>
+      <c r="C122" s="13"/>
+      <c r="D122" s="14"/>
+      <c r="E122" s="15"/>
     </row>
     <row r="123" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B123" s="12"/>
-      <c r="C123" s="34"/>
-      <c r="D123" s="17"/>
-      <c r="E123" s="18"/>
+      <c r="C123" s="13"/>
+      <c r="D123" s="14"/>
+      <c r="E123" s="15"/>
     </row>
     <row r="124" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B124" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C124" s="34"/>
-      <c r="D124" s="17"/>
-      <c r="E124" s="18"/>
+      <c r="C124" s="13"/>
+      <c r="D124" s="14"/>
+      <c r="E124" s="15"/>
     </row>
     <row r="125" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B125" s="12"/>
-      <c r="C125" s="19"/>
-      <c r="D125" s="20"/>
-      <c r="E125" s="21"/>
+      <c r="C125" s="17"/>
+      <c r="D125" s="18"/>
+      <c r="E125" s="19"/>
     </row>
     <row r="127" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="128" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B128" s="22" t="s">
+      <c r="B128" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C128" s="23"/>
-      <c r="D128" s="23"/>
-      <c r="E128" s="24"/>
+      <c r="C128" s="21"/>
+      <c r="D128" s="21"/>
+      <c r="E128" s="22"/>
     </row>
     <row r="129" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B129" s="25"/>
-      <c r="C129" s="26"/>
-      <c r="D129" s="26"/>
-      <c r="E129" s="27"/>
+      <c r="B129" s="23"/>
+      <c r="C129" s="24"/>
+      <c r="D129" s="24"/>
+      <c r="E129" s="25"/>
     </row>
     <row r="130" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="131" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2529,127 +2588,127 @@
       <c r="C132" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D132" s="28" t="s">
+      <c r="D132" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E132" s="29"/>
+      <c r="E132" s="27"/>
     </row>
     <row r="133" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B133" s="11"/>
       <c r="C133" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D133" s="30" t="s">
+      <c r="D133" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="E133" s="31"/>
+      <c r="E133" s="29"/>
     </row>
     <row r="134" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B134" s="11"/>
       <c r="C134" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D134" s="17" t="s">
+      <c r="D134" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E134" s="18"/>
+      <c r="E134" s="15"/>
     </row>
     <row r="135" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B135" s="11"/>
       <c r="C135" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D135" s="35" t="s">
+      <c r="D135" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="E135" s="36"/>
+      <c r="E135" s="31"/>
     </row>
     <row r="136" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B136" s="11"/>
       <c r="C136" s="5"/>
-      <c r="D136" s="17"/>
-      <c r="E136" s="18"/>
+      <c r="D136" s="14"/>
+      <c r="E136" s="15"/>
     </row>
     <row r="137" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B137" s="11"/>
       <c r="C137" s="5"/>
-      <c r="D137" s="17"/>
-      <c r="E137" s="18"/>
+      <c r="D137" s="14"/>
+      <c r="E137" s="15"/>
     </row>
     <row r="138" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B138" s="11"/>
       <c r="C138" s="5"/>
-      <c r="D138" s="17"/>
-      <c r="E138" s="18"/>
+      <c r="D138" s="14"/>
+      <c r="E138" s="15"/>
     </row>
     <row r="139" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B139" s="11"/>
       <c r="C139" s="5"/>
-      <c r="D139" s="17"/>
-      <c r="E139" s="18"/>
+      <c r="D139" s="14"/>
+      <c r="E139" s="15"/>
     </row>
     <row r="140" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B140" s="11"/>
       <c r="C140" s="5"/>
-      <c r="D140" s="17"/>
-      <c r="E140" s="18"/>
+      <c r="D140" s="14"/>
+      <c r="E140" s="15"/>
     </row>
     <row r="141" spans="2:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B141" s="12"/>
       <c r="C141" s="5"/>
-      <c r="D141" s="17"/>
-      <c r="E141" s="18"/>
+      <c r="D141" s="14"/>
+      <c r="E141" s="15"/>
     </row>
     <row r="142" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B142" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C142" s="34" t="s">
+      <c r="C142" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D142" s="17"/>
-      <c r="E142" s="18"/>
+      <c r="D142" s="14"/>
+      <c r="E142" s="15"/>
     </row>
     <row r="143" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B143" s="11"/>
-      <c r="C143" s="34"/>
-      <c r="D143" s="17"/>
-      <c r="E143" s="18"/>
+      <c r="C143" s="13"/>
+      <c r="D143" s="14"/>
+      <c r="E143" s="15"/>
     </row>
     <row r="144" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B144" s="12"/>
-      <c r="C144" s="34"/>
-      <c r="D144" s="17"/>
-      <c r="E144" s="18"/>
+      <c r="C144" s="13"/>
+      <c r="D144" s="14"/>
+      <c r="E144" s="15"/>
     </row>
     <row r="145" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B145" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C145" s="34"/>
-      <c r="D145" s="17"/>
-      <c r="E145" s="18"/>
+      <c r="C145" s="13"/>
+      <c r="D145" s="14"/>
+      <c r="E145" s="15"/>
     </row>
     <row r="146" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B146" s="12"/>
-      <c r="C146" s="19"/>
-      <c r="D146" s="20"/>
-      <c r="E146" s="21"/>
+      <c r="C146" s="17"/>
+      <c r="D146" s="18"/>
+      <c r="E146" s="19"/>
     </row>
     <row r="148" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="149" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B149" s="22" t="s">
+      <c r="B149" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C149" s="23"/>
-      <c r="D149" s="23"/>
-      <c r="E149" s="24"/>
+      <c r="C149" s="21"/>
+      <c r="D149" s="21"/>
+      <c r="E149" s="22"/>
     </row>
     <row r="150" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B150" s="25"/>
-      <c r="C150" s="26"/>
-      <c r="D150" s="26"/>
-      <c r="E150" s="27"/>
+      <c r="B150" s="23"/>
+      <c r="C150" s="24"/>
+      <c r="D150" s="24"/>
+      <c r="E150" s="25"/>
     </row>
     <row r="151" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="152" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2673,96 +2732,96 @@
       <c r="C153" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D153" s="28" t="s">
+      <c r="D153" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E153" s="29"/>
+      <c r="E153" s="27"/>
     </row>
     <row r="154" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B154" s="11"/>
       <c r="C154" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D154" s="30" t="s">
+      <c r="D154" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="E154" s="31"/>
+      <c r="E154" s="29"/>
     </row>
     <row r="155" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B155" s="11"/>
       <c r="C155" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D155" s="17" t="s">
+      <c r="D155" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E155" s="18"/>
+      <c r="E155" s="15"/>
     </row>
     <row r="156" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B156" s="11"/>
       <c r="C156" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D156" s="35" t="s">
+      <c r="D156" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="E156" s="36"/>
+      <c r="E156" s="31"/>
     </row>
     <row r="157" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B157" s="11"/>
       <c r="C157" s="5"/>
-      <c r="D157" s="17"/>
-      <c r="E157" s="18"/>
+      <c r="D157" s="14"/>
+      <c r="E157" s="15"/>
     </row>
     <row r="158" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B158" s="11"/>
       <c r="C158" s="5"/>
-      <c r="D158" s="17"/>
-      <c r="E158" s="18"/>
+      <c r="D158" s="14"/>
+      <c r="E158" s="15"/>
     </row>
     <row r="159" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B159" s="11"/>
       <c r="C159" s="5"/>
-      <c r="D159" s="17"/>
-      <c r="E159" s="18"/>
+      <c r="D159" s="14"/>
+      <c r="E159" s="15"/>
     </row>
     <row r="160" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B160" s="11"/>
       <c r="C160" s="5"/>
-      <c r="D160" s="17"/>
-      <c r="E160" s="18"/>
+      <c r="D160" s="14"/>
+      <c r="E160" s="15"/>
     </row>
     <row r="161" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B161" s="11"/>
       <c r="C161" s="5"/>
-      <c r="D161" s="17"/>
-      <c r="E161" s="18"/>
+      <c r="D161" s="14"/>
+      <c r="E161" s="15"/>
     </row>
     <row r="162" spans="2:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B162" s="12"/>
       <c r="C162" s="5"/>
-      <c r="D162" s="17"/>
-      <c r="E162" s="18"/>
+      <c r="D162" s="14"/>
+      <c r="E162" s="15"/>
     </row>
     <row r="163" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B163" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C163" s="34"/>
-      <c r="D163" s="17"/>
-      <c r="E163" s="18"/>
+      <c r="C163" s="13"/>
+      <c r="D163" s="14"/>
+      <c r="E163" s="15"/>
     </row>
     <row r="164" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B164" s="11"/>
-      <c r="C164" s="34"/>
-      <c r="D164" s="17"/>
-      <c r="E164" s="18"/>
+      <c r="C164" s="13"/>
+      <c r="D164" s="14"/>
+      <c r="E164" s="15"/>
     </row>
     <row r="165" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B165" s="12"/>
-      <c r="C165" s="34"/>
-      <c r="D165" s="17"/>
-      <c r="E165" s="18"/>
+      <c r="C165" s="13"/>
+      <c r="D165" s="14"/>
+      <c r="E165" s="15"/>
     </row>
     <row r="166" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B166" s="10" t="s">
@@ -2771,29 +2830,29 @@
       <c r="C166" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="D166" s="17"/>
-      <c r="E166" s="18"/>
+      <c r="D166" s="14"/>
+      <c r="E166" s="15"/>
     </row>
     <row r="167" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B167" s="12"/>
-      <c r="C167" s="19"/>
-      <c r="D167" s="20"/>
-      <c r="E167" s="21"/>
+      <c r="C167" s="17"/>
+      <c r="D167" s="18"/>
+      <c r="E167" s="19"/>
     </row>
     <row r="169" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="170" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B170" s="22" t="s">
+      <c r="B170" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C170" s="23"/>
-      <c r="D170" s="23"/>
-      <c r="E170" s="24"/>
+      <c r="C170" s="21"/>
+      <c r="D170" s="21"/>
+      <c r="E170" s="22"/>
     </row>
     <row r="171" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B171" s="25"/>
-      <c r="C171" s="26"/>
-      <c r="D171" s="26"/>
-      <c r="E171" s="27"/>
+      <c r="B171" s="23"/>
+      <c r="C171" s="24"/>
+      <c r="D171" s="24"/>
+      <c r="E171" s="25"/>
     </row>
     <row r="172" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="173" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2817,96 +2876,96 @@
       <c r="C174" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D174" s="28" t="s">
+      <c r="D174" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E174" s="29"/>
+      <c r="E174" s="27"/>
     </row>
     <row r="175" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B175" s="11"/>
       <c r="C175" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D175" s="30" t="s">
+      <c r="D175" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="E175" s="31"/>
+      <c r="E175" s="29"/>
     </row>
     <row r="176" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B176" s="11"/>
       <c r="C176" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D176" s="17" t="s">
+      <c r="D176" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E176" s="18"/>
+      <c r="E176" s="15"/>
     </row>
     <row r="177" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B177" s="11"/>
       <c r="C177" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D177" s="35" t="s">
+      <c r="D177" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="E177" s="36"/>
+      <c r="E177" s="31"/>
     </row>
     <row r="178" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B178" s="11"/>
       <c r="C178" s="5"/>
-      <c r="D178" s="17"/>
-      <c r="E178" s="18"/>
+      <c r="D178" s="14"/>
+      <c r="E178" s="15"/>
     </row>
     <row r="179" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B179" s="11"/>
       <c r="C179" s="5"/>
-      <c r="D179" s="17"/>
-      <c r="E179" s="18"/>
+      <c r="D179" s="14"/>
+      <c r="E179" s="15"/>
     </row>
     <row r="180" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B180" s="11"/>
       <c r="C180" s="5"/>
-      <c r="D180" s="17"/>
-      <c r="E180" s="18"/>
+      <c r="D180" s="14"/>
+      <c r="E180" s="15"/>
     </row>
     <row r="181" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B181" s="11"/>
       <c r="C181" s="5"/>
-      <c r="D181" s="17"/>
-      <c r="E181" s="18"/>
+      <c r="D181" s="14"/>
+      <c r="E181" s="15"/>
     </row>
     <row r="182" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B182" s="11"/>
       <c r="C182" s="5"/>
-      <c r="D182" s="17"/>
-      <c r="E182" s="18"/>
+      <c r="D182" s="14"/>
+      <c r="E182" s="15"/>
     </row>
     <row r="183" spans="2:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B183" s="12"/>
       <c r="C183" s="5"/>
-      <c r="D183" s="17"/>
-      <c r="E183" s="18"/>
+      <c r="D183" s="14"/>
+      <c r="E183" s="15"/>
     </row>
     <row r="184" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B184" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C184" s="34"/>
-      <c r="D184" s="17"/>
-      <c r="E184" s="18"/>
+      <c r="C184" s="13"/>
+      <c r="D184" s="14"/>
+      <c r="E184" s="15"/>
     </row>
     <row r="185" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B185" s="11"/>
-      <c r="C185" s="34"/>
-      <c r="D185" s="17"/>
-      <c r="E185" s="18"/>
+      <c r="C185" s="13"/>
+      <c r="D185" s="14"/>
+      <c r="E185" s="15"/>
     </row>
     <row r="186" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B186" s="12"/>
-      <c r="C186" s="34"/>
-      <c r="D186" s="17"/>
-      <c r="E186" s="18"/>
+      <c r="C186" s="13"/>
+      <c r="D186" s="14"/>
+      <c r="E186" s="15"/>
     </row>
     <row r="187" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B187" s="10" t="s">
@@ -2915,29 +2974,29 @@
       <c r="C187" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="D187" s="17"/>
-      <c r="E187" s="18"/>
+      <c r="D187" s="14"/>
+      <c r="E187" s="15"/>
     </row>
     <row r="188" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B188" s="12"/>
-      <c r="C188" s="19"/>
-      <c r="D188" s="20"/>
-      <c r="E188" s="21"/>
+      <c r="C188" s="17"/>
+      <c r="D188" s="18"/>
+      <c r="E188" s="19"/>
     </row>
     <row r="190" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="191" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B191" s="22" t="s">
+      <c r="B191" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C191" s="23"/>
-      <c r="D191" s="23"/>
-      <c r="E191" s="24"/>
+      <c r="C191" s="21"/>
+      <c r="D191" s="21"/>
+      <c r="E191" s="22"/>
     </row>
     <row r="192" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B192" s="25"/>
-      <c r="C192" s="26"/>
-      <c r="D192" s="26"/>
-      <c r="E192" s="27"/>
+      <c r="B192" s="23"/>
+      <c r="C192" s="24"/>
+      <c r="D192" s="24"/>
+      <c r="E192" s="25"/>
     </row>
     <row r="193" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="194" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2961,125 +3020,125 @@
       <c r="C195" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D195" s="28" t="s">
+      <c r="D195" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E195" s="29"/>
+      <c r="E195" s="27"/>
     </row>
     <row r="196" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B196" s="11"/>
       <c r="C196" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D196" s="30" t="s">
+      <c r="D196" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="E196" s="31"/>
+      <c r="E196" s="29"/>
     </row>
     <row r="197" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B197" s="11"/>
       <c r="C197" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D197" s="17" t="s">
+      <c r="D197" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E197" s="18"/>
+      <c r="E197" s="15"/>
     </row>
     <row r="198" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B198" s="11"/>
       <c r="C198" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D198" s="35" t="s">
+      <c r="D198" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="E198" s="36"/>
+      <c r="E198" s="31"/>
     </row>
     <row r="199" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B199" s="11"/>
       <c r="C199" s="5"/>
-      <c r="D199" s="17"/>
-      <c r="E199" s="18"/>
+      <c r="D199" s="14"/>
+      <c r="E199" s="15"/>
     </row>
     <row r="200" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B200" s="11"/>
       <c r="C200" s="5"/>
-      <c r="D200" s="17"/>
-      <c r="E200" s="18"/>
+      <c r="D200" s="14"/>
+      <c r="E200" s="15"/>
     </row>
     <row r="201" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B201" s="11"/>
       <c r="C201" s="5"/>
-      <c r="D201" s="17"/>
-      <c r="E201" s="18"/>
+      <c r="D201" s="14"/>
+      <c r="E201" s="15"/>
     </row>
     <row r="202" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B202" s="11"/>
       <c r="C202" s="5"/>
-      <c r="D202" s="17"/>
-      <c r="E202" s="18"/>
+      <c r="D202" s="14"/>
+      <c r="E202" s="15"/>
     </row>
     <row r="203" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B203" s="11"/>
       <c r="C203" s="5"/>
-      <c r="D203" s="17"/>
-      <c r="E203" s="18"/>
+      <c r="D203" s="14"/>
+      <c r="E203" s="15"/>
     </row>
     <row r="204" spans="2:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B204" s="12"/>
       <c r="C204" s="5"/>
-      <c r="D204" s="17"/>
-      <c r="E204" s="18"/>
+      <c r="D204" s="14"/>
+      <c r="E204" s="15"/>
     </row>
     <row r="205" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B205" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C205" s="34"/>
-      <c r="D205" s="17"/>
-      <c r="E205" s="18"/>
+      <c r="C205" s="13"/>
+      <c r="D205" s="14"/>
+      <c r="E205" s="15"/>
     </row>
     <row r="206" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B206" s="11"/>
-      <c r="C206" s="34"/>
-      <c r="D206" s="17"/>
-      <c r="E206" s="18"/>
+      <c r="C206" s="13"/>
+      <c r="D206" s="14"/>
+      <c r="E206" s="15"/>
     </row>
     <row r="207" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B207" s="12"/>
-      <c r="C207" s="34"/>
-      <c r="D207" s="17"/>
-      <c r="E207" s="18"/>
+      <c r="C207" s="13"/>
+      <c r="D207" s="14"/>
+      <c r="E207" s="15"/>
     </row>
     <row r="208" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B208" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C208" s="16"/>
-      <c r="D208" s="17"/>
-      <c r="E208" s="18"/>
+      <c r="D208" s="14"/>
+      <c r="E208" s="15"/>
     </row>
     <row r="209" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B209" s="12"/>
-      <c r="C209" s="19"/>
-      <c r="D209" s="20"/>
-      <c r="E209" s="21"/>
+      <c r="C209" s="17"/>
+      <c r="D209" s="18"/>
+      <c r="E209" s="19"/>
     </row>
     <row r="211" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="212" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B212" s="22" t="s">
+      <c r="B212" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C212" s="23"/>
-      <c r="D212" s="23"/>
-      <c r="E212" s="24"/>
+      <c r="C212" s="21"/>
+      <c r="D212" s="21"/>
+      <c r="E212" s="22"/>
     </row>
     <row r="213" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B213" s="25"/>
-      <c r="C213" s="26"/>
-      <c r="D213" s="26"/>
-      <c r="E213" s="27"/>
+      <c r="B213" s="23"/>
+      <c r="C213" s="24"/>
+      <c r="D213" s="24"/>
+      <c r="E213" s="25"/>
     </row>
     <row r="214" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="215" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -3103,96 +3162,96 @@
       <c r="C216" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D216" s="28" t="s">
+      <c r="D216" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E216" s="29"/>
+      <c r="E216" s="27"/>
     </row>
     <row r="217" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B217" s="11"/>
       <c r="C217" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D217" s="30" t="s">
+      <c r="D217" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="E217" s="31"/>
+      <c r="E217" s="29"/>
     </row>
     <row r="218" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B218" s="11"/>
       <c r="C218" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D218" s="17" t="s">
+      <c r="D218" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E218" s="18"/>
+      <c r="E218" s="15"/>
     </row>
     <row r="219" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B219" s="11"/>
       <c r="C219" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D219" s="35" t="s">
+      <c r="D219" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="E219" s="36"/>
+      <c r="E219" s="31"/>
     </row>
     <row r="220" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B220" s="11"/>
       <c r="C220" s="5"/>
-      <c r="D220" s="17"/>
-      <c r="E220" s="18"/>
+      <c r="D220" s="14"/>
+      <c r="E220" s="15"/>
     </row>
     <row r="221" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B221" s="11"/>
       <c r="C221" s="5"/>
-      <c r="D221" s="17"/>
-      <c r="E221" s="18"/>
+      <c r="D221" s="14"/>
+      <c r="E221" s="15"/>
     </row>
     <row r="222" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B222" s="11"/>
       <c r="C222" s="5"/>
-      <c r="D222" s="17"/>
-      <c r="E222" s="18"/>
+      <c r="D222" s="14"/>
+      <c r="E222" s="15"/>
     </row>
     <row r="223" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B223" s="11"/>
       <c r="C223" s="5"/>
-      <c r="D223" s="17"/>
-      <c r="E223" s="18"/>
+      <c r="D223" s="14"/>
+      <c r="E223" s="15"/>
     </row>
     <row r="224" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B224" s="11"/>
       <c r="C224" s="5"/>
-      <c r="D224" s="17"/>
-      <c r="E224" s="18"/>
+      <c r="D224" s="14"/>
+      <c r="E224" s="15"/>
     </row>
     <row r="225" spans="2:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B225" s="12"/>
       <c r="C225" s="5"/>
-      <c r="D225" s="17"/>
-      <c r="E225" s="18"/>
+      <c r="D225" s="14"/>
+      <c r="E225" s="15"/>
     </row>
     <row r="226" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B226" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C226" s="34"/>
-      <c r="D226" s="17"/>
-      <c r="E226" s="18"/>
+      <c r="C226" s="13"/>
+      <c r="D226" s="14"/>
+      <c r="E226" s="15"/>
     </row>
     <row r="227" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B227" s="11"/>
-      <c r="C227" s="34"/>
-      <c r="D227" s="17"/>
-      <c r="E227" s="18"/>
+      <c r="C227" s="13"/>
+      <c r="D227" s="14"/>
+      <c r="E227" s="15"/>
     </row>
     <row r="228" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B228" s="12"/>
-      <c r="C228" s="34"/>
-      <c r="D228" s="17"/>
-      <c r="E228" s="18"/>
+      <c r="C228" s="13"/>
+      <c r="D228" s="14"/>
+      <c r="E228" s="15"/>
     </row>
     <row r="229" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B229" s="10" t="s">
@@ -3201,29 +3260,29 @@
       <c r="C229" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="D229" s="17"/>
-      <c r="E229" s="18"/>
+      <c r="D229" s="14"/>
+      <c r="E229" s="15"/>
     </row>
     <row r="230" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B230" s="12"/>
-      <c r="C230" s="19"/>
-      <c r="D230" s="20"/>
-      <c r="E230" s="21"/>
+      <c r="C230" s="17"/>
+      <c r="D230" s="18"/>
+      <c r="E230" s="19"/>
     </row>
     <row r="232" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="233" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B233" s="22" t="s">
+      <c r="B233" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C233" s="23"/>
-      <c r="D233" s="23"/>
-      <c r="E233" s="24"/>
+      <c r="C233" s="21"/>
+      <c r="D233" s="21"/>
+      <c r="E233" s="22"/>
     </row>
     <row r="234" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B234" s="25"/>
-      <c r="C234" s="26"/>
-      <c r="D234" s="26"/>
-      <c r="E234" s="27"/>
+      <c r="B234" s="23"/>
+      <c r="C234" s="24"/>
+      <c r="D234" s="24"/>
+      <c r="E234" s="25"/>
     </row>
     <row r="235" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="236" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -3237,7 +3296,7 @@
         <v>2</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
     </row>
     <row r="237" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -3247,15 +3306,15 @@
       <c r="C237" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D237" s="28" t="s">
+      <c r="D237" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E237" s="29"/>
+      <c r="E237" s="27"/>
     </row>
     <row r="238" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B238" s="11"/>
-      <c r="C238" s="4" t="s">
-        <v>24</v>
+      <c r="C238" s="9" t="s">
+        <v>27</v>
       </c>
       <c r="D238" s="30" t="s">
         <v>60</v>
@@ -3264,108 +3323,100 @@
     </row>
     <row r="239" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B239" s="11"/>
-      <c r="C239" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D239" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E239" s="18"/>
+      <c r="C239" s="5"/>
+      <c r="D239" s="14"/>
+      <c r="E239" s="15"/>
     </row>
     <row r="240" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B240" s="11"/>
-      <c r="C240" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D240" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="E240" s="36"/>
+      <c r="B240" s="46"/>
+      <c r="C240" s="48"/>
+      <c r="D240" s="47"/>
+      <c r="E240" s="49"/>
     </row>
     <row r="241" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B241" s="11"/>
       <c r="C241" s="5"/>
-      <c r="D241" s="17"/>
-      <c r="E241" s="18"/>
+      <c r="D241" s="14"/>
+      <c r="E241" s="15"/>
     </row>
     <row r="242" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B242" s="11"/>
       <c r="C242" s="5"/>
-      <c r="D242" s="17"/>
-      <c r="E242" s="18"/>
+      <c r="D242" s="14"/>
+      <c r="E242" s="15"/>
     </row>
     <row r="243" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B243" s="11"/>
       <c r="C243" s="5"/>
-      <c r="D243" s="17"/>
-      <c r="E243" s="18"/>
+      <c r="D243" s="14"/>
+      <c r="E243" s="15"/>
     </row>
     <row r="244" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B244" s="11"/>
       <c r="C244" s="5"/>
-      <c r="D244" s="17"/>
-      <c r="E244" s="18"/>
+      <c r="D244" s="14"/>
+      <c r="E244" s="15"/>
     </row>
     <row r="245" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B245" s="11"/>
       <c r="C245" s="5"/>
-      <c r="D245" s="17"/>
-      <c r="E245" s="18"/>
+      <c r="D245" s="14"/>
+      <c r="E245" s="15"/>
     </row>
     <row r="246" spans="2:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B246" s="12"/>
       <c r="C246" s="5"/>
-      <c r="D246" s="17"/>
-      <c r="E246" s="18"/>
+      <c r="D246" s="14"/>
+      <c r="E246" s="15"/>
     </row>
     <row r="247" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B247" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C247" s="34"/>
-      <c r="D247" s="17"/>
-      <c r="E247" s="18"/>
+      <c r="C247" s="13"/>
+      <c r="D247" s="14"/>
+      <c r="E247" s="15"/>
     </row>
     <row r="248" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B248" s="11"/>
-      <c r="C248" s="34"/>
-      <c r="D248" s="17"/>
-      <c r="E248" s="18"/>
+      <c r="C248" s="13"/>
+      <c r="D248" s="14"/>
+      <c r="E248" s="15"/>
     </row>
     <row r="249" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B249" s="12"/>
-      <c r="C249" s="34"/>
-      <c r="D249" s="17"/>
-      <c r="E249" s="18"/>
+      <c r="C249" s="13"/>
+      <c r="D249" s="14"/>
+      <c r="E249" s="15"/>
     </row>
     <row r="250" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B250" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C250" s="16"/>
-      <c r="D250" s="17"/>
-      <c r="E250" s="18"/>
+      <c r="D250" s="14"/>
+      <c r="E250" s="15"/>
     </row>
     <row r="251" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B251" s="12"/>
-      <c r="C251" s="19"/>
-      <c r="D251" s="20"/>
-      <c r="E251" s="21"/>
+      <c r="C251" s="17"/>
+      <c r="D251" s="18"/>
+      <c r="E251" s="19"/>
     </row>
     <row r="253" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="254" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B254" s="22" t="s">
+      <c r="B254" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C254" s="23"/>
-      <c r="D254" s="23"/>
-      <c r="E254" s="24"/>
+      <c r="C254" s="21"/>
+      <c r="D254" s="21"/>
+      <c r="E254" s="22"/>
     </row>
     <row r="255" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B255" s="25"/>
-      <c r="C255" s="26"/>
-      <c r="D255" s="26"/>
-      <c r="E255" s="27"/>
+      <c r="B255" s="23"/>
+      <c r="C255" s="24"/>
+      <c r="D255" s="24"/>
+      <c r="E255" s="25"/>
     </row>
     <row r="256" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="257" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -3379,7 +3430,7 @@
         <v>2</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="258" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -3389,125 +3440,127 @@
       <c r="C258" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D258" s="28" t="s">
+      <c r="D258" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E258" s="29"/>
+      <c r="E258" s="27"/>
     </row>
     <row r="259" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B259" s="11"/>
       <c r="C259" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D259" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="E259" s="31"/>
+      <c r="D259" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="E259" s="29"/>
     </row>
     <row r="260" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B260" s="11"/>
       <c r="C260" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D260" s="17" t="s">
+      <c r="D260" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E260" s="18"/>
+      <c r="E260" s="15"/>
     </row>
     <row r="261" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B261" s="11"/>
       <c r="C261" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D261" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="E261" s="36"/>
+      <c r="D261" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="E261" s="31"/>
     </row>
     <row r="262" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B262" s="11"/>
       <c r="C262" s="5"/>
-      <c r="D262" s="17"/>
-      <c r="E262" s="18"/>
+      <c r="D262" s="14"/>
+      <c r="E262" s="15"/>
     </row>
     <row r="263" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B263" s="11"/>
       <c r="C263" s="5"/>
-      <c r="D263" s="17"/>
-      <c r="E263" s="18"/>
+      <c r="D263" s="14"/>
+      <c r="E263" s="15"/>
     </row>
     <row r="264" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B264" s="11"/>
       <c r="C264" s="5"/>
-      <c r="D264" s="17"/>
-      <c r="E264" s="18"/>
+      <c r="D264" s="14"/>
+      <c r="E264" s="15"/>
     </row>
     <row r="265" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B265" s="11"/>
       <c r="C265" s="5"/>
-      <c r="D265" s="17"/>
-      <c r="E265" s="18"/>
+      <c r="D265" s="14"/>
+      <c r="E265" s="15"/>
     </row>
     <row r="266" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B266" s="11"/>
       <c r="C266" s="5"/>
-      <c r="D266" s="17"/>
-      <c r="E266" s="18"/>
+      <c r="D266" s="14"/>
+      <c r="E266" s="15"/>
     </row>
     <row r="267" spans="2:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B267" s="12"/>
       <c r="C267" s="5"/>
-      <c r="D267" s="17"/>
-      <c r="E267" s="18"/>
+      <c r="D267" s="14"/>
+      <c r="E267" s="15"/>
     </row>
     <row r="268" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B268" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C268" s="34"/>
-      <c r="D268" s="17"/>
-      <c r="E268" s="18"/>
+      <c r="C268" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="D268" s="44"/>
+      <c r="E268" s="45"/>
     </row>
     <row r="269" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B269" s="11"/>
-      <c r="C269" s="34"/>
-      <c r="D269" s="17"/>
-      <c r="E269" s="18"/>
+      <c r="C269" s="43"/>
+      <c r="D269" s="44"/>
+      <c r="E269" s="45"/>
     </row>
     <row r="270" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B270" s="12"/>
-      <c r="C270" s="34"/>
-      <c r="D270" s="17"/>
-      <c r="E270" s="18"/>
+      <c r="C270" s="43"/>
+      <c r="D270" s="44"/>
+      <c r="E270" s="45"/>
     </row>
     <row r="271" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B271" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C271" s="16"/>
-      <c r="D271" s="17"/>
-      <c r="E271" s="18"/>
+      <c r="D271" s="14"/>
+      <c r="E271" s="15"/>
     </row>
     <row r="272" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B272" s="12"/>
-      <c r="C272" s="19"/>
-      <c r="D272" s="20"/>
-      <c r="E272" s="21"/>
+      <c r="C272" s="17"/>
+      <c r="D272" s="18"/>
+      <c r="E272" s="19"/>
     </row>
     <row r="274" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="275" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B275" s="22" t="s">
+      <c r="B275" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C275" s="23"/>
-      <c r="D275" s="23"/>
-      <c r="E275" s="24"/>
+      <c r="C275" s="21"/>
+      <c r="D275" s="21"/>
+      <c r="E275" s="22"/>
     </row>
     <row r="276" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B276" s="25"/>
-      <c r="C276" s="26"/>
-      <c r="D276" s="26"/>
-      <c r="E276" s="27"/>
+      <c r="B276" s="23"/>
+      <c r="C276" s="24"/>
+      <c r="D276" s="24"/>
+      <c r="E276" s="25"/>
     </row>
     <row r="277" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="278" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -3521,7 +3574,7 @@
         <v>2</v>
       </c>
       <c r="E278" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="279" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -3531,125 +3584,125 @@
       <c r="C279" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D279" s="28" t="s">
+      <c r="D279" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E279" s="29"/>
+      <c r="E279" s="27"/>
     </row>
     <row r="280" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B280" s="11"/>
       <c r="C280" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D280" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="E280" s="31"/>
+      <c r="D280" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="E280" s="29"/>
     </row>
     <row r="281" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B281" s="11"/>
       <c r="C281" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D281" s="17" t="s">
+      <c r="D281" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E281" s="18"/>
+      <c r="E281" s="15"/>
     </row>
     <row r="282" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B282" s="11"/>
       <c r="C282" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D282" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="E282" s="36"/>
+      <c r="D282" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="E282" s="31"/>
     </row>
     <row r="283" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B283" s="11"/>
       <c r="C283" s="5"/>
-      <c r="D283" s="17"/>
-      <c r="E283" s="18"/>
+      <c r="D283" s="14"/>
+      <c r="E283" s="15"/>
     </row>
     <row r="284" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B284" s="11"/>
       <c r="C284" s="5"/>
-      <c r="D284" s="17"/>
-      <c r="E284" s="18"/>
+      <c r="D284" s="14"/>
+      <c r="E284" s="15"/>
     </row>
     <row r="285" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B285" s="11"/>
       <c r="C285" s="5"/>
-      <c r="D285" s="17"/>
-      <c r="E285" s="18"/>
+      <c r="D285" s="14"/>
+      <c r="E285" s="15"/>
     </row>
     <row r="286" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B286" s="11"/>
       <c r="C286" s="5"/>
-      <c r="D286" s="17"/>
-      <c r="E286" s="18"/>
+      <c r="D286" s="14"/>
+      <c r="E286" s="15"/>
     </row>
     <row r="287" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B287" s="11"/>
       <c r="C287" s="5"/>
-      <c r="D287" s="17"/>
-      <c r="E287" s="18"/>
+      <c r="D287" s="14"/>
+      <c r="E287" s="15"/>
     </row>
     <row r="288" spans="2:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B288" s="12"/>
       <c r="C288" s="5"/>
-      <c r="D288" s="17"/>
-      <c r="E288" s="18"/>
+      <c r="D288" s="14"/>
+      <c r="E288" s="15"/>
     </row>
     <row r="289" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B289" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C289" s="34"/>
-      <c r="D289" s="17"/>
-      <c r="E289" s="18"/>
+      <c r="C289" s="13"/>
+      <c r="D289" s="14"/>
+      <c r="E289" s="15"/>
     </row>
     <row r="290" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B290" s="11"/>
-      <c r="C290" s="34"/>
-      <c r="D290" s="17"/>
-      <c r="E290" s="18"/>
+      <c r="C290" s="13"/>
+      <c r="D290" s="14"/>
+      <c r="E290" s="15"/>
     </row>
     <row r="291" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B291" s="12"/>
-      <c r="C291" s="34"/>
-      <c r="D291" s="17"/>
-      <c r="E291" s="18"/>
+      <c r="C291" s="13"/>
+      <c r="D291" s="14"/>
+      <c r="E291" s="15"/>
     </row>
     <row r="292" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B292" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C292" s="16"/>
-      <c r="D292" s="17"/>
-      <c r="E292" s="18"/>
+      <c r="D292" s="14"/>
+      <c r="E292" s="15"/>
     </row>
     <row r="293" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B293" s="12"/>
-      <c r="C293" s="19"/>
-      <c r="D293" s="20"/>
-      <c r="E293" s="21"/>
+      <c r="C293" s="17"/>
+      <c r="D293" s="18"/>
+      <c r="E293" s="19"/>
     </row>
     <row r="295" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="296" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B296" s="22" t="s">
+      <c r="B296" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C296" s="23"/>
-      <c r="D296" s="23"/>
-      <c r="E296" s="24"/>
+      <c r="C296" s="21"/>
+      <c r="D296" s="21"/>
+      <c r="E296" s="22"/>
     </row>
     <row r="297" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B297" s="25"/>
-      <c r="C297" s="26"/>
-      <c r="D297" s="26"/>
-      <c r="E297" s="27"/>
+      <c r="B297" s="23"/>
+      <c r="C297" s="24"/>
+      <c r="D297" s="24"/>
+      <c r="E297" s="25"/>
     </row>
     <row r="298" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="299" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -3663,7 +3716,7 @@
         <v>2</v>
       </c>
       <c r="E299" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="300" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -3673,125 +3726,125 @@
       <c r="C300" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D300" s="28" t="s">
+      <c r="D300" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E300" s="29"/>
+      <c r="E300" s="27"/>
     </row>
     <row r="301" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B301" s="11"/>
       <c r="C301" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D301" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="E301" s="31"/>
+      <c r="D301" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="E301" s="29"/>
     </row>
     <row r="302" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B302" s="11"/>
       <c r="C302" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D302" s="17" t="s">
+      <c r="D302" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E302" s="18"/>
+      <c r="E302" s="15"/>
     </row>
     <row r="303" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B303" s="11"/>
       <c r="C303" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D303" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="E303" s="33"/>
+      <c r="D303" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="E303" s="42"/>
     </row>
     <row r="304" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B304" s="11"/>
       <c r="C304" s="5"/>
-      <c r="D304" s="17"/>
-      <c r="E304" s="18"/>
+      <c r="D304" s="14"/>
+      <c r="E304" s="15"/>
     </row>
     <row r="305" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B305" s="11"/>
       <c r="C305" s="5"/>
-      <c r="D305" s="17"/>
-      <c r="E305" s="18"/>
+      <c r="D305" s="14"/>
+      <c r="E305" s="15"/>
     </row>
     <row r="306" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B306" s="11"/>
       <c r="C306" s="5"/>
-      <c r="D306" s="17"/>
-      <c r="E306" s="18"/>
+      <c r="D306" s="14"/>
+      <c r="E306" s="15"/>
     </row>
     <row r="307" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B307" s="11"/>
       <c r="C307" s="5"/>
-      <c r="D307" s="17"/>
-      <c r="E307" s="18"/>
+      <c r="D307" s="14"/>
+      <c r="E307" s="15"/>
     </row>
     <row r="308" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B308" s="11"/>
       <c r="C308" s="5"/>
-      <c r="D308" s="17"/>
-      <c r="E308" s="18"/>
+      <c r="D308" s="14"/>
+      <c r="E308" s="15"/>
     </row>
     <row r="309" spans="2:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B309" s="12"/>
       <c r="C309" s="5"/>
-      <c r="D309" s="17"/>
-      <c r="E309" s="18"/>
+      <c r="D309" s="14"/>
+      <c r="E309" s="15"/>
     </row>
     <row r="310" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B310" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C310" s="34"/>
-      <c r="D310" s="17"/>
-      <c r="E310" s="18"/>
+      <c r="C310" s="13"/>
+      <c r="D310" s="14"/>
+      <c r="E310" s="15"/>
     </row>
     <row r="311" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B311" s="11"/>
-      <c r="C311" s="34"/>
-      <c r="D311" s="17"/>
-      <c r="E311" s="18"/>
+      <c r="C311" s="13"/>
+      <c r="D311" s="14"/>
+      <c r="E311" s="15"/>
     </row>
     <row r="312" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B312" s="12"/>
-      <c r="C312" s="34"/>
-      <c r="D312" s="17"/>
-      <c r="E312" s="18"/>
+      <c r="C312" s="13"/>
+      <c r="D312" s="14"/>
+      <c r="E312" s="15"/>
     </row>
     <row r="313" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B313" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C313" s="16"/>
-      <c r="D313" s="17"/>
-      <c r="E313" s="18"/>
+      <c r="D313" s="14"/>
+      <c r="E313" s="15"/>
     </row>
     <row r="314" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B314" s="12"/>
-      <c r="C314" s="19"/>
-      <c r="D314" s="20"/>
-      <c r="E314" s="21"/>
+      <c r="C314" s="17"/>
+      <c r="D314" s="18"/>
+      <c r="E314" s="19"/>
     </row>
     <row r="316" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="317" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B317" s="22" t="s">
+      <c r="B317" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C317" s="23"/>
-      <c r="D317" s="23"/>
-      <c r="E317" s="24"/>
+      <c r="C317" s="21"/>
+      <c r="D317" s="21"/>
+      <c r="E317" s="22"/>
     </row>
     <row r="318" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B318" s="25"/>
-      <c r="C318" s="26"/>
-      <c r="D318" s="26"/>
-      <c r="E318" s="27"/>
+      <c r="B318" s="23"/>
+      <c r="C318" s="24"/>
+      <c r="D318" s="24"/>
+      <c r="E318" s="25"/>
     </row>
     <row r="319" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="320" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -3805,7 +3858,7 @@
         <v>2</v>
       </c>
       <c r="E320" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="321" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -3815,127 +3868,127 @@
       <c r="C321" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D321" s="28" t="s">
+      <c r="D321" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E321" s="29"/>
+      <c r="E321" s="27"/>
     </row>
     <row r="322" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B322" s="11"/>
       <c r="C322" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D322" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="E322" s="31"/>
+      <c r="D322" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="E322" s="29"/>
     </row>
     <row r="323" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B323" s="11"/>
       <c r="C323" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D323" s="17" t="s">
+      <c r="D323" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E323" s="18"/>
+      <c r="E323" s="15"/>
     </row>
     <row r="324" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B324" s="11"/>
       <c r="C324" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D324" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="E324" s="33"/>
+      <c r="D324" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="E324" s="42"/>
     </row>
     <row r="325" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B325" s="11"/>
       <c r="C325" s="5"/>
-      <c r="D325" s="17"/>
-      <c r="E325" s="18"/>
+      <c r="D325" s="14"/>
+      <c r="E325" s="15"/>
     </row>
     <row r="326" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B326" s="11"/>
       <c r="C326" s="5"/>
-      <c r="D326" s="17"/>
-      <c r="E326" s="18"/>
+      <c r="D326" s="14"/>
+      <c r="E326" s="15"/>
     </row>
     <row r="327" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B327" s="11"/>
       <c r="C327" s="5"/>
-      <c r="D327" s="17"/>
-      <c r="E327" s="18"/>
+      <c r="D327" s="14"/>
+      <c r="E327" s="15"/>
     </row>
     <row r="328" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B328" s="11"/>
       <c r="C328" s="5"/>
-      <c r="D328" s="17"/>
-      <c r="E328" s="18"/>
+      <c r="D328" s="14"/>
+      <c r="E328" s="15"/>
     </row>
     <row r="329" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B329" s="11"/>
       <c r="C329" s="5"/>
-      <c r="D329" s="17"/>
-      <c r="E329" s="18"/>
+      <c r="D329" s="14"/>
+      <c r="E329" s="15"/>
     </row>
     <row r="330" spans="2:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B330" s="12"/>
       <c r="C330" s="5"/>
-      <c r="D330" s="17"/>
-      <c r="E330" s="18"/>
+      <c r="D330" s="14"/>
+      <c r="E330" s="15"/>
     </row>
     <row r="331" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B331" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C331" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="D331" s="14"/>
-      <c r="E331" s="15"/>
+      <c r="C331" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="D331" s="44"/>
+      <c r="E331" s="45"/>
     </row>
     <row r="332" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B332" s="11"/>
-      <c r="C332" s="13"/>
-      <c r="D332" s="14"/>
-      <c r="E332" s="15"/>
+      <c r="C332" s="43"/>
+      <c r="D332" s="44"/>
+      <c r="E332" s="45"/>
     </row>
     <row r="333" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B333" s="12"/>
-      <c r="C333" s="13"/>
-      <c r="D333" s="14"/>
-      <c r="E333" s="15"/>
+      <c r="C333" s="43"/>
+      <c r="D333" s="44"/>
+      <c r="E333" s="45"/>
     </row>
     <row r="334" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B334" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C334" s="16"/>
-      <c r="D334" s="17"/>
-      <c r="E334" s="18"/>
+      <c r="D334" s="14"/>
+      <c r="E334" s="15"/>
     </row>
     <row r="335" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B335" s="12"/>
-      <c r="C335" s="19"/>
-      <c r="D335" s="20"/>
-      <c r="E335" s="21"/>
+      <c r="C335" s="17"/>
+      <c r="D335" s="18"/>
+      <c r="E335" s="19"/>
     </row>
     <row r="337" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="338" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B338" s="22" t="s">
+      <c r="B338" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C338" s="23"/>
-      <c r="D338" s="23"/>
-      <c r="E338" s="24"/>
+      <c r="C338" s="21"/>
+      <c r="D338" s="21"/>
+      <c r="E338" s="22"/>
     </row>
     <row r="339" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B339" s="25"/>
-      <c r="C339" s="26"/>
-      <c r="D339" s="26"/>
-      <c r="E339" s="27"/>
+      <c r="B339" s="23"/>
+      <c r="C339" s="24"/>
+      <c r="D339" s="24"/>
+      <c r="E339" s="25"/>
     </row>
     <row r="340" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="341" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -3949,7 +4002,7 @@
         <v>2</v>
       </c>
       <c r="E341" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="342" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -3959,125 +4012,125 @@
       <c r="C342" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D342" s="28" t="s">
+      <c r="D342" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E342" s="29"/>
+      <c r="E342" s="27"/>
     </row>
     <row r="343" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B343" s="11"/>
       <c r="C343" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D343" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="E343" s="31"/>
+      <c r="D343" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="E343" s="29"/>
     </row>
     <row r="344" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B344" s="11"/>
       <c r="C344" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D344" s="17" t="s">
+      <c r="D344" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E344" s="18"/>
+      <c r="E344" s="15"/>
     </row>
     <row r="345" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B345" s="11"/>
       <c r="C345" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D345" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="E345" s="33"/>
+      <c r="D345" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="E345" s="42"/>
     </row>
     <row r="346" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B346" s="11"/>
       <c r="C346" s="5"/>
-      <c r="D346" s="17"/>
-      <c r="E346" s="18"/>
+      <c r="D346" s="14"/>
+      <c r="E346" s="15"/>
     </row>
     <row r="347" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B347" s="11"/>
       <c r="C347" s="5"/>
-      <c r="D347" s="17"/>
-      <c r="E347" s="18"/>
+      <c r="D347" s="14"/>
+      <c r="E347" s="15"/>
     </row>
     <row r="348" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B348" s="11"/>
       <c r="C348" s="5"/>
-      <c r="D348" s="17"/>
-      <c r="E348" s="18"/>
+      <c r="D348" s="14"/>
+      <c r="E348" s="15"/>
     </row>
     <row r="349" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B349" s="11"/>
       <c r="C349" s="5"/>
-      <c r="D349" s="17"/>
-      <c r="E349" s="18"/>
+      <c r="D349" s="14"/>
+      <c r="E349" s="15"/>
     </row>
     <row r="350" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B350" s="11"/>
       <c r="C350" s="5"/>
-      <c r="D350" s="17"/>
-      <c r="E350" s="18"/>
+      <c r="D350" s="14"/>
+      <c r="E350" s="15"/>
     </row>
     <row r="351" spans="2:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B351" s="12"/>
       <c r="C351" s="5"/>
-      <c r="D351" s="17"/>
-      <c r="E351" s="18"/>
+      <c r="D351" s="14"/>
+      <c r="E351" s="15"/>
     </row>
     <row r="352" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B352" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C352" s="13"/>
-      <c r="D352" s="14"/>
-      <c r="E352" s="15"/>
+      <c r="C352" s="43"/>
+      <c r="D352" s="44"/>
+      <c r="E352" s="45"/>
     </row>
     <row r="353" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B353" s="11"/>
-      <c r="C353" s="13"/>
-      <c r="D353" s="14"/>
-      <c r="E353" s="15"/>
+      <c r="C353" s="43"/>
+      <c r="D353" s="44"/>
+      <c r="E353" s="45"/>
     </row>
     <row r="354" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B354" s="12"/>
-      <c r="C354" s="13"/>
-      <c r="D354" s="14"/>
-      <c r="E354" s="15"/>
+      <c r="C354" s="43"/>
+      <c r="D354" s="44"/>
+      <c r="E354" s="45"/>
     </row>
     <row r="355" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B355" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C355" s="16"/>
-      <c r="D355" s="17"/>
-      <c r="E355" s="18"/>
+      <c r="D355" s="14"/>
+      <c r="E355" s="15"/>
     </row>
     <row r="356" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B356" s="12"/>
-      <c r="C356" s="19"/>
-      <c r="D356" s="20"/>
-      <c r="E356" s="21"/>
+      <c r="C356" s="17"/>
+      <c r="D356" s="18"/>
+      <c r="E356" s="19"/>
     </row>
     <row r="358" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="359" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B359" s="22" t="s">
+      <c r="B359" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C359" s="23"/>
-      <c r="D359" s="23"/>
-      <c r="E359" s="24"/>
+      <c r="C359" s="21"/>
+      <c r="D359" s="21"/>
+      <c r="E359" s="22"/>
     </row>
     <row r="360" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B360" s="25"/>
-      <c r="C360" s="26"/>
-      <c r="D360" s="26"/>
-      <c r="E360" s="27"/>
+      <c r="B360" s="23"/>
+      <c r="C360" s="24"/>
+      <c r="D360" s="24"/>
+      <c r="E360" s="25"/>
     </row>
     <row r="361" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="362" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -4091,7 +4144,7 @@
         <v>2</v>
       </c>
       <c r="E362" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="363" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -4101,225 +4154,266 @@
       <c r="C363" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D363" s="28" t="s">
+      <c r="D363" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E363" s="29"/>
+      <c r="E363" s="27"/>
     </row>
     <row r="364" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B364" s="11"/>
       <c r="C364" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D364" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="E364" s="31"/>
+      <c r="D364" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="E364" s="29"/>
     </row>
     <row r="365" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B365" s="11"/>
       <c r="C365" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D365" s="17" t="s">
+      <c r="D365" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E365" s="18"/>
+      <c r="E365" s="15"/>
     </row>
     <row r="366" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B366" s="11"/>
       <c r="C366" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D366" s="32" t="s">
-        <v>80</v>
-      </c>
-      <c r="E366" s="33"/>
+      <c r="D366" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="E366" s="42"/>
     </row>
     <row r="367" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B367" s="11"/>
       <c r="C367" s="5"/>
-      <c r="D367" s="17"/>
-      <c r="E367" s="18"/>
+      <c r="D367" s="14"/>
+      <c r="E367" s="15"/>
     </row>
     <row r="368" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B368" s="11"/>
       <c r="C368" s="5"/>
-      <c r="D368" s="17"/>
-      <c r="E368" s="18"/>
+      <c r="D368" s="14"/>
+      <c r="E368" s="15"/>
     </row>
     <row r="369" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B369" s="11"/>
       <c r="C369" s="5"/>
-      <c r="D369" s="17"/>
-      <c r="E369" s="18"/>
+      <c r="D369" s="14"/>
+      <c r="E369" s="15"/>
     </row>
     <row r="370" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B370" s="11"/>
       <c r="C370" s="5"/>
-      <c r="D370" s="17"/>
-      <c r="E370" s="18"/>
+      <c r="D370" s="14"/>
+      <c r="E370" s="15"/>
     </row>
     <row r="371" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B371" s="11"/>
       <c r="C371" s="5"/>
-      <c r="D371" s="17"/>
-      <c r="E371" s="18"/>
+      <c r="D371" s="14"/>
+      <c r="E371" s="15"/>
     </row>
     <row r="372" spans="2:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B372" s="12"/>
       <c r="C372" s="5"/>
-      <c r="D372" s="17"/>
-      <c r="E372" s="18"/>
+      <c r="D372" s="14"/>
+      <c r="E372" s="15"/>
     </row>
     <row r="373" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B373" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C373" s="13"/>
-      <c r="D373" s="14"/>
-      <c r="E373" s="15"/>
+      <c r="C373" s="43"/>
+      <c r="D373" s="44"/>
+      <c r="E373" s="45"/>
     </row>
     <row r="374" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B374" s="11"/>
-      <c r="C374" s="13"/>
-      <c r="D374" s="14"/>
-      <c r="E374" s="15"/>
+      <c r="C374" s="43"/>
+      <c r="D374" s="44"/>
+      <c r="E374" s="45"/>
     </row>
     <row r="375" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B375" s="12"/>
-      <c r="C375" s="13"/>
-      <c r="D375" s="14"/>
-      <c r="E375" s="15"/>
+      <c r="C375" s="43"/>
+      <c r="D375" s="44"/>
+      <c r="E375" s="45"/>
     </row>
     <row r="376" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B376" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C376" s="16"/>
-      <c r="D376" s="17"/>
-      <c r="E376" s="18"/>
+      <c r="D376" s="14"/>
+      <c r="E376" s="15"/>
     </row>
     <row r="377" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B377" s="12"/>
-      <c r="C377" s="19"/>
-      <c r="D377" s="20"/>
-      <c r="E377" s="21"/>
+      <c r="C377" s="17"/>
+      <c r="D377" s="18"/>
+      <c r="E377" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="290">
-    <mergeCell ref="B268:B270"/>
-    <mergeCell ref="C268:E270"/>
-    <mergeCell ref="B271:B272"/>
-    <mergeCell ref="C271:E272"/>
-    <mergeCell ref="B254:E255"/>
-    <mergeCell ref="B258:B267"/>
-    <mergeCell ref="D258:E258"/>
-    <mergeCell ref="D259:E259"/>
-    <mergeCell ref="D260:E260"/>
-    <mergeCell ref="D261:E261"/>
-    <mergeCell ref="D262:E262"/>
-    <mergeCell ref="D263:E263"/>
-    <mergeCell ref="D264:E264"/>
-    <mergeCell ref="D265:E265"/>
-    <mergeCell ref="D266:E266"/>
-    <mergeCell ref="D267:E267"/>
-    <mergeCell ref="B226:B228"/>
-    <mergeCell ref="C226:E228"/>
-    <mergeCell ref="B229:B230"/>
-    <mergeCell ref="C229:E230"/>
-    <mergeCell ref="B205:B207"/>
-    <mergeCell ref="C205:E207"/>
-    <mergeCell ref="B208:B209"/>
-    <mergeCell ref="C208:E209"/>
-    <mergeCell ref="B212:E213"/>
-    <mergeCell ref="B216:B225"/>
-    <mergeCell ref="D216:E216"/>
-    <mergeCell ref="D217:E217"/>
-    <mergeCell ref="D218:E218"/>
-    <mergeCell ref="D219:E219"/>
-    <mergeCell ref="D220:E220"/>
-    <mergeCell ref="D221:E221"/>
-    <mergeCell ref="D222:E222"/>
-    <mergeCell ref="D223:E223"/>
-    <mergeCell ref="D224:E224"/>
-    <mergeCell ref="D225:E225"/>
-    <mergeCell ref="B191:E192"/>
-    <mergeCell ref="B195:B204"/>
-    <mergeCell ref="D195:E195"/>
-    <mergeCell ref="D196:E196"/>
-    <mergeCell ref="D197:E197"/>
-    <mergeCell ref="D198:E198"/>
-    <mergeCell ref="D199:E199"/>
-    <mergeCell ref="D200:E200"/>
-    <mergeCell ref="D201:E201"/>
-    <mergeCell ref="D202:E202"/>
-    <mergeCell ref="D203:E203"/>
-    <mergeCell ref="D204:E204"/>
-    <mergeCell ref="B163:B165"/>
-    <mergeCell ref="C163:E165"/>
-    <mergeCell ref="B166:B167"/>
-    <mergeCell ref="C166:E167"/>
-    <mergeCell ref="B149:E150"/>
-    <mergeCell ref="B153:B162"/>
-    <mergeCell ref="D153:E153"/>
-    <mergeCell ref="D154:E154"/>
-    <mergeCell ref="D155:E155"/>
-    <mergeCell ref="D156:E156"/>
-    <mergeCell ref="D157:E157"/>
-    <mergeCell ref="D158:E158"/>
-    <mergeCell ref="D159:E159"/>
-    <mergeCell ref="D160:E160"/>
-    <mergeCell ref="D161:E161"/>
-    <mergeCell ref="D162:E162"/>
-    <mergeCell ref="B142:B144"/>
-    <mergeCell ref="C142:E144"/>
-    <mergeCell ref="B145:B146"/>
-    <mergeCell ref="C145:E146"/>
-    <mergeCell ref="B132:B141"/>
-    <mergeCell ref="D132:E132"/>
-    <mergeCell ref="D133:E133"/>
-    <mergeCell ref="D134:E134"/>
-    <mergeCell ref="D135:E135"/>
-    <mergeCell ref="D136:E136"/>
-    <mergeCell ref="D137:E137"/>
-    <mergeCell ref="D138:E138"/>
-    <mergeCell ref="D139:E139"/>
-    <mergeCell ref="D140:E140"/>
-    <mergeCell ref="D141:E141"/>
-    <mergeCell ref="B121:B123"/>
-    <mergeCell ref="C121:E123"/>
-    <mergeCell ref="B124:B125"/>
-    <mergeCell ref="C124:E125"/>
-    <mergeCell ref="B128:E129"/>
-    <mergeCell ref="B107:E108"/>
-    <mergeCell ref="B111:B120"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="D113:E113"/>
-    <mergeCell ref="D114:E114"/>
-    <mergeCell ref="D115:E115"/>
-    <mergeCell ref="D116:E116"/>
-    <mergeCell ref="D117:E117"/>
-    <mergeCell ref="D118:E118"/>
-    <mergeCell ref="D119:E119"/>
-    <mergeCell ref="D120:E120"/>
-    <mergeCell ref="B79:B81"/>
-    <mergeCell ref="C79:E81"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="C82:E83"/>
-    <mergeCell ref="B65:E66"/>
-    <mergeCell ref="B69:B78"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="D78:E78"/>
+  <mergeCells count="289">
+    <mergeCell ref="B373:B375"/>
+    <mergeCell ref="C373:E375"/>
+    <mergeCell ref="B376:B377"/>
+    <mergeCell ref="C376:E377"/>
+    <mergeCell ref="B352:B354"/>
+    <mergeCell ref="C352:E354"/>
+    <mergeCell ref="B355:B356"/>
+    <mergeCell ref="C355:E356"/>
+    <mergeCell ref="B359:E360"/>
+    <mergeCell ref="B363:B372"/>
+    <mergeCell ref="D363:E363"/>
+    <mergeCell ref="D364:E364"/>
+    <mergeCell ref="D365:E365"/>
+    <mergeCell ref="D366:E366"/>
+    <mergeCell ref="D367:E367"/>
+    <mergeCell ref="D368:E368"/>
+    <mergeCell ref="D369:E369"/>
+    <mergeCell ref="D370:E370"/>
+    <mergeCell ref="D371:E371"/>
+    <mergeCell ref="D372:E372"/>
+    <mergeCell ref="B338:E339"/>
+    <mergeCell ref="B342:B351"/>
+    <mergeCell ref="D342:E342"/>
+    <mergeCell ref="D343:E343"/>
+    <mergeCell ref="D344:E344"/>
+    <mergeCell ref="D345:E345"/>
+    <mergeCell ref="D346:E346"/>
+    <mergeCell ref="D347:E347"/>
+    <mergeCell ref="D348:E348"/>
+    <mergeCell ref="D349:E349"/>
+    <mergeCell ref="D350:E350"/>
+    <mergeCell ref="D351:E351"/>
+    <mergeCell ref="B331:B333"/>
+    <mergeCell ref="C331:E333"/>
+    <mergeCell ref="B334:B335"/>
+    <mergeCell ref="C334:E335"/>
+    <mergeCell ref="B310:B312"/>
+    <mergeCell ref="C310:E312"/>
+    <mergeCell ref="B313:B314"/>
+    <mergeCell ref="C313:E314"/>
+    <mergeCell ref="B317:E318"/>
+    <mergeCell ref="B321:B330"/>
+    <mergeCell ref="D321:E321"/>
+    <mergeCell ref="D322:E322"/>
+    <mergeCell ref="D323:E323"/>
+    <mergeCell ref="D324:E324"/>
+    <mergeCell ref="D325:E325"/>
+    <mergeCell ref="D326:E326"/>
+    <mergeCell ref="D327:E327"/>
+    <mergeCell ref="D328:E328"/>
+    <mergeCell ref="D329:E329"/>
+    <mergeCell ref="D330:E330"/>
+    <mergeCell ref="B289:B291"/>
+    <mergeCell ref="C289:E291"/>
+    <mergeCell ref="B292:B293"/>
+    <mergeCell ref="C292:E293"/>
+    <mergeCell ref="B296:E297"/>
+    <mergeCell ref="B300:B309"/>
+    <mergeCell ref="D300:E300"/>
+    <mergeCell ref="D301:E301"/>
+    <mergeCell ref="D302:E302"/>
+    <mergeCell ref="D303:E303"/>
+    <mergeCell ref="D304:E304"/>
+    <mergeCell ref="D305:E305"/>
+    <mergeCell ref="D306:E306"/>
+    <mergeCell ref="D307:E307"/>
+    <mergeCell ref="D308:E308"/>
+    <mergeCell ref="D309:E309"/>
+    <mergeCell ref="B275:E276"/>
+    <mergeCell ref="B279:B288"/>
+    <mergeCell ref="D279:E279"/>
+    <mergeCell ref="D280:E280"/>
+    <mergeCell ref="D281:E281"/>
+    <mergeCell ref="D282:E282"/>
+    <mergeCell ref="D283:E283"/>
+    <mergeCell ref="D284:E284"/>
+    <mergeCell ref="D285:E285"/>
+    <mergeCell ref="D286:E286"/>
+    <mergeCell ref="D287:E287"/>
+    <mergeCell ref="D288:E288"/>
+    <mergeCell ref="B247:B249"/>
+    <mergeCell ref="C247:E249"/>
+    <mergeCell ref="B250:B251"/>
+    <mergeCell ref="C250:E251"/>
+    <mergeCell ref="B233:E234"/>
+    <mergeCell ref="B237:B246"/>
+    <mergeCell ref="D237:E237"/>
+    <mergeCell ref="D239:E239"/>
+    <mergeCell ref="D238:E238"/>
+    <mergeCell ref="D241:E241"/>
+    <mergeCell ref="D242:E242"/>
+    <mergeCell ref="D243:E243"/>
+    <mergeCell ref="D244:E244"/>
+    <mergeCell ref="D245:E245"/>
+    <mergeCell ref="D246:E246"/>
+    <mergeCell ref="B184:B186"/>
+    <mergeCell ref="C184:E186"/>
+    <mergeCell ref="B187:B188"/>
+    <mergeCell ref="C187:E188"/>
+    <mergeCell ref="B170:E171"/>
+    <mergeCell ref="B174:B183"/>
+    <mergeCell ref="D174:E174"/>
+    <mergeCell ref="D175:E175"/>
+    <mergeCell ref="D176:E176"/>
+    <mergeCell ref="D177:E177"/>
+    <mergeCell ref="D178:E178"/>
+    <mergeCell ref="D179:E179"/>
+    <mergeCell ref="D180:E180"/>
+    <mergeCell ref="D181:E181"/>
+    <mergeCell ref="D182:E182"/>
+    <mergeCell ref="D183:E183"/>
+    <mergeCell ref="B100:B102"/>
+    <mergeCell ref="C100:E102"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:E104"/>
+    <mergeCell ref="B86:E87"/>
+    <mergeCell ref="B90:B99"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="D97:E97"/>
+    <mergeCell ref="D98:E98"/>
+    <mergeCell ref="D99:E99"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="C58:E60"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:E62"/>
+    <mergeCell ref="B44:E45"/>
+    <mergeCell ref="B48:B57"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="C37:E39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:E41"/>
     <mergeCell ref="G2:N3"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="G5:N20"/>
@@ -4344,160 +4438,118 @@
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="C37:E39"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:E41"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="C58:E60"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:E62"/>
-    <mergeCell ref="B44:E45"/>
-    <mergeCell ref="B48:B57"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="B100:B102"/>
-    <mergeCell ref="C100:E102"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="C103:E104"/>
-    <mergeCell ref="B86:E87"/>
-    <mergeCell ref="B90:B99"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="D91:E91"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="D94:E94"/>
-    <mergeCell ref="D95:E95"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="D97:E97"/>
-    <mergeCell ref="D98:E98"/>
-    <mergeCell ref="D99:E99"/>
-    <mergeCell ref="B184:B186"/>
-    <mergeCell ref="C184:E186"/>
-    <mergeCell ref="B187:B188"/>
-    <mergeCell ref="C187:E188"/>
-    <mergeCell ref="B170:E171"/>
-    <mergeCell ref="B174:B183"/>
-    <mergeCell ref="D174:E174"/>
-    <mergeCell ref="D175:E175"/>
-    <mergeCell ref="D176:E176"/>
-    <mergeCell ref="D177:E177"/>
-    <mergeCell ref="D178:E178"/>
-    <mergeCell ref="D179:E179"/>
-    <mergeCell ref="D180:E180"/>
-    <mergeCell ref="D181:E181"/>
-    <mergeCell ref="D182:E182"/>
-    <mergeCell ref="D183:E183"/>
-    <mergeCell ref="B247:B249"/>
-    <mergeCell ref="C247:E249"/>
-    <mergeCell ref="B250:B251"/>
-    <mergeCell ref="C250:E251"/>
-    <mergeCell ref="B233:E234"/>
-    <mergeCell ref="B237:B246"/>
-    <mergeCell ref="D237:E237"/>
-    <mergeCell ref="D238:E238"/>
-    <mergeCell ref="D239:E239"/>
-    <mergeCell ref="D240:E240"/>
-    <mergeCell ref="D241:E241"/>
-    <mergeCell ref="D242:E242"/>
-    <mergeCell ref="D243:E243"/>
-    <mergeCell ref="D244:E244"/>
-    <mergeCell ref="D245:E245"/>
-    <mergeCell ref="D246:E246"/>
-    <mergeCell ref="B275:E276"/>
-    <mergeCell ref="B279:B288"/>
-    <mergeCell ref="D279:E279"/>
-    <mergeCell ref="D280:E280"/>
-    <mergeCell ref="D281:E281"/>
-    <mergeCell ref="D282:E282"/>
-    <mergeCell ref="D283:E283"/>
-    <mergeCell ref="D284:E284"/>
-    <mergeCell ref="D285:E285"/>
-    <mergeCell ref="D286:E286"/>
-    <mergeCell ref="D287:E287"/>
-    <mergeCell ref="D288:E288"/>
-    <mergeCell ref="B289:B291"/>
-    <mergeCell ref="C289:E291"/>
-    <mergeCell ref="B292:B293"/>
-    <mergeCell ref="C292:E293"/>
-    <mergeCell ref="B296:E297"/>
-    <mergeCell ref="B300:B309"/>
-    <mergeCell ref="D300:E300"/>
-    <mergeCell ref="D301:E301"/>
-    <mergeCell ref="D302:E302"/>
-    <mergeCell ref="D303:E303"/>
-    <mergeCell ref="D304:E304"/>
-    <mergeCell ref="D305:E305"/>
-    <mergeCell ref="D306:E306"/>
-    <mergeCell ref="D307:E307"/>
-    <mergeCell ref="D308:E308"/>
-    <mergeCell ref="D309:E309"/>
-    <mergeCell ref="B331:B333"/>
-    <mergeCell ref="C331:E333"/>
-    <mergeCell ref="B334:B335"/>
-    <mergeCell ref="C334:E335"/>
-    <mergeCell ref="B310:B312"/>
-    <mergeCell ref="C310:E312"/>
-    <mergeCell ref="B313:B314"/>
-    <mergeCell ref="C313:E314"/>
-    <mergeCell ref="B317:E318"/>
-    <mergeCell ref="B321:B330"/>
-    <mergeCell ref="D321:E321"/>
-    <mergeCell ref="D322:E322"/>
-    <mergeCell ref="D323:E323"/>
-    <mergeCell ref="D324:E324"/>
-    <mergeCell ref="D325:E325"/>
-    <mergeCell ref="D326:E326"/>
-    <mergeCell ref="D327:E327"/>
-    <mergeCell ref="D328:E328"/>
-    <mergeCell ref="D329:E329"/>
-    <mergeCell ref="D330:E330"/>
-    <mergeCell ref="B338:E339"/>
-    <mergeCell ref="B342:B351"/>
-    <mergeCell ref="D342:E342"/>
-    <mergeCell ref="D343:E343"/>
-    <mergeCell ref="D344:E344"/>
-    <mergeCell ref="D345:E345"/>
-    <mergeCell ref="D346:E346"/>
-    <mergeCell ref="D347:E347"/>
-    <mergeCell ref="D348:E348"/>
-    <mergeCell ref="D349:E349"/>
-    <mergeCell ref="D350:E350"/>
-    <mergeCell ref="D351:E351"/>
-    <mergeCell ref="B373:B375"/>
-    <mergeCell ref="C373:E375"/>
-    <mergeCell ref="B376:B377"/>
-    <mergeCell ref="C376:E377"/>
-    <mergeCell ref="B352:B354"/>
-    <mergeCell ref="C352:E354"/>
-    <mergeCell ref="B355:B356"/>
-    <mergeCell ref="C355:E356"/>
-    <mergeCell ref="B359:E360"/>
-    <mergeCell ref="B363:B372"/>
-    <mergeCell ref="D363:E363"/>
-    <mergeCell ref="D364:E364"/>
-    <mergeCell ref="D365:E365"/>
-    <mergeCell ref="D366:E366"/>
-    <mergeCell ref="D367:E367"/>
-    <mergeCell ref="D368:E368"/>
-    <mergeCell ref="D369:E369"/>
-    <mergeCell ref="D370:E370"/>
-    <mergeCell ref="D371:E371"/>
-    <mergeCell ref="D372:E372"/>
+    <mergeCell ref="B79:B81"/>
+    <mergeCell ref="C79:E81"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="C82:E83"/>
+    <mergeCell ref="B65:E66"/>
+    <mergeCell ref="B69:B78"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="B121:B123"/>
+    <mergeCell ref="C121:E123"/>
+    <mergeCell ref="B124:B125"/>
+    <mergeCell ref="C124:E125"/>
+    <mergeCell ref="B128:E129"/>
+    <mergeCell ref="B107:E108"/>
+    <mergeCell ref="B111:B120"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="D113:E113"/>
+    <mergeCell ref="D114:E114"/>
+    <mergeCell ref="D115:E115"/>
+    <mergeCell ref="D116:E116"/>
+    <mergeCell ref="D117:E117"/>
+    <mergeCell ref="D118:E118"/>
+    <mergeCell ref="D119:E119"/>
+    <mergeCell ref="D120:E120"/>
+    <mergeCell ref="B142:B144"/>
+    <mergeCell ref="C142:E144"/>
+    <mergeCell ref="B145:B146"/>
+    <mergeCell ref="C145:E146"/>
+    <mergeCell ref="B132:B141"/>
+    <mergeCell ref="D132:E132"/>
+    <mergeCell ref="D133:E133"/>
+    <mergeCell ref="D134:E134"/>
+    <mergeCell ref="D135:E135"/>
+    <mergeCell ref="D136:E136"/>
+    <mergeCell ref="D137:E137"/>
+    <mergeCell ref="D138:E138"/>
+    <mergeCell ref="D139:E139"/>
+    <mergeCell ref="D140:E140"/>
+    <mergeCell ref="D141:E141"/>
+    <mergeCell ref="B163:B165"/>
+    <mergeCell ref="C163:E165"/>
+    <mergeCell ref="B166:B167"/>
+    <mergeCell ref="C166:E167"/>
+    <mergeCell ref="B149:E150"/>
+    <mergeCell ref="B153:B162"/>
+    <mergeCell ref="D153:E153"/>
+    <mergeCell ref="D154:E154"/>
+    <mergeCell ref="D155:E155"/>
+    <mergeCell ref="D156:E156"/>
+    <mergeCell ref="D157:E157"/>
+    <mergeCell ref="D158:E158"/>
+    <mergeCell ref="D159:E159"/>
+    <mergeCell ref="D160:E160"/>
+    <mergeCell ref="D161:E161"/>
+    <mergeCell ref="D162:E162"/>
+    <mergeCell ref="B191:E192"/>
+    <mergeCell ref="B195:B204"/>
+    <mergeCell ref="D195:E195"/>
+    <mergeCell ref="D196:E196"/>
+    <mergeCell ref="D197:E197"/>
+    <mergeCell ref="D198:E198"/>
+    <mergeCell ref="D199:E199"/>
+    <mergeCell ref="D200:E200"/>
+    <mergeCell ref="D201:E201"/>
+    <mergeCell ref="D202:E202"/>
+    <mergeCell ref="D203:E203"/>
+    <mergeCell ref="D204:E204"/>
+    <mergeCell ref="B226:B228"/>
+    <mergeCell ref="C226:E228"/>
+    <mergeCell ref="B229:B230"/>
+    <mergeCell ref="C229:E230"/>
+    <mergeCell ref="B205:B207"/>
+    <mergeCell ref="C205:E207"/>
+    <mergeCell ref="B208:B209"/>
+    <mergeCell ref="C208:E209"/>
+    <mergeCell ref="B212:E213"/>
+    <mergeCell ref="B216:B225"/>
+    <mergeCell ref="D216:E216"/>
+    <mergeCell ref="D217:E217"/>
+    <mergeCell ref="D218:E218"/>
+    <mergeCell ref="D219:E219"/>
+    <mergeCell ref="D220:E220"/>
+    <mergeCell ref="D221:E221"/>
+    <mergeCell ref="D222:E222"/>
+    <mergeCell ref="D223:E223"/>
+    <mergeCell ref="D224:E224"/>
+    <mergeCell ref="D225:E225"/>
+    <mergeCell ref="B268:B270"/>
+    <mergeCell ref="C268:E270"/>
+    <mergeCell ref="B271:B272"/>
+    <mergeCell ref="C271:E272"/>
+    <mergeCell ref="B254:E255"/>
+    <mergeCell ref="B258:B267"/>
+    <mergeCell ref="D258:E258"/>
+    <mergeCell ref="D259:E259"/>
+    <mergeCell ref="D260:E260"/>
+    <mergeCell ref="D261:E261"/>
+    <mergeCell ref="D262:E262"/>
+    <mergeCell ref="D263:E263"/>
+    <mergeCell ref="D264:E264"/>
+    <mergeCell ref="D265:E265"/>
+    <mergeCell ref="D266:E266"/>
+    <mergeCell ref="D267:E267"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
